--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="458">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1015,6 +1015,9 @@
     <t>['33', '48', '85']</t>
   </si>
   <si>
+    <t>['31', '66', '71', '82']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1746,7 +1749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP387"/>
+  <dimension ref="A1:BP388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2005,7 +2008,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2417,7 +2420,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3241,7 +3244,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3447,7 +3450,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3528,7 +3531,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4271,7 +4274,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5507,7 +5510,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5588,7 +5591,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5997,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -6125,7 +6128,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6331,7 +6334,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6537,7 +6540,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6743,7 +6746,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6949,7 +6952,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7567,7 +7570,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8185,7 +8188,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8391,7 +8394,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8803,7 +8806,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10326,7 +10329,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10657,7 +10660,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10735,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ44">
         <v>1.18</v>
@@ -11275,7 +11278,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12923,7 +12926,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13129,7 +13132,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13335,7 +13338,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13541,7 +13544,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13953,7 +13956,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14571,7 +14574,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14855,7 +14858,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ64">
         <v>1.65</v>
@@ -15189,7 +15192,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15601,7 +15604,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15807,7 +15810,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16425,7 +16428,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16631,7 +16634,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16712,7 +16715,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ73">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16837,7 +16840,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17121,7 +17124,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ75">
         <v>0.35</v>
@@ -17661,7 +17664,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18279,7 +18282,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18485,7 +18488,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18691,7 +18694,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19515,7 +19518,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19927,7 +19930,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20133,7 +20136,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20545,7 +20548,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20957,7 +20960,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21163,7 +21166,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21244,7 +21247,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -22193,7 +22196,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23301,7 +23304,7 @@
         <v>1.4</v>
       </c>
       <c r="AP105">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23635,7 +23638,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24253,7 +24256,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24334,7 +24337,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24871,7 +24874,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24949,7 +24952,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
         <v>1.29</v>
@@ -25283,7 +25286,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26107,7 +26110,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26725,7 +26728,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27137,7 +27140,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27549,7 +27552,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27961,7 +27964,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28373,7 +28376,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28579,7 +28582,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28660,7 +28663,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28785,7 +28788,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29197,7 +29200,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29403,7 +29406,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30021,7 +30024,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30639,7 +30642,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30720,7 +30723,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30845,7 +30848,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31051,7 +31054,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31257,7 +31260,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31669,7 +31672,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32081,7 +32084,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33111,7 +33114,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33189,7 +33192,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ153">
         <v>0.89</v>
@@ -33729,7 +33732,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -35377,7 +35380,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35458,7 +35461,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ164">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35995,7 +35998,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -37025,7 +37028,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37643,7 +37646,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37927,7 +37930,7 @@
         <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ176">
         <v>0.72</v>
@@ -38055,7 +38058,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38467,7 +38470,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38673,7 +38676,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39369,7 +39372,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ183">
         <v>0.83</v>
@@ -39497,7 +39500,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40321,7 +40324,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40939,7 +40942,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41145,7 +41148,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41351,7 +41354,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41557,7 +41560,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41638,7 +41641,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ194">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -42793,7 +42796,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43205,7 +43208,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43283,7 +43286,7 @@
         <v>0.67</v>
       </c>
       <c r="AP202">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ202">
         <v>0.44</v>
@@ -43411,7 +43414,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44029,7 +44032,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -45059,7 +45062,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -45265,7 +45268,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45471,7 +45474,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45552,7 +45555,7 @@
         <v>0.59</v>
       </c>
       <c r="AQ213">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR213">
         <v>1.08</v>
@@ -45677,7 +45680,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46089,7 +46092,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47325,7 +47328,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47737,7 +47740,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48149,7 +48152,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48227,7 +48230,7 @@
         <v>1.11</v>
       </c>
       <c r="AP226">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ226">
         <v>1.29</v>
@@ -48767,7 +48770,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48973,7 +48976,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49179,7 +49182,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50003,7 +50006,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50827,7 +50830,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -50908,7 +50911,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ239">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR239">
         <v>1.67</v>
@@ -51445,7 +51448,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51857,7 +51860,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52269,7 +52272,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53093,7 +53096,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53171,7 +53174,7 @@
         <v>0.45</v>
       </c>
       <c r="AP250">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ250">
         <v>1.22</v>
@@ -53299,7 +53302,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53711,7 +53714,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54123,7 +54126,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54329,7 +54332,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55440,7 +55443,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ261">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR261">
         <v>1.52</v>
@@ -55565,7 +55568,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56183,7 +56186,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57291,7 +57294,7 @@
         <v>1.25</v>
       </c>
       <c r="AP270">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ270">
         <v>1.22</v>
@@ -57625,7 +57628,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58655,7 +58658,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59891,7 +59894,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60097,7 +60100,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60384,7 +60387,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ285">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR285">
         <v>1.52</v>
@@ -60715,7 +60718,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60999,7 +61002,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP288">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ288">
         <v>0.83</v>
@@ -61333,7 +61336,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61539,7 +61542,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -63393,7 +63396,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63599,7 +63602,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63805,7 +63808,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -64092,7 +64095,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ303">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR303">
         <v>1.51</v>
@@ -65247,7 +65250,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -65737,7 +65740,7 @@
         <v>0.92</v>
       </c>
       <c r="AP311">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ311">
         <v>1.11</v>
@@ -66071,7 +66074,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66483,7 +66486,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66689,7 +66692,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67800,7 +67803,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ321">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR321">
         <v>1.54</v>
@@ -68749,7 +68752,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69161,7 +69164,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -71221,7 +71224,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71427,7 +71430,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72045,7 +72048,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72123,7 +72126,7 @@
         <v>1.47</v>
       </c>
       <c r="AP342">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ342">
         <v>1.5</v>
@@ -72332,7 +72335,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ343">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR343">
         <v>1.39</v>
@@ -73281,7 +73284,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73693,7 +73696,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74105,7 +74108,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74311,7 +74314,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75135,7 +75138,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75753,7 +75756,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76165,7 +76168,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76371,7 +76374,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76783,7 +76786,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -76861,7 +76864,7 @@
         <v>1</v>
       </c>
       <c r="AP365">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ365">
         <v>1</v>
@@ -76989,7 +76992,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77482,7 +77485,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ368">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR368">
         <v>1.66</v>
@@ -77607,7 +77610,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -79049,7 +79052,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79255,7 +79258,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79667,7 +79670,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80079,7 +80082,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80285,7 +80288,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80491,7 +80494,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80697,7 +80700,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81472,6 +81475,212 @@
       </c>
       <c r="BP387">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="388" spans="1:68">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>7728589</v>
+      </c>
+      <c r="C388" t="s">
+        <v>68</v>
+      </c>
+      <c r="D388" t="s">
+        <v>69</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45765.66666666666</v>
+      </c>
+      <c r="F388">
+        <v>36</v>
+      </c>
+      <c r="G388" t="s">
+        <v>86</v>
+      </c>
+      <c r="H388" t="s">
+        <v>90</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>2</v>
+      </c>
+      <c r="L388">
+        <v>4</v>
+      </c>
+      <c r="M388">
+        <v>1</v>
+      </c>
+      <c r="N388">
+        <v>5</v>
+      </c>
+      <c r="O388" t="s">
+        <v>333</v>
+      </c>
+      <c r="P388" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q388">
+        <v>2.88</v>
+      </c>
+      <c r="R388">
+        <v>2.3</v>
+      </c>
+      <c r="S388">
+        <v>3.4</v>
+      </c>
+      <c r="T388">
+        <v>1.3</v>
+      </c>
+      <c r="U388">
+        <v>3.4</v>
+      </c>
+      <c r="V388">
+        <v>2.5</v>
+      </c>
+      <c r="W388">
+        <v>1.5</v>
+      </c>
+      <c r="X388">
+        <v>6</v>
+      </c>
+      <c r="Y388">
+        <v>1.13</v>
+      </c>
+      <c r="Z388">
+        <v>2.34</v>
+      </c>
+      <c r="AA388">
+        <v>3.61</v>
+      </c>
+      <c r="AB388">
+        <v>3.03</v>
+      </c>
+      <c r="AC388">
+        <v>1.04</v>
+      </c>
+      <c r="AD388">
+        <v>10</v>
+      </c>
+      <c r="AE388">
+        <v>1.2</v>
+      </c>
+      <c r="AF388">
+        <v>4.33</v>
+      </c>
+      <c r="AG388">
+        <v>1.61</v>
+      </c>
+      <c r="AH388">
+        <v>2.05</v>
+      </c>
+      <c r="AI388">
+        <v>1.53</v>
+      </c>
+      <c r="AJ388">
+        <v>2.38</v>
+      </c>
+      <c r="AK388">
+        <v>1.4</v>
+      </c>
+      <c r="AL388">
+        <v>1.27</v>
+      </c>
+      <c r="AM388">
+        <v>1.61</v>
+      </c>
+      <c r="AN388">
+        <v>1.29</v>
+      </c>
+      <c r="AO388">
+        <v>1.22</v>
+      </c>
+      <c r="AP388">
+        <v>1.39</v>
+      </c>
+      <c r="AQ388">
+        <v>1.16</v>
+      </c>
+      <c r="AR388">
+        <v>1.82</v>
+      </c>
+      <c r="AS388">
+        <v>1.63</v>
+      </c>
+      <c r="AT388">
+        <v>3.45</v>
+      </c>
+      <c r="AU388">
+        <v>8</v>
+      </c>
+      <c r="AV388">
+        <v>4</v>
+      </c>
+      <c r="AW388">
+        <v>6</v>
+      </c>
+      <c r="AX388">
+        <v>6</v>
+      </c>
+      <c r="AY388">
+        <v>17</v>
+      </c>
+      <c r="AZ388">
+        <v>13</v>
+      </c>
+      <c r="BA388">
+        <v>3</v>
+      </c>
+      <c r="BB388">
+        <v>3</v>
+      </c>
+      <c r="BC388">
+        <v>6</v>
+      </c>
+      <c r="BD388">
+        <v>1.74</v>
+      </c>
+      <c r="BE388">
+        <v>6.4</v>
+      </c>
+      <c r="BF388">
+        <v>2.3</v>
+      </c>
+      <c r="BG388">
+        <v>1.29</v>
+      </c>
+      <c r="BH388">
+        <v>3.15</v>
+      </c>
+      <c r="BI388">
+        <v>1.5</v>
+      </c>
+      <c r="BJ388">
+        <v>2.33</v>
+      </c>
+      <c r="BK388">
+        <v>1.83</v>
+      </c>
+      <c r="BL388">
+        <v>1.83</v>
+      </c>
+      <c r="BM388">
+        <v>2.28</v>
+      </c>
+      <c r="BN388">
+        <v>1.52</v>
+      </c>
+      <c r="BO388">
+        <v>2.95</v>
+      </c>
+      <c r="BP388">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="469">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1030,6 +1030,9 @@
     <t>['13', '32']</t>
   </si>
   <si>
+    <t>['45+3', '71']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1416,6 +1419,9 @@
   <si>
     <t>['34', '43']</t>
   </si>
+  <si>
+    <t>['60', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1776,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP396"/>
+  <dimension ref="A1:BP397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2035,7 +2041,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2447,7 +2453,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2731,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>1.17</v>
@@ -2940,7 +2946,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3271,7 +3277,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3477,7 +3483,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4301,7 +4307,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5537,7 +5543,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6155,7 +6161,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6361,7 +6367,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6567,7 +6573,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6773,7 +6779,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6979,7 +6985,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7597,7 +7603,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8215,7 +8221,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8421,7 +8427,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8499,7 +8505,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8833,7 +8839,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9738,7 +9744,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR39">
         <v>1.32</v>
@@ -10687,7 +10693,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11305,7 +11311,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11589,7 +11595,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>0.39</v>
@@ -12953,7 +12959,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13159,7 +13165,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13365,7 +13371,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13446,7 +13452,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13571,7 +13577,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13983,7 +13989,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14601,7 +14607,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15219,7 +15225,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15631,7 +15637,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15837,7 +15843,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16455,7 +16461,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16661,7 +16667,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16867,7 +16873,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17691,7 +17697,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18309,7 +18315,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18515,7 +18521,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18593,7 +18599,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
         <v>1.06</v>
@@ -18721,7 +18727,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19420,7 +19426,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19545,7 +19551,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19957,7 +19963,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20163,7 +20169,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20575,7 +20581,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20656,7 +20662,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR92">
         <v>1.42</v>
@@ -20859,7 +20865,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -20987,7 +20993,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21193,7 +21199,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22223,7 +22229,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23665,7 +23671,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24283,7 +24289,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24901,7 +24907,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25185,7 +25191,7 @@
         <v>1.75</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
         <v>1.17</v>
@@ -25313,7 +25319,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26137,7 +26143,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26630,7 +26636,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26755,7 +26761,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27167,7 +27173,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27579,7 +27585,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27991,7 +27997,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28403,7 +28409,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28609,7 +28615,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28815,7 +28821,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29227,7 +29233,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29305,7 +29311,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
         <v>1.29</v>
@@ -29433,7 +29439,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30051,7 +30057,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30669,7 +30675,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30875,7 +30881,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31081,7 +31087,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31287,7 +31293,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31699,7 +31705,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32111,7 +32117,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32807,7 +32813,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ151">
         <v>0.72</v>
@@ -33141,7 +33147,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33759,7 +33765,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34870,7 +34876,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ161">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR161">
         <v>1.62</v>
@@ -35407,7 +35413,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36025,7 +36031,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -37055,7 +37061,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37673,7 +37679,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37754,7 +37760,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ175">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -38085,7 +38091,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38497,7 +38503,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38703,7 +38709,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39402,7 +39408,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ183">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39527,7 +39533,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40223,7 +40229,7 @@
         <v>0.75</v>
       </c>
       <c r="AP187">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ187">
         <v>0.44</v>
@@ -40351,7 +40357,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40969,7 +40975,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41175,7 +41181,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41381,7 +41387,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41587,7 +41593,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42823,7 +42829,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43235,7 +43241,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43441,7 +43447,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43519,7 +43525,7 @@
         <v>1.6</v>
       </c>
       <c r="AP203">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ203">
         <v>1.11</v>
@@ -44059,7 +44065,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44346,7 +44352,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ207">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR207">
         <v>1.45</v>
@@ -45089,7 +45095,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -45295,7 +45301,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45501,7 +45507,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45707,7 +45713,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46119,7 +46125,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47227,7 +47233,7 @@
         <v>1.56</v>
       </c>
       <c r="AP221">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ221">
         <v>1.39</v>
@@ -47355,7 +47361,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47767,7 +47773,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -47848,7 +47854,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ224">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR224">
         <v>1.5</v>
@@ -48179,7 +48185,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48797,7 +48803,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49003,7 +49009,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49209,7 +49215,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50033,7 +50039,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50857,7 +50863,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51475,7 +51481,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51887,7 +51893,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52171,7 +52177,7 @@
         <v>1.09</v>
       </c>
       <c r="AP245">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ245">
         <v>1</v>
@@ -52299,7 +52305,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53123,7 +53129,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53329,7 +53335,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53741,7 +53747,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53822,7 +53828,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ253">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR253">
         <v>1.15</v>
@@ -54153,7 +54159,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54359,7 +54365,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55595,7 +55601,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56213,7 +56219,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57118,7 +57124,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ269">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR269">
         <v>1.57</v>
@@ -57527,7 +57533,7 @@
         <v>1.33</v>
       </c>
       <c r="AP271">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ271">
         <v>1.5</v>
@@ -57655,7 +57661,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58685,7 +58691,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59921,7 +59927,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60127,7 +60133,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60745,7 +60751,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61238,7 +61244,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ289">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR289">
         <v>1.17</v>
@@ -61363,7 +61369,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61569,7 +61575,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -63423,7 +63429,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63629,7 +63635,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63707,7 +63713,7 @@
         <v>2</v>
       </c>
       <c r="AP301">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ301">
         <v>1.72</v>
@@ -63835,7 +63841,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -65277,7 +65283,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -66101,7 +66107,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66182,7 +66188,7 @@
         <v>2</v>
       </c>
       <c r="AQ313">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR313">
         <v>1.7</v>
@@ -66513,7 +66519,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66719,7 +66725,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67827,7 +67833,7 @@
         <v>1.47</v>
       </c>
       <c r="AP321">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ321">
         <v>1.16</v>
@@ -68779,7 +68785,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69191,7 +69197,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -70508,7 +70514,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ334">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR334">
         <v>1.53</v>
@@ -71251,7 +71257,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71457,7 +71463,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72075,7 +72081,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -73311,7 +73317,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73595,7 +73601,7 @@
         <v>1.38</v>
       </c>
       <c r="AP349">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ349">
         <v>1.22</v>
@@ -73723,7 +73729,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74135,7 +74141,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74341,7 +74347,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75165,7 +75171,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75783,7 +75789,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76070,7 +76076,7 @@
         <v>2</v>
       </c>
       <c r="AQ361">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR361">
         <v>1.6</v>
@@ -76195,7 +76201,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76401,7 +76407,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76813,7 +76819,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77019,7 +77025,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77097,7 +77103,7 @@
         <v>1.31</v>
       </c>
       <c r="AP366">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ366">
         <v>1.28</v>
@@ -77637,7 +77643,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -79079,7 +79085,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79285,7 +79291,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79697,7 +79703,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80109,7 +80115,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80315,7 +80321,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80521,7 +80527,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80727,7 +80733,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81220,7 +81226,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ386">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR386">
         <v>1.33</v>
@@ -81963,7 +81969,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82169,7 +82175,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82375,7 +82381,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82581,7 +82587,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -82993,7 +82999,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83356,6 +83362,212 @@
       </c>
       <c r="BP396">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="397" spans="1:68">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>7728585</v>
+      </c>
+      <c r="C397" t="s">
+        <v>68</v>
+      </c>
+      <c r="D397" t="s">
+        <v>69</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45768.64583333334</v>
+      </c>
+      <c r="F397">
+        <v>36</v>
+      </c>
+      <c r="G397" t="s">
+        <v>73</v>
+      </c>
+      <c r="H397" t="s">
+        <v>83</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>1</v>
+      </c>
+      <c r="L397">
+        <v>2</v>
+      </c>
+      <c r="M397">
+        <v>2</v>
+      </c>
+      <c r="N397">
+        <v>4</v>
+      </c>
+      <c r="O397" t="s">
+        <v>338</v>
+      </c>
+      <c r="P397" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q397">
+        <v>2.5</v>
+      </c>
+      <c r="R397">
+        <v>1.95</v>
+      </c>
+      <c r="S397">
+        <v>5.5</v>
+      </c>
+      <c r="T397">
+        <v>1.57</v>
+      </c>
+      <c r="U397">
+        <v>2.25</v>
+      </c>
+      <c r="V397">
+        <v>3.75</v>
+      </c>
+      <c r="W397">
+        <v>1.25</v>
+      </c>
+      <c r="X397">
+        <v>11</v>
+      </c>
+      <c r="Y397">
+        <v>1.05</v>
+      </c>
+      <c r="Z397">
+        <v>1.81</v>
+      </c>
+      <c r="AA397">
+        <v>3.47</v>
+      </c>
+      <c r="AB397">
+        <v>5.1</v>
+      </c>
+      <c r="AC397">
+        <v>1.1</v>
+      </c>
+      <c r="AD397">
+        <v>6.5</v>
+      </c>
+      <c r="AE397">
+        <v>1.48</v>
+      </c>
+      <c r="AF397">
+        <v>2.6</v>
+      </c>
+      <c r="AG397">
+        <v>2.37</v>
+      </c>
+      <c r="AH397">
+        <v>1.48</v>
+      </c>
+      <c r="AI397">
+        <v>2.25</v>
+      </c>
+      <c r="AJ397">
+        <v>1.57</v>
+      </c>
+      <c r="AK397">
+        <v>1.17</v>
+      </c>
+      <c r="AL397">
+        <v>1.28</v>
+      </c>
+      <c r="AM397">
+        <v>1.95</v>
+      </c>
+      <c r="AN397">
+        <v>1.88</v>
+      </c>
+      <c r="AO397">
+        <v>0.83</v>
+      </c>
+      <c r="AP397">
+        <v>1.83</v>
+      </c>
+      <c r="AQ397">
+        <v>0.84</v>
+      </c>
+      <c r="AR397">
+        <v>1.58</v>
+      </c>
+      <c r="AS397">
+        <v>1.23</v>
+      </c>
+      <c r="AT397">
+        <v>2.81</v>
+      </c>
+      <c r="AU397">
+        <v>8</v>
+      </c>
+      <c r="AV397">
+        <v>7</v>
+      </c>
+      <c r="AW397">
+        <v>11</v>
+      </c>
+      <c r="AX397">
+        <v>6</v>
+      </c>
+      <c r="AY397">
+        <v>20</v>
+      </c>
+      <c r="AZ397">
+        <v>15</v>
+      </c>
+      <c r="BA397">
+        <v>2</v>
+      </c>
+      <c r="BB397">
+        <v>7</v>
+      </c>
+      <c r="BC397">
+        <v>9</v>
+      </c>
+      <c r="BD397">
+        <v>1.48</v>
+      </c>
+      <c r="BE397">
+        <v>9</v>
+      </c>
+      <c r="BF397">
+        <v>3.26</v>
+      </c>
+      <c r="BG397">
+        <v>1.25</v>
+      </c>
+      <c r="BH397">
+        <v>3.28</v>
+      </c>
+      <c r="BI397">
+        <v>1.49</v>
+      </c>
+      <c r="BJ397">
+        <v>2.38</v>
+      </c>
+      <c r="BK397">
+        <v>2.05</v>
+      </c>
+      <c r="BL397">
+        <v>1.7</v>
+      </c>
+      <c r="BM397">
+        <v>2.4</v>
+      </c>
+      <c r="BN397">
+        <v>1.48</v>
+      </c>
+      <c r="BO397">
+        <v>3.2</v>
+      </c>
+      <c r="BP397">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="470">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1033,6 +1033,12 @@
     <t>['45+3', '71']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['6', '49', '90+4']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1247,9 +1253,6 @@
   </si>
   <si>
     <t>['15', '27', '44']</t>
-  </si>
-  <si>
-    <t>['19']</t>
   </si>
   <si>
     <t>['50', '65', '90+2']</t>
@@ -1782,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP397"/>
+  <dimension ref="A1:BP401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2041,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2328,7 +2331,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ3">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2453,7 +2456,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2531,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -3277,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3358,7 +3361,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3483,7 +3486,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3770,7 +3773,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ10">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4307,7 +4310,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5543,7 +5546,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5827,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -6161,7 +6164,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6367,7 +6370,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6573,7 +6576,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6779,7 +6782,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6857,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ25">
         <v>1.72</v>
@@ -6985,7 +6988,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7063,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26">
         <v>0.39</v>
@@ -7478,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7603,7 +7606,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8221,7 +8224,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8302,7 +8305,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -8427,7 +8430,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8508,7 +8511,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8714,7 +8717,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ34">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8839,7 +8842,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10156,7 +10159,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -10693,7 +10696,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10977,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ45">
         <v>0.83</v>
@@ -11311,7 +11314,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12010,7 +12013,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ50">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -12419,10 +12422,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ52">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12831,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
         <v>0.72</v>
@@ -12959,7 +12962,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13165,7 +13168,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13371,7 +13374,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13577,7 +13580,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13989,7 +13992,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14276,7 +14279,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14482,7 +14485,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14607,7 +14610,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15225,7 +15228,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15512,7 +15515,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ67">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15637,7 +15640,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15715,7 +15718,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15843,7 +15846,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15921,7 +15924,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -16461,7 +16464,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16667,7 +16670,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16873,7 +16876,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17569,7 +17572,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17697,7 +17700,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17778,7 +17781,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ78">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -18315,7 +18318,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18521,7 +18524,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18602,7 +18605,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.41</v>
@@ -18727,7 +18730,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19220,7 +19223,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -19551,7 +19554,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19963,7 +19966,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20041,10 +20044,10 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20169,7 +20172,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20581,7 +20584,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20659,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92">
         <v>0.84</v>
@@ -20993,7 +20996,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21199,7 +21202,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21277,7 +21280,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ95">
         <v>1.16</v>
@@ -21486,7 +21489,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21692,7 +21695,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -22229,7 +22232,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22516,7 +22519,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ101">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -23340,7 +23343,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -23671,7 +23674,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23749,7 +23752,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
         <v>1.72</v>
@@ -24164,7 +24167,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -24289,7 +24292,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24573,7 +24576,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ111">
         <v>1.11</v>
@@ -24779,7 +24782,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ112">
         <v>0.89</v>
@@ -24907,7 +24910,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25319,7 +25322,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25606,7 +25609,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ116">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR116">
         <v>1.47</v>
@@ -26143,7 +26146,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26761,7 +26764,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27045,7 +27048,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>1.28</v>
@@ -27173,7 +27176,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27254,7 +27257,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ124">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR124">
         <v>1.12</v>
@@ -27585,7 +27588,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27997,7 +28000,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28409,7 +28412,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28487,10 +28490,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ130">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28615,7 +28618,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28821,7 +28824,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28902,7 +28905,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR132">
         <v>1.78</v>
@@ -29233,7 +29236,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29439,7 +29442,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30057,7 +30060,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30341,7 +30344,7 @@
         <v>1.17</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ139">
         <v>1.11</v>
@@ -30675,7 +30678,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30881,7 +30884,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31087,7 +31090,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31293,7 +31296,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31580,7 +31583,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ145">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31705,7 +31708,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31992,7 +31995,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -32117,7 +32120,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32401,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ149">
         <v>1.28</v>
@@ -33147,7 +33150,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33765,7 +33768,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34049,10 +34052,10 @@
         <v>0.17</v>
       </c>
       <c r="AP157">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR157">
         <v>1.49</v>
@@ -34255,7 +34258,7 @@
         <v>0.33</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ158">
         <v>0.39</v>
@@ -35288,7 +35291,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ163">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR163">
         <v>1.14</v>
@@ -35413,7 +35416,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36031,7 +36034,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36521,7 +36524,7 @@
         <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ169">
         <v>0.39</v>
@@ -36730,7 +36733,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ170">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -37061,7 +37064,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37554,7 +37557,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37679,7 +37682,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38091,7 +38094,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38169,7 +38172,7 @@
         <v>0.88</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ177">
         <v>1.22</v>
@@ -38503,7 +38506,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38709,7 +38712,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38787,7 +38790,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
         <v>1.5</v>
@@ -39533,7 +39536,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40026,7 +40029,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ186">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -40232,7 +40235,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ187">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40357,7 +40360,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40438,7 +40441,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR188">
         <v>1.17</v>
@@ -40975,7 +40978,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41181,7 +41184,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41387,7 +41390,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41593,7 +41596,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41877,7 +41880,7 @@
         <v>1.75</v>
       </c>
       <c r="AP195">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ195">
         <v>1.17</v>
@@ -42498,7 +42501,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ198">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42829,7 +42832,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42910,7 +42913,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ200">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR200">
         <v>1.61</v>
@@ -43113,7 +43116,7 @@
         <v>1.22</v>
       </c>
       <c r="AP201">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
         <v>1</v>
@@ -43241,7 +43244,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43322,7 +43325,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ202">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR202">
         <v>1.63</v>
@@ -43447,7 +43450,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43937,7 +43940,7 @@
         <v>1.75</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ205">
         <v>1.39</v>
@@ -44065,7 +44068,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44764,7 +44767,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ209">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -44967,10 +44970,10 @@
         <v>1.22</v>
       </c>
       <c r="AP210">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ210">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -45095,7 +45098,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -45301,7 +45304,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45507,7 +45510,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45713,7 +45716,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -45794,7 +45797,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ214">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR214">
         <v>1.17</v>
@@ -46125,7 +46128,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46203,7 +46206,7 @@
         <v>0.78</v>
       </c>
       <c r="AP216">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216">
         <v>1.11</v>
@@ -47361,7 +47364,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47439,10 +47442,10 @@
         <v>0.2</v>
       </c>
       <c r="AP222">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ222">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR222">
         <v>1.64</v>
@@ -47773,7 +47776,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48185,7 +48188,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48803,7 +48806,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49009,7 +49012,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49215,7 +49218,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49296,7 +49299,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR231">
         <v>1.26</v>
@@ -49708,7 +49711,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ233">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR233">
         <v>1.18</v>
@@ -50039,7 +50042,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50117,7 +50120,7 @@
         <v>2.2</v>
       </c>
       <c r="AP235">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ235">
         <v>1.72</v>
@@ -50735,10 +50738,10 @@
         <v>1.1</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ238">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1.62</v>
@@ -50863,7 +50866,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51147,10 +51150,10 @@
         <v>1.36</v>
       </c>
       <c r="AP240">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ240">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR240">
         <v>1.44</v>
@@ -51481,7 +51484,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51893,7 +51896,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52305,7 +52308,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53129,7 +53132,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53210,7 +53213,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ250">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR250">
         <v>1.68</v>
@@ -53335,7 +53338,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53747,7 +53750,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54159,7 +54162,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54365,7 +54368,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -54446,7 +54449,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ256">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR256">
         <v>1.43</v>
@@ -54652,7 +54655,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ257">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR257">
         <v>1.24</v>
@@ -55064,7 +55067,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ259">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR259">
         <v>1.7</v>
@@ -55267,7 +55270,7 @@
         <v>1.36</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ260">
         <v>1.17</v>
@@ -55473,7 +55476,7 @@
         <v>1.75</v>
       </c>
       <c r="AP261">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ261">
         <v>1.16</v>
@@ -55601,7 +55604,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55885,7 +55888,7 @@
         <v>1.27</v>
       </c>
       <c r="AP263">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ263">
         <v>0.89</v>
@@ -56219,7 +56222,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57661,7 +57664,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57742,7 +57745,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ272">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR272">
         <v>1.18</v>
@@ -58563,7 +58566,7 @@
         <v>1.46</v>
       </c>
       <c r="AP276">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ276">
         <v>1.11</v>
@@ -58691,7 +58694,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59184,7 +59187,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ279">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR279">
         <v>1.34</v>
@@ -59927,7 +59930,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60133,7 +60136,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60211,10 +60214,10 @@
         <v>0.54</v>
       </c>
       <c r="AP284">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ284">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR284">
         <v>1.39</v>
@@ -60623,7 +60626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP286">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ286">
         <v>1.06</v>
@@ -60751,7 +60754,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61369,7 +61372,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61575,7 +61578,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -61656,7 +61659,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ291">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR291">
         <v>1.32</v>
@@ -61862,7 +61865,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR292">
         <v>1.67</v>
@@ -62683,7 +62686,7 @@
         <v>1</v>
       </c>
       <c r="AP296">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ296">
         <v>1</v>
@@ -63304,7 +63307,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ299">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR299">
         <v>1.24</v>
@@ -63429,7 +63432,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63635,7 +63638,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63841,7 +63844,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -64540,7 +64543,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ305">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR305">
         <v>1.62</v>
@@ -64949,7 +64952,7 @@
         <v>0.77</v>
       </c>
       <c r="AP307">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ307">
         <v>1.06</v>
@@ -65155,7 +65158,7 @@
         <v>1.38</v>
       </c>
       <c r="AP308">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ308">
         <v>1.17</v>
@@ -65283,7 +65286,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -65982,7 +65985,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ312">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR312">
         <v>1.54</v>
@@ -66107,7 +66110,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66519,7 +66522,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66597,7 +66600,7 @@
         <v>1.36</v>
       </c>
       <c r="AP315">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ315">
         <v>1.5</v>
@@ -66725,7 +66728,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -66806,7 +66809,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ316">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR316">
         <v>1.53</v>
@@ -67009,7 +67012,7 @@
         <v>1.31</v>
       </c>
       <c r="AP317">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ317">
         <v>1.17</v>
@@ -68042,7 +68045,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ322">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR322">
         <v>1.55</v>
@@ -68785,7 +68788,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69197,7 +69200,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69484,7 +69487,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ329">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR329">
         <v>1.65</v>
@@ -70099,7 +70102,7 @@
         <v>1.07</v>
       </c>
       <c r="AP332">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ332">
         <v>1.29</v>
@@ -70511,7 +70514,7 @@
         <v>1</v>
       </c>
       <c r="AP334">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ334">
         <v>0.84</v>
@@ -71132,7 +71135,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ337">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR337">
         <v>1.66</v>
@@ -71257,7 +71260,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71463,7 +71466,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -71544,7 +71547,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ339">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR339">
         <v>1.26</v>
@@ -71953,7 +71956,7 @@
         <v>1.36</v>
       </c>
       <c r="AP341">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ341">
         <v>1.39</v>
@@ -72081,7 +72084,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -73317,7 +73320,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73729,7 +73732,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74141,7 +74144,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74222,7 +74225,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ352">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR352">
         <v>1.55</v>
@@ -74347,7 +74350,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -74428,7 +74431,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ353">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR353">
         <v>1.65</v>
@@ -75171,7 +75174,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75664,7 +75667,7 @@
         <v>2</v>
       </c>
       <c r="AQ359">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR359">
         <v>1.73</v>
@@ -75789,7 +75792,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76073,7 +76076,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP361">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ361">
         <v>0.84</v>
@@ -76201,7 +76204,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76282,7 +76285,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ362">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR362">
         <v>1.26</v>
@@ -76407,7 +76410,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76485,7 +76488,7 @@
         <v>1.07</v>
       </c>
       <c r="AP363">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ363">
         <v>0.89</v>
@@ -76691,7 +76694,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP364">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ364">
         <v>0.83</v>
@@ -76819,7 +76822,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77025,7 +77028,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77643,7 +77646,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -78342,7 +78345,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ372">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR372">
         <v>1.35</v>
@@ -79085,7 +79088,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79166,7 +79169,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ376">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR376">
         <v>1.72</v>
@@ -79291,7 +79294,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79703,7 +79706,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -79781,7 +79784,7 @@
         <v>1.19</v>
       </c>
       <c r="AP379">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ379">
         <v>1.29</v>
@@ -79987,7 +79990,7 @@
         <v>0.76</v>
       </c>
       <c r="AP380">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ380">
         <v>0.72</v>
@@ -80115,7 +80118,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80193,7 +80196,7 @@
         <v>1.19</v>
       </c>
       <c r="AP381">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ381">
         <v>1.39</v>
@@ -80321,7 +80324,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80527,7 +80530,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80733,7 +80736,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -80814,7 +80817,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ384">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR384">
         <v>1.56</v>
@@ -81020,7 +81023,7 @@
         <v>2</v>
       </c>
       <c r="AQ385">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR385">
         <v>1.73</v>
@@ -81969,7 +81972,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82175,7 +82178,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82381,7 +82384,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82587,7 +82590,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -82999,7 +83002,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83411,7 +83414,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -83568,6 +83571,830 @@
       </c>
       <c r="BP397">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="398" spans="1:68">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>7728594</v>
+      </c>
+      <c r="C398" t="s">
+        <v>68</v>
+      </c>
+      <c r="D398" t="s">
+        <v>69</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45772.64583333334</v>
+      </c>
+      <c r="F398">
+        <v>37</v>
+      </c>
+      <c r="G398" t="s">
+        <v>72</v>
+      </c>
+      <c r="H398" t="s">
+        <v>76</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>1</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>1</v>
+      </c>
+      <c r="O398" t="s">
+        <v>339</v>
+      </c>
+      <c r="P398" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q398">
+        <v>2.75</v>
+      </c>
+      <c r="R398">
+        <v>2</v>
+      </c>
+      <c r="S398">
+        <v>4.5</v>
+      </c>
+      <c r="T398">
+        <v>1.53</v>
+      </c>
+      <c r="U398">
+        <v>2.38</v>
+      </c>
+      <c r="V398">
+        <v>3.5</v>
+      </c>
+      <c r="W398">
+        <v>1.29</v>
+      </c>
+      <c r="X398">
+        <v>11</v>
+      </c>
+      <c r="Y398">
+        <v>1.05</v>
+      </c>
+      <c r="Z398">
+        <v>1.98</v>
+      </c>
+      <c r="AA398">
+        <v>3.33</v>
+      </c>
+      <c r="AB398">
+        <v>4.33</v>
+      </c>
+      <c r="AC398">
+        <v>1.09</v>
+      </c>
+      <c r="AD398">
+        <v>7</v>
+      </c>
+      <c r="AE398">
+        <v>1.45</v>
+      </c>
+      <c r="AF398">
+        <v>2.7</v>
+      </c>
+      <c r="AG398">
+        <v>2.3</v>
+      </c>
+      <c r="AH398">
+        <v>1.5</v>
+      </c>
+      <c r="AI398">
+        <v>2.1</v>
+      </c>
+      <c r="AJ398">
+        <v>1.67</v>
+      </c>
+      <c r="AK398">
+        <v>1.26</v>
+      </c>
+      <c r="AL398">
+        <v>1.32</v>
+      </c>
+      <c r="AM398">
+        <v>1.73</v>
+      </c>
+      <c r="AN398">
+        <v>1.39</v>
+      </c>
+      <c r="AO398">
+        <v>1.06</v>
+      </c>
+      <c r="AP398">
+        <v>1.47</v>
+      </c>
+      <c r="AQ398">
+        <v>1</v>
+      </c>
+      <c r="AR398">
+        <v>1.48</v>
+      </c>
+      <c r="AS398">
+        <v>1.24</v>
+      </c>
+      <c r="AT398">
+        <v>2.72</v>
+      </c>
+      <c r="AU398">
+        <v>3</v>
+      </c>
+      <c r="AV398">
+        <v>6</v>
+      </c>
+      <c r="AW398">
+        <v>8</v>
+      </c>
+      <c r="AX398">
+        <v>7</v>
+      </c>
+      <c r="AY398">
+        <v>11</v>
+      </c>
+      <c r="AZ398">
+        <v>13</v>
+      </c>
+      <c r="BA398">
+        <v>1</v>
+      </c>
+      <c r="BB398">
+        <v>5</v>
+      </c>
+      <c r="BC398">
+        <v>6</v>
+      </c>
+      <c r="BD398">
+        <v>1.6</v>
+      </c>
+      <c r="BE398">
+        <v>6.4</v>
+      </c>
+      <c r="BF398">
+        <v>2.6</v>
+      </c>
+      <c r="BG398">
+        <v>1.52</v>
+      </c>
+      <c r="BH398">
+        <v>2.3</v>
+      </c>
+      <c r="BI398">
+        <v>1.87</v>
+      </c>
+      <c r="BJ398">
+        <v>1.8</v>
+      </c>
+      <c r="BK398">
+        <v>2.38</v>
+      </c>
+      <c r="BL398">
+        <v>1.48</v>
+      </c>
+      <c r="BM398">
+        <v>3.15</v>
+      </c>
+      <c r="BN398">
+        <v>1.29</v>
+      </c>
+      <c r="BO398">
+        <v>4.3</v>
+      </c>
+      <c r="BP398">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:68">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>7728592</v>
+      </c>
+      <c r="C399" t="s">
+        <v>68</v>
+      </c>
+      <c r="D399" t="s">
+        <v>69</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45773.375</v>
+      </c>
+      <c r="F399">
+        <v>37</v>
+      </c>
+      <c r="G399" t="s">
+        <v>85</v>
+      </c>
+      <c r="H399" t="s">
+        <v>87</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>1</v>
+      </c>
+      <c r="K399">
+        <v>2</v>
+      </c>
+      <c r="L399">
+        <v>3</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+      <c r="N399">
+        <v>4</v>
+      </c>
+      <c r="O399" t="s">
+        <v>340</v>
+      </c>
+      <c r="P399" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q399">
+        <v>1.9</v>
+      </c>
+      <c r="R399">
+        <v>2.3</v>
+      </c>
+      <c r="S399">
+        <v>6.5</v>
+      </c>
+      <c r="T399">
+        <v>1.35</v>
+      </c>
+      <c r="U399">
+        <v>2.9</v>
+      </c>
+      <c r="V399">
+        <v>2.65</v>
+      </c>
+      <c r="W399">
+        <v>1.42</v>
+      </c>
+      <c r="X399">
+        <v>6.5</v>
+      </c>
+      <c r="Y399">
+        <v>1.09</v>
+      </c>
+      <c r="Z399">
+        <v>1.45</v>
+      </c>
+      <c r="AA399">
+        <v>4.6</v>
+      </c>
+      <c r="AB399">
+        <v>7.9</v>
+      </c>
+      <c r="AC399">
+        <v>1.05</v>
+      </c>
+      <c r="AD399">
+        <v>9.5</v>
+      </c>
+      <c r="AE399">
+        <v>1.25</v>
+      </c>
+      <c r="AF399">
+        <v>3.75</v>
+      </c>
+      <c r="AG399">
+        <v>2</v>
+      </c>
+      <c r="AH399">
+        <v>1.77</v>
+      </c>
+      <c r="AI399">
+        <v>2.1</v>
+      </c>
+      <c r="AJ399">
+        <v>1.65</v>
+      </c>
+      <c r="AK399">
+        <v>1.09</v>
+      </c>
+      <c r="AL399">
+        <v>1.19</v>
+      </c>
+      <c r="AM399">
+        <v>2.8</v>
+      </c>
+      <c r="AN399">
+        <v>1.67</v>
+      </c>
+      <c r="AO399">
+        <v>0.44</v>
+      </c>
+      <c r="AP399">
+        <v>1.74</v>
+      </c>
+      <c r="AQ399">
+        <v>0.42</v>
+      </c>
+      <c r="AR399">
+        <v>1.55</v>
+      </c>
+      <c r="AS399">
+        <v>0.99</v>
+      </c>
+      <c r="AT399">
+        <v>2.54</v>
+      </c>
+      <c r="AU399">
+        <v>9</v>
+      </c>
+      <c r="AV399">
+        <v>3</v>
+      </c>
+      <c r="AW399">
+        <v>14</v>
+      </c>
+      <c r="AX399">
+        <v>5</v>
+      </c>
+      <c r="AY399">
+        <v>25</v>
+      </c>
+      <c r="AZ399">
+        <v>8</v>
+      </c>
+      <c r="BA399">
+        <v>11</v>
+      </c>
+      <c r="BB399">
+        <v>2</v>
+      </c>
+      <c r="BC399">
+        <v>13</v>
+      </c>
+      <c r="BD399">
+        <v>1.26</v>
+      </c>
+      <c r="BE399">
+        <v>7.5</v>
+      </c>
+      <c r="BF399">
+        <v>4.3</v>
+      </c>
+      <c r="BG399">
+        <v>1.45</v>
+      </c>
+      <c r="BH399">
+        <v>2.48</v>
+      </c>
+      <c r="BI399">
+        <v>1.75</v>
+      </c>
+      <c r="BJ399">
+        <v>1.92</v>
+      </c>
+      <c r="BK399">
+        <v>2.18</v>
+      </c>
+      <c r="BL399">
+        <v>1.58</v>
+      </c>
+      <c r="BM399">
+        <v>2.8</v>
+      </c>
+      <c r="BN399">
+        <v>1.36</v>
+      </c>
+      <c r="BO399">
+        <v>3.7</v>
+      </c>
+      <c r="BP399">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:68">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>7728597</v>
+      </c>
+      <c r="C400" t="s">
+        <v>68</v>
+      </c>
+      <c r="D400" t="s">
+        <v>69</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45773.46875</v>
+      </c>
+      <c r="F400">
+        <v>37</v>
+      </c>
+      <c r="G400" t="s">
+        <v>80</v>
+      </c>
+      <c r="H400" t="s">
+        <v>88</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400">
+        <v>1</v>
+      </c>
+      <c r="N400">
+        <v>2</v>
+      </c>
+      <c r="O400" t="s">
+        <v>254</v>
+      </c>
+      <c r="P400" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q400">
+        <v>3</v>
+      </c>
+      <c r="R400">
+        <v>2.05</v>
+      </c>
+      <c r="S400">
+        <v>3.25</v>
+      </c>
+      <c r="T400">
+        <v>1.39</v>
+      </c>
+      <c r="U400">
+        <v>2.75</v>
+      </c>
+      <c r="V400">
+        <v>2.75</v>
+      </c>
+      <c r="W400">
+        <v>1.38</v>
+      </c>
+      <c r="X400">
+        <v>7.25</v>
+      </c>
+      <c r="Y400">
+        <v>1.08</v>
+      </c>
+      <c r="Z400">
+        <v>2.67</v>
+      </c>
+      <c r="AA400">
+        <v>3.2</v>
+      </c>
+      <c r="AB400">
+        <v>2.88</v>
+      </c>
+      <c r="AC400">
+        <v>1.06</v>
+      </c>
+      <c r="AD400">
+        <v>8.5</v>
+      </c>
+      <c r="AE400">
+        <v>1.33</v>
+      </c>
+      <c r="AF400">
+        <v>3.3</v>
+      </c>
+      <c r="AG400">
+        <v>1.94</v>
+      </c>
+      <c r="AH400">
+        <v>1.87</v>
+      </c>
+      <c r="AI400">
+        <v>1.72</v>
+      </c>
+      <c r="AJ400">
+        <v>1.98</v>
+      </c>
+      <c r="AK400">
+        <v>1.43</v>
+      </c>
+      <c r="AL400">
+        <v>1.31</v>
+      </c>
+      <c r="AM400">
+        <v>1.5</v>
+      </c>
+      <c r="AN400">
+        <v>1.11</v>
+      </c>
+      <c r="AO400">
+        <v>1.22</v>
+      </c>
+      <c r="AP400">
+        <v>1.11</v>
+      </c>
+      <c r="AQ400">
+        <v>1.21</v>
+      </c>
+      <c r="AR400">
+        <v>1.57</v>
+      </c>
+      <c r="AS400">
+        <v>1.45</v>
+      </c>
+      <c r="AT400">
+        <v>3.02</v>
+      </c>
+      <c r="AU400">
+        <v>7</v>
+      </c>
+      <c r="AV400">
+        <v>3</v>
+      </c>
+      <c r="AW400">
+        <v>4</v>
+      </c>
+      <c r="AX400">
+        <v>7</v>
+      </c>
+      <c r="AY400">
+        <v>13</v>
+      </c>
+      <c r="AZ400">
+        <v>13</v>
+      </c>
+      <c r="BA400">
+        <v>5</v>
+      </c>
+      <c r="BB400">
+        <v>4</v>
+      </c>
+      <c r="BC400">
+        <v>9</v>
+      </c>
+      <c r="BD400">
+        <v>1.89</v>
+      </c>
+      <c r="BE400">
+        <v>6.75</v>
+      </c>
+      <c r="BF400">
+        <v>2.1</v>
+      </c>
+      <c r="BG400">
+        <v>1.33</v>
+      </c>
+      <c r="BH400">
+        <v>2.95</v>
+      </c>
+      <c r="BI400">
+        <v>1.56</v>
+      </c>
+      <c r="BJ400">
+        <v>2.23</v>
+      </c>
+      <c r="BK400">
+        <v>1.89</v>
+      </c>
+      <c r="BL400">
+        <v>1.77</v>
+      </c>
+      <c r="BM400">
+        <v>2.38</v>
+      </c>
+      <c r="BN400">
+        <v>1.49</v>
+      </c>
+      <c r="BO400">
+        <v>3.05</v>
+      </c>
+      <c r="BP400">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:68">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>7728602</v>
+      </c>
+      <c r="C401" t="s">
+        <v>68</v>
+      </c>
+      <c r="D401" t="s">
+        <v>69</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45773.46875</v>
+      </c>
+      <c r="F401">
+        <v>37</v>
+      </c>
+      <c r="G401" t="s">
+        <v>89</v>
+      </c>
+      <c r="H401" t="s">
+        <v>82</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>1</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>1</v>
+      </c>
+      <c r="O401" t="s">
+        <v>139</v>
+      </c>
+      <c r="P401" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q401">
+        <v>2.7</v>
+      </c>
+      <c r="R401">
+        <v>1.98</v>
+      </c>
+      <c r="S401">
+        <v>4</v>
+      </c>
+      <c r="T401">
+        <v>1.46</v>
+      </c>
+      <c r="U401">
+        <v>2.5</v>
+      </c>
+      <c r="V401">
+        <v>3.1</v>
+      </c>
+      <c r="W401">
+        <v>1.32</v>
+      </c>
+      <c r="X401">
+        <v>8.5</v>
+      </c>
+      <c r="Y401">
+        <v>1.06</v>
+      </c>
+      <c r="Z401">
+        <v>2.17</v>
+      </c>
+      <c r="AA401">
+        <v>3.31</v>
+      </c>
+      <c r="AB401">
+        <v>3.68</v>
+      </c>
+      <c r="AC401">
+        <v>1.07</v>
+      </c>
+      <c r="AD401">
+        <v>8</v>
+      </c>
+      <c r="AE401">
+        <v>1.4</v>
+      </c>
+      <c r="AF401">
+        <v>2.9</v>
+      </c>
+      <c r="AG401">
+        <v>2.1</v>
+      </c>
+      <c r="AH401">
+        <v>1.6</v>
+      </c>
+      <c r="AI401">
+        <v>1.93</v>
+      </c>
+      <c r="AJ401">
+        <v>1.77</v>
+      </c>
+      <c r="AK401">
+        <v>1.28</v>
+      </c>
+      <c r="AL401">
+        <v>1.32</v>
+      </c>
+      <c r="AM401">
+        <v>1.71</v>
+      </c>
+      <c r="AN401">
+        <v>2</v>
+      </c>
+      <c r="AO401">
+        <v>1.5</v>
+      </c>
+      <c r="AP401">
+        <v>2.05</v>
+      </c>
+      <c r="AQ401">
+        <v>1.42</v>
+      </c>
+      <c r="AR401">
+        <v>1.6</v>
+      </c>
+      <c r="AS401">
+        <v>1.25</v>
+      </c>
+      <c r="AT401">
+        <v>2.85</v>
+      </c>
+      <c r="AU401">
+        <v>2</v>
+      </c>
+      <c r="AV401">
+        <v>4</v>
+      </c>
+      <c r="AW401">
+        <v>10</v>
+      </c>
+      <c r="AX401">
+        <v>6</v>
+      </c>
+      <c r="AY401">
+        <v>17</v>
+      </c>
+      <c r="AZ401">
+        <v>13</v>
+      </c>
+      <c r="BA401">
+        <v>3</v>
+      </c>
+      <c r="BB401">
+        <v>4</v>
+      </c>
+      <c r="BC401">
+        <v>7</v>
+      </c>
+      <c r="BD401">
+        <v>1.66</v>
+      </c>
+      <c r="BE401">
+        <v>6.4</v>
+      </c>
+      <c r="BF401">
+        <v>2.48</v>
+      </c>
+      <c r="BG401">
+        <v>1.43</v>
+      </c>
+      <c r="BH401">
+        <v>2.55</v>
+      </c>
+      <c r="BI401">
+        <v>1.71</v>
+      </c>
+      <c r="BJ401">
+        <v>1.96</v>
+      </c>
+      <c r="BK401">
+        <v>2.14</v>
+      </c>
+      <c r="BL401">
+        <v>1.6</v>
+      </c>
+      <c r="BM401">
+        <v>2.8</v>
+      </c>
+      <c r="BN401">
+        <v>1.36</v>
+      </c>
+      <c r="BO401">
+        <v>3.65</v>
+      </c>
+      <c r="BP401">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="471">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1039,6 +1039,9 @@
     <t>['6', '49', '90+4']</t>
   </si>
   <si>
+    <t>['51', '85']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1785,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP401"/>
+  <dimension ref="A1:BP403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2047,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2328,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ3">
         <v>1.21</v>
@@ -2456,7 +2459,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3280,7 +3283,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3486,7 +3489,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4310,7 +4313,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5546,7 +5549,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5833,7 +5836,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6164,7 +6167,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6370,7 +6373,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6451,7 +6454,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6576,7 +6579,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6654,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
         <v>1.22</v>
@@ -6782,7 +6785,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6988,7 +6991,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7606,7 +7609,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8096,7 +8099,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ31">
         <v>1.11</v>
@@ -8224,7 +8227,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8430,7 +8433,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8842,7 +8845,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9126,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -9335,7 +9338,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -10571,7 +10574,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10696,7 +10699,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11314,7 +11317,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12216,7 +12219,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12962,7 +12965,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13168,7 +13171,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13374,7 +13377,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13452,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ57">
         <v>0.84</v>
@@ -13580,7 +13583,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13992,7 +13995,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14073,7 +14076,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -14610,7 +14613,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15228,7 +15231,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15640,7 +15643,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15846,7 +15849,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16130,7 +16133,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ70">
         <v>1.22</v>
@@ -16464,7 +16467,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16545,7 +16548,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16670,7 +16673,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16876,7 +16879,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17700,7 +17703,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18193,7 +18196,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ80">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -18318,7 +18321,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18396,7 +18399,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ81">
         <v>1.39</v>
@@ -18524,7 +18527,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18730,7 +18733,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19017,7 +19020,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -19554,7 +19557,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19966,7 +19969,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20172,7 +20175,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20584,7 +20587,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20996,7 +20999,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21202,7 +21205,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21692,7 +21695,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ97">
         <v>1.21</v>
@@ -22232,7 +22235,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23134,7 +23137,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ104">
         <v>0.39</v>
@@ -23546,7 +23549,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23674,7 +23677,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24292,7 +24295,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24579,7 +24582,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ111">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24910,7 +24913,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25322,7 +25325,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25815,7 +25818,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -26146,7 +26149,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26764,7 +26767,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27176,7 +27179,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27254,7 +27257,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ124">
         <v>0.42</v>
@@ -27588,7 +27591,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28000,7 +28003,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28287,7 +28290,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28412,7 +28415,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28618,7 +28621,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28824,7 +28827,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28902,7 +28905,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ132">
         <v>1.42</v>
@@ -29236,7 +29239,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29317,7 +29320,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -29442,7 +29445,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30060,7 +30063,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30347,7 +30350,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ139">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30678,7 +30681,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30884,7 +30887,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30962,7 +30965,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ142">
         <v>1.17</v>
@@ -31090,7 +31093,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31296,7 +31299,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31374,7 +31377,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -31708,7 +31711,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32120,7 +32123,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33150,7 +33153,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33437,7 +33440,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33643,7 +33646,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR155">
         <v>1.59</v>
@@ -33768,7 +33771,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -35416,7 +35419,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35700,7 +35703,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ165">
         <v>1.17</v>
@@ -36034,7 +36037,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36936,7 +36939,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -37064,7 +37067,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37682,7 +37685,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38094,7 +38097,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38506,7 +38509,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38712,7 +38715,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39205,7 +39208,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR182">
         <v>1.26</v>
@@ -39536,7 +39539,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39617,7 +39620,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ184">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -40360,7 +40363,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40438,7 +40441,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ188">
         <v>1.42</v>
@@ -40850,7 +40853,7 @@
         <v>2.75</v>
       </c>
       <c r="AP190">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ190">
         <v>1.72</v>
@@ -40978,7 +40981,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41184,7 +41187,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41390,7 +41393,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41596,7 +41599,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42832,7 +42835,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43244,7 +43247,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43450,7 +43453,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43737,7 +43740,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ204">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR204">
         <v>1.41</v>
@@ -44068,7 +44071,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44764,7 +44767,7 @@
         <v>0.6</v>
       </c>
       <c r="AP209">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ209">
         <v>0.42</v>
@@ -45304,7 +45307,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45510,7 +45513,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45716,7 +45719,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -45794,7 +45797,7 @@
         <v>1.11</v>
       </c>
       <c r="AP214">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ214">
         <v>1</v>
@@ -46128,7 +46131,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46209,7 +46212,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR216">
         <v>1.46</v>
@@ -47364,7 +47367,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47776,7 +47779,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48188,7 +48191,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48269,7 +48272,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ226">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
         <v>1.73</v>
@@ -48806,7 +48809,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49012,7 +49015,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49218,7 +49221,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49502,10 +49505,10 @@
         <v>0.8</v>
       </c>
       <c r="AP232">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ232">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR232">
         <v>1.73</v>
@@ -50042,7 +50045,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50866,7 +50869,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51484,7 +51487,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51896,7 +51899,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52308,7 +52311,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -52389,7 +52392,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ246">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR246">
         <v>1.56</v>
@@ -53132,7 +53135,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53338,7 +53341,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53750,7 +53753,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53828,7 +53831,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ253">
         <v>0.84</v>
@@ -54162,7 +54165,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54368,7 +54371,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55064,7 +55067,7 @@
         <v>1.09</v>
       </c>
       <c r="AP259">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ259">
         <v>1</v>
@@ -55604,7 +55607,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56222,7 +56225,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56506,10 +56509,10 @@
         <v>1.27</v>
       </c>
       <c r="AP266">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ266">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR266">
         <v>1.24</v>
@@ -56715,7 +56718,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ267">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR267">
         <v>1.55</v>
@@ -57664,7 +57667,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58694,7 +58697,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -58978,7 +58981,7 @@
         <v>1.17</v>
       </c>
       <c r="AP278">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ278">
         <v>0.89</v>
@@ -59930,7 +59933,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60136,7 +60139,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60754,7 +60757,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60832,7 +60835,7 @@
         <v>1.08</v>
       </c>
       <c r="AP287">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ287">
         <v>0.72</v>
@@ -61372,7 +61375,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61578,7 +61581,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -62483,7 +62486,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ295">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR295">
         <v>1.6</v>
@@ -62895,7 +62898,7 @@
         <v>2</v>
       </c>
       <c r="AQ297">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR297">
         <v>1.76</v>
@@ -63432,7 +63435,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63638,7 +63641,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63844,7 +63847,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -63922,7 +63925,7 @@
         <v>1.36</v>
       </c>
       <c r="AP302">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ302">
         <v>1.11</v>
@@ -65286,7 +65289,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -65779,7 +65782,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ311">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR311">
         <v>1.67</v>
@@ -66110,7 +66113,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66522,7 +66525,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66728,7 +66731,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67221,7 +67224,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ318">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR318">
         <v>1.61</v>
@@ -67424,7 +67427,7 @@
         <v>0.21</v>
       </c>
       <c r="AP319">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ319">
         <v>0.39</v>
@@ -67633,7 +67636,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ320">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR320">
         <v>1.19</v>
@@ -68248,7 +68251,7 @@
         <v>1.5</v>
       </c>
       <c r="AP323">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ323">
         <v>1.28</v>
@@ -68788,7 +68791,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69200,7 +69203,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69690,7 +69693,7 @@
         <v>0.93</v>
       </c>
       <c r="AP330">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ330">
         <v>0.72</v>
@@ -70105,7 +70108,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ332">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR332">
         <v>1.6</v>
@@ -70723,7 +70726,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ335">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR335">
         <v>1.16</v>
@@ -71260,7 +71263,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71466,7 +71469,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72084,7 +72087,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72780,7 +72783,7 @@
         <v>1.87</v>
       </c>
       <c r="AP345">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ345">
         <v>1.72</v>
@@ -73192,7 +73195,7 @@
         <v>1.4</v>
       </c>
       <c r="AP347">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ347">
         <v>1.28</v>
@@ -73320,7 +73323,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73732,7 +73735,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74144,7 +74147,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74350,7 +74353,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -74843,7 +74846,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ355">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR355">
         <v>1.52</v>
@@ -75174,7 +75177,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75792,7 +75795,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -75873,7 +75876,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ360">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR360">
         <v>1.68</v>
@@ -76204,7 +76207,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76410,7 +76413,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76822,7 +76825,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77028,7 +77031,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77518,7 +77521,7 @@
         <v>1.29</v>
       </c>
       <c r="AP368">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ368">
         <v>1.16</v>
@@ -77646,7 +77649,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -79088,7 +79091,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79294,7 +79297,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79581,7 +79584,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ378">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR378">
         <v>1.43</v>
@@ -79706,7 +79709,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -79787,7 +79790,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ379">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR379">
         <v>1.45</v>
@@ -80118,7 +80121,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80324,7 +80327,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80530,7 +80533,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80608,7 +80611,7 @@
         <v>1.53</v>
       </c>
       <c r="AP383">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ383">
         <v>1.5</v>
@@ -80736,7 +80739,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81972,7 +81975,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82178,7 +82181,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82384,7 +82387,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82590,7 +82593,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83002,7 +83005,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83414,7 +83417,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -84394,6 +84397,418 @@
         <v>3.65</v>
       </c>
       <c r="BP401">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="402" spans="1:68">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>7728600</v>
+      </c>
+      <c r="C402" t="s">
+        <v>68</v>
+      </c>
+      <c r="D402" t="s">
+        <v>69</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45773.5625</v>
+      </c>
+      <c r="F402">
+        <v>37</v>
+      </c>
+      <c r="G402" t="s">
+        <v>70</v>
+      </c>
+      <c r="H402" t="s">
+        <v>79</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402">
+        <v>2</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402">
+        <v>1</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="O402" t="s">
+        <v>247</v>
+      </c>
+      <c r="P402" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q402">
+        <v>3.1</v>
+      </c>
+      <c r="R402">
+        <v>1.93</v>
+      </c>
+      <c r="S402">
+        <v>3.5</v>
+      </c>
+      <c r="T402">
+        <v>1.49</v>
+      </c>
+      <c r="U402">
+        <v>2.45</v>
+      </c>
+      <c r="V402">
+        <v>3.2</v>
+      </c>
+      <c r="W402">
+        <v>1.3</v>
+      </c>
+      <c r="X402">
+        <v>8.75</v>
+      </c>
+      <c r="Y402">
+        <v>1.06</v>
+      </c>
+      <c r="Z402">
+        <v>2.55</v>
+      </c>
+      <c r="AA402">
+        <v>3.12</v>
+      </c>
+      <c r="AB402">
+        <v>3.11</v>
+      </c>
+      <c r="AC402">
+        <v>1.09</v>
+      </c>
+      <c r="AD402">
+        <v>7</v>
+      </c>
+      <c r="AE402">
+        <v>1.42</v>
+      </c>
+      <c r="AF402">
+        <v>2.8</v>
+      </c>
+      <c r="AG402">
+        <v>2.2</v>
+      </c>
+      <c r="AH402">
+        <v>1.55</v>
+      </c>
+      <c r="AI402">
+        <v>1.95</v>
+      </c>
+      <c r="AJ402">
+        <v>1.75</v>
+      </c>
+      <c r="AK402">
+        <v>1.37</v>
+      </c>
+      <c r="AL402">
+        <v>1.35</v>
+      </c>
+      <c r="AM402">
+        <v>1.52</v>
+      </c>
+      <c r="AN402">
+        <v>1.83</v>
+      </c>
+      <c r="AO402">
+        <v>1.29</v>
+      </c>
+      <c r="AP402">
+        <v>1.79</v>
+      </c>
+      <c r="AQ402">
+        <v>1.28</v>
+      </c>
+      <c r="AR402">
+        <v>1.67</v>
+      </c>
+      <c r="AS402">
+        <v>1.3</v>
+      </c>
+      <c r="AT402">
+        <v>2.97</v>
+      </c>
+      <c r="AU402">
+        <v>3</v>
+      </c>
+      <c r="AV402">
+        <v>4</v>
+      </c>
+      <c r="AW402">
+        <v>10</v>
+      </c>
+      <c r="AX402">
+        <v>5</v>
+      </c>
+      <c r="AY402">
+        <v>18</v>
+      </c>
+      <c r="AZ402">
+        <v>11</v>
+      </c>
+      <c r="BA402">
+        <v>4</v>
+      </c>
+      <c r="BB402">
+        <v>2</v>
+      </c>
+      <c r="BC402">
+        <v>6</v>
+      </c>
+      <c r="BD402">
+        <v>1.88</v>
+      </c>
+      <c r="BE402">
+        <v>6.4</v>
+      </c>
+      <c r="BF402">
+        <v>2.15</v>
+      </c>
+      <c r="BG402">
+        <v>1.43</v>
+      </c>
+      <c r="BH402">
+        <v>2.55</v>
+      </c>
+      <c r="BI402">
+        <v>1.73</v>
+      </c>
+      <c r="BJ402">
+        <v>1.94</v>
+      </c>
+      <c r="BK402">
+        <v>2.18</v>
+      </c>
+      <c r="BL402">
+        <v>1.58</v>
+      </c>
+      <c r="BM402">
+        <v>2.8</v>
+      </c>
+      <c r="BN402">
+        <v>1.36</v>
+      </c>
+      <c r="BO402">
+        <v>3.8</v>
+      </c>
+      <c r="BP402">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:68">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>7728595</v>
+      </c>
+      <c r="C403" t="s">
+        <v>68</v>
+      </c>
+      <c r="D403" t="s">
+        <v>69</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45773.5625</v>
+      </c>
+      <c r="F403">
+        <v>37</v>
+      </c>
+      <c r="G403" t="s">
+        <v>71</v>
+      </c>
+      <c r="H403" t="s">
+        <v>78</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>2</v>
+      </c>
+      <c r="M403">
+        <v>1</v>
+      </c>
+      <c r="N403">
+        <v>3</v>
+      </c>
+      <c r="O403" t="s">
+        <v>341</v>
+      </c>
+      <c r="P403" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q403">
+        <v>2.6</v>
+      </c>
+      <c r="R403">
+        <v>1.87</v>
+      </c>
+      <c r="S403">
+        <v>5</v>
+      </c>
+      <c r="T403">
+        <v>1.57</v>
+      </c>
+      <c r="U403">
+        <v>2.25</v>
+      </c>
+      <c r="V403">
+        <v>3.6</v>
+      </c>
+      <c r="W403">
+        <v>1.25</v>
+      </c>
+      <c r="X403">
+        <v>10.5</v>
+      </c>
+      <c r="Y403">
+        <v>1.04</v>
+      </c>
+      <c r="Z403">
+        <v>1.85</v>
+      </c>
+      <c r="AA403">
+        <v>3.3</v>
+      </c>
+      <c r="AB403">
+        <v>5.2</v>
+      </c>
+      <c r="AC403">
+        <v>1.11</v>
+      </c>
+      <c r="AD403">
+        <v>6.25</v>
+      </c>
+      <c r="AE403">
+        <v>1.53</v>
+      </c>
+      <c r="AF403">
+        <v>2.25</v>
+      </c>
+      <c r="AG403">
+        <v>2.56</v>
+      </c>
+      <c r="AH403">
+        <v>1.45</v>
+      </c>
+      <c r="AI403">
+        <v>2.3</v>
+      </c>
+      <c r="AJ403">
+        <v>1.55</v>
+      </c>
+      <c r="AK403">
+        <v>1.18</v>
+      </c>
+      <c r="AL403">
+        <v>1.36</v>
+      </c>
+      <c r="AM403">
+        <v>1.85</v>
+      </c>
+      <c r="AN403">
+        <v>2.39</v>
+      </c>
+      <c r="AO403">
+        <v>1.11</v>
+      </c>
+      <c r="AP403">
+        <v>2.42</v>
+      </c>
+      <c r="AQ403">
+        <v>1.05</v>
+      </c>
+      <c r="AR403">
+        <v>1.47</v>
+      </c>
+      <c r="AS403">
+        <v>1.15</v>
+      </c>
+      <c r="AT403">
+        <v>2.62</v>
+      </c>
+      <c r="AU403">
+        <v>7</v>
+      </c>
+      <c r="AV403">
+        <v>4</v>
+      </c>
+      <c r="AW403">
+        <v>9</v>
+      </c>
+      <c r="AX403">
+        <v>7</v>
+      </c>
+      <c r="AY403">
+        <v>18</v>
+      </c>
+      <c r="AZ403">
+        <v>14</v>
+      </c>
+      <c r="BA403">
+        <v>5</v>
+      </c>
+      <c r="BB403">
+        <v>1</v>
+      </c>
+      <c r="BC403">
+        <v>6</v>
+      </c>
+      <c r="BD403">
+        <v>1.49</v>
+      </c>
+      <c r="BE403">
+        <v>6.75</v>
+      </c>
+      <c r="BF403">
+        <v>2.9</v>
+      </c>
+      <c r="BG403">
+        <v>1.42</v>
+      </c>
+      <c r="BH403">
+        <v>2.55</v>
+      </c>
+      <c r="BI403">
+        <v>1.71</v>
+      </c>
+      <c r="BJ403">
+        <v>1.96</v>
+      </c>
+      <c r="BK403">
+        <v>2.15</v>
+      </c>
+      <c r="BL403">
+        <v>1.6</v>
+      </c>
+      <c r="BM403">
+        <v>2.8</v>
+      </c>
+      <c r="BN403">
+        <v>1.36</v>
+      </c>
+      <c r="BO403">
+        <v>3.65</v>
+      </c>
+      <c r="BP403">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="473">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1794,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP406"/>
+  <dimension ref="A1:BP407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3988,7 +3988,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ11">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ24">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ43">
         <v>1.28</v>
@@ -11816,7 +11816,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -14285,7 +14285,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ61">
         <v>1.42</v>
@@ -16142,7 +16142,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ70">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -18817,7 +18817,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ83">
         <v>1.72</v>
@@ -23970,7 +23970,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ108">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -24379,7 +24379,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ110">
         <v>1.16</v>
@@ -26442,7 +26442,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ120">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -27675,7 +27675,7 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ126">
         <v>1.11</v>
@@ -29941,7 +29941,7 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ137">
         <v>1.39</v>
@@ -34682,7 +34682,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ160">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34885,7 +34885,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ161">
         <v>0.84</v>
@@ -35094,7 +35094,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ162">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -38184,7 +38184,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ177">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -38387,7 +38387,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -44570,7 +44570,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ208">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -45391,7 +45391,7 @@
         <v>1.1</v>
       </c>
       <c r="AP212">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ212">
         <v>1.28</v>
@@ -47657,7 +47657,7 @@
         <v>1.11</v>
       </c>
       <c r="AP223">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ223">
         <v>0.72</v>
@@ -49102,7 +49102,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ230">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR230">
         <v>1.54</v>
@@ -53425,7 +53425,7 @@
         <v>0.18</v>
       </c>
       <c r="AP251">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ251">
         <v>0.39</v>
@@ -53634,7 +53634,7 @@
         <v>2</v>
       </c>
       <c r="AQ252">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR252">
         <v>1.71</v>
@@ -57342,7 +57342,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ270">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR270">
         <v>1.69</v>
@@ -57957,7 +57957,7 @@
         <v>1.18</v>
       </c>
       <c r="AP273">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ273">
         <v>1.17</v>
@@ -60020,7 +60020,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ283">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR283">
         <v>1.67</v>
@@ -62489,7 +62489,7 @@
         <v>0.75</v>
       </c>
       <c r="AP295">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ295">
         <v>1.05</v>
@@ -64346,7 +64346,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ304">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR304">
         <v>1.51</v>
@@ -65991,7 +65991,7 @@
         <v>1</v>
       </c>
       <c r="AP312">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ312">
         <v>1</v>
@@ -68875,7 +68875,7 @@
         <v>0.93</v>
       </c>
       <c r="AP326">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ326">
         <v>1.06</v>
@@ -69084,7 +69084,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ327">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR327">
         <v>1.32</v>
@@ -73616,7 +73616,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ349">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR349">
         <v>1.54</v>
@@ -74437,7 +74437,7 @@
         <v>1.13</v>
       </c>
       <c r="AP353">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ353">
         <v>1.21</v>
@@ -77939,7 +77939,7 @@
         <v>1</v>
       </c>
       <c r="AP370">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ370">
         <v>0.89</v>
@@ -78560,7 +78560,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ373">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR373">
         <v>1.37</v>
@@ -79381,7 +79381,7 @@
         <v>0.82</v>
       </c>
       <c r="AP377">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ377">
         <v>0.84</v>
@@ -85433,6 +85433,212 @@
         <v>0</v>
       </c>
       <c r="BP406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:68">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>7728601</v>
+      </c>
+      <c r="C407" t="s">
+        <v>68</v>
+      </c>
+      <c r="D407" t="s">
+        <v>69</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45774.66666666666</v>
+      </c>
+      <c r="F407">
+        <v>37</v>
+      </c>
+      <c r="G407" t="s">
+        <v>91</v>
+      </c>
+      <c r="H407" t="s">
+        <v>81</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407">
+        <v>1</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407" t="s">
+        <v>258</v>
+      </c>
+      <c r="P407" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q407">
+        <v>2.65</v>
+      </c>
+      <c r="R407">
+        <v>1.93</v>
+      </c>
+      <c r="S407">
+        <v>4.5</v>
+      </c>
+      <c r="T407">
+        <v>1.53</v>
+      </c>
+      <c r="U407">
+        <v>2.35</v>
+      </c>
+      <c r="V407">
+        <v>3.4</v>
+      </c>
+      <c r="W407">
+        <v>1.28</v>
+      </c>
+      <c r="X407">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y407">
+        <v>1.01</v>
+      </c>
+      <c r="Z407">
+        <v>2.08</v>
+      </c>
+      <c r="AA407">
+        <v>3.14</v>
+      </c>
+      <c r="AB407">
+        <v>4.3</v>
+      </c>
+      <c r="AC407">
+        <v>1.1</v>
+      </c>
+      <c r="AD407">
+        <v>6.5</v>
+      </c>
+      <c r="AE407">
+        <v>1.48</v>
+      </c>
+      <c r="AF407">
+        <v>2.37</v>
+      </c>
+      <c r="AG407">
+        <v>2.34</v>
+      </c>
+      <c r="AH407">
+        <v>1.53</v>
+      </c>
+      <c r="AI407">
+        <v>2.05</v>
+      </c>
+      <c r="AJ407">
+        <v>1.65</v>
+      </c>
+      <c r="AK407">
+        <v>1.22</v>
+      </c>
+      <c r="AL407">
+        <v>1.3</v>
+      </c>
+      <c r="AM407">
+        <v>1.75</v>
+      </c>
+      <c r="AN407">
+        <v>1.17</v>
+      </c>
+      <c r="AO407">
+        <v>1.22</v>
+      </c>
+      <c r="AP407">
+        <v>1.16</v>
+      </c>
+      <c r="AQ407">
+        <v>1.21</v>
+      </c>
+      <c r="AR407">
+        <v>1.62</v>
+      </c>
+      <c r="AS407">
+        <v>1.02</v>
+      </c>
+      <c r="AT407">
+        <v>2.64</v>
+      </c>
+      <c r="AU407">
+        <v>7</v>
+      </c>
+      <c r="AV407">
+        <v>4</v>
+      </c>
+      <c r="AW407">
+        <v>13</v>
+      </c>
+      <c r="AX407">
+        <v>5</v>
+      </c>
+      <c r="AY407">
+        <v>23</v>
+      </c>
+      <c r="AZ407">
+        <v>13</v>
+      </c>
+      <c r="BA407">
+        <v>5</v>
+      </c>
+      <c r="BB407">
+        <v>1</v>
+      </c>
+      <c r="BC407">
+        <v>6</v>
+      </c>
+      <c r="BD407">
+        <v>0</v>
+      </c>
+      <c r="BE407">
+        <v>0</v>
+      </c>
+      <c r="BF407">
+        <v>0</v>
+      </c>
+      <c r="BG407">
+        <v>0</v>
+      </c>
+      <c r="BH407">
+        <v>0</v>
+      </c>
+      <c r="BI407">
+        <v>0</v>
+      </c>
+      <c r="BJ407">
+        <v>0</v>
+      </c>
+      <c r="BK407">
+        <v>0</v>
+      </c>
+      <c r="BL407">
+        <v>0</v>
+      </c>
+      <c r="BM407">
+        <v>0</v>
+      </c>
+      <c r="BN407">
+        <v>0</v>
+      </c>
+      <c r="BO407">
+        <v>0</v>
+      </c>
+      <c r="BP407">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1048,6 +1048,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['24', '38', '73', '84']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1434,6 +1437,9 @@
   <si>
     <t>['60', '70']</t>
   </si>
+  <si>
+    <t>['47', '59']</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP407"/>
+  <dimension ref="A1:BP408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2053,7 +2059,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2465,7 +2471,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3289,7 +3295,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3495,7 +3501,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4319,7 +4325,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5224,7 +5230,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5555,7 +5561,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6173,7 +6179,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6379,7 +6385,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6457,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
         <v>1.05</v>
@@ -6585,7 +6591,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6791,7 +6797,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6997,7 +7003,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7615,7 +7621,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8233,7 +8239,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8439,7 +8445,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8851,7 +8857,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9753,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>0.84</v>
@@ -10705,7 +10711,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10786,7 +10792,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -11195,7 +11201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
         <v>1.42</v>
@@ -11323,7 +11329,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12971,7 +12977,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13177,7 +13183,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13383,7 +13389,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13589,7 +13595,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -14001,7 +14007,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14619,7 +14625,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14700,7 +14706,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
         <v>1.13</v>
@@ -15237,7 +15243,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15649,7 +15655,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15855,7 +15861,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16473,7 +16479,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16679,7 +16685,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16885,7 +16891,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17375,7 +17381,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>0.72</v>
@@ -17709,7 +17715,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17996,7 +18002,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -18327,7 +18333,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18533,7 +18539,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18739,7 +18745,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19563,7 +19569,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19975,7 +19981,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20181,7 +20187,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20593,7 +20599,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21005,7 +21011,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21211,7 +21217,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22241,7 +22247,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22525,7 +22531,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ101">
         <v>0.42</v>
@@ -23683,7 +23689,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24301,7 +24307,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24919,7 +24925,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25206,7 +25212,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.43</v>
@@ -25331,7 +25337,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26155,7 +26161,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26773,7 +26779,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27185,7 +27191,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27469,7 +27475,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -27597,7 +27603,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28009,7 +28015,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28421,7 +28427,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28627,7 +28633,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28833,7 +28839,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29245,7 +29251,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29451,7 +29457,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29738,7 +29744,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -30069,7 +30075,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30687,7 +30693,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30893,7 +30899,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30974,7 +30980,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.16</v>
@@ -31099,7 +31105,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31305,7 +31311,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31717,7 +31723,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31795,7 +31801,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ146">
         <v>1.11</v>
@@ -32129,7 +32135,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33159,7 +33165,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33777,7 +33783,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -35425,7 +35431,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35712,7 +35718,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR165">
         <v>1.7</v>
@@ -36043,7 +36049,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36121,7 +36127,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ167">
         <v>1.11</v>
@@ -37073,7 +37079,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37691,7 +37697,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38103,7 +38109,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38515,7 +38521,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38721,7 +38727,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39545,7 +39551,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40369,7 +40375,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40656,7 +40662,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR189">
         <v>1.53</v>
@@ -40987,7 +40993,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41193,7 +41199,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41399,7 +41405,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41605,7 +41611,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42301,7 +42307,7 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ197">
         <v>0.39</v>
@@ -42841,7 +42847,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43253,7 +43259,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43459,7 +43465,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44077,7 +44083,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -45185,7 +45191,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP211">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ211">
         <v>0.84</v>
@@ -45313,7 +45319,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45519,7 +45525,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45725,7 +45731,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46137,7 +46143,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47373,7 +47379,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47785,7 +47791,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48197,7 +48203,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48484,7 +48490,7 @@
         <v>2</v>
       </c>
       <c r="AQ227">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR227">
         <v>1.67</v>
@@ -48815,7 +48821,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49021,7 +49027,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49227,7 +49233,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50051,7 +50057,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50875,7 +50881,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -50953,7 +50959,7 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ239">
         <v>1.16</v>
@@ -51493,7 +51499,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51905,7 +51911,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -51986,7 +51992,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ244">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR244">
         <v>1.4</v>
@@ -52317,7 +52323,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53141,7 +53147,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53347,7 +53353,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53759,7 +53765,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54171,7 +54177,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54249,7 +54255,7 @@
         <v>2.09</v>
       </c>
       <c r="AP255">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ255">
         <v>1.72</v>
@@ -54377,7 +54383,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55613,7 +55619,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56231,7 +56237,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57673,7 +57679,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57960,7 +57966,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ273">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR273">
         <v>1.65</v>
@@ -58703,7 +58709,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59939,7 +59945,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60017,7 +60023,7 @@
         <v>1.38</v>
       </c>
       <c r="AP283">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ283">
         <v>1.21</v>
@@ -60145,7 +60151,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60763,7 +60769,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61381,7 +61387,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61462,7 +61468,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ290">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR290">
         <v>1.62</v>
@@ -61587,7 +61593,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -63441,7 +63447,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63647,7 +63653,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63853,7 +63859,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -65295,7 +65301,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -66119,7 +66125,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66403,7 +66409,7 @@
         <v>1.46</v>
       </c>
       <c r="AP314">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ314">
         <v>1.39</v>
@@ -66531,7 +66537,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66737,7 +66743,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67024,7 +67030,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ317">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR317">
         <v>1.53</v>
@@ -68797,7 +68803,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69209,7 +69215,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69290,7 +69296,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ328">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR328">
         <v>1.38</v>
@@ -71141,7 +71147,7 @@
         <v>1</v>
       </c>
       <c r="AP337">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ337">
         <v>1</v>
@@ -71269,7 +71275,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71475,7 +71481,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72093,7 +72099,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -73329,7 +73335,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73741,7 +73747,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74028,7 +74034,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ351">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR351">
         <v>1.38</v>
@@ -74153,7 +74159,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74359,7 +74365,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75183,7 +75189,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75801,7 +75807,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -75879,7 +75885,7 @@
         <v>1.07</v>
       </c>
       <c r="AP360">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ360">
         <v>1.28</v>
@@ -76213,7 +76219,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76419,7 +76425,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76831,7 +76837,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77037,7 +77043,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77655,7 +77661,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -78766,7 +78772,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ374">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR374">
         <v>1.54</v>
@@ -79097,7 +79103,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79175,7 +79181,7 @@
         <v>1.53</v>
       </c>
       <c r="AP376">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ376">
         <v>1.42</v>
@@ -79303,7 +79309,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79715,7 +79721,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80127,7 +80133,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80333,7 +80339,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80539,7 +80545,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80745,7 +80751,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81981,7 +81987,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82187,7 +82193,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82393,7 +82399,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82474,7 +82480,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ392">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR392">
         <v>1.34</v>
@@ -82599,7 +82605,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -82883,7 +82889,7 @@
         <v>1.29</v>
       </c>
       <c r="AP394">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ394">
         <v>1.28</v>
@@ -83011,7 +83017,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83423,7 +83429,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -84453,7 +84459,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84659,7 +84665,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -85640,6 +85646,212 @@
       </c>
       <c r="BP407">
         <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:68">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>7728612</v>
+      </c>
+      <c r="C408" t="s">
+        <v>68</v>
+      </c>
+      <c r="D408" t="s">
+        <v>69</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F408">
+        <v>38</v>
+      </c>
+      <c r="G408" t="s">
+        <v>88</v>
+      </c>
+      <c r="H408" t="s">
+        <v>72</v>
+      </c>
+      <c r="I408">
+        <v>2</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>2</v>
+      </c>
+      <c r="L408">
+        <v>4</v>
+      </c>
+      <c r="M408">
+        <v>2</v>
+      </c>
+      <c r="N408">
+        <v>6</v>
+      </c>
+      <c r="O408" t="s">
+        <v>344</v>
+      </c>
+      <c r="P408" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q408">
+        <v>2.88</v>
+      </c>
+      <c r="R408">
+        <v>2.05</v>
+      </c>
+      <c r="S408">
+        <v>4</v>
+      </c>
+      <c r="T408">
+        <v>1.44</v>
+      </c>
+      <c r="U408">
+        <v>2.63</v>
+      </c>
+      <c r="V408">
+        <v>3.25</v>
+      </c>
+      <c r="W408">
+        <v>1.33</v>
+      </c>
+      <c r="X408">
+        <v>10</v>
+      </c>
+      <c r="Y408">
+        <v>1.06</v>
+      </c>
+      <c r="Z408">
+        <v>2.17</v>
+      </c>
+      <c r="AA408">
+        <v>3.32</v>
+      </c>
+      <c r="AB408">
+        <v>3.67</v>
+      </c>
+      <c r="AC408">
+        <v>1.08</v>
+      </c>
+      <c r="AD408">
+        <v>7.5</v>
+      </c>
+      <c r="AE408">
+        <v>1.4</v>
+      </c>
+      <c r="AF408">
+        <v>2.9</v>
+      </c>
+      <c r="AG408">
+        <v>1.98</v>
+      </c>
+      <c r="AH408">
+        <v>1.77</v>
+      </c>
+      <c r="AI408">
+        <v>1.91</v>
+      </c>
+      <c r="AJ408">
+        <v>1.8</v>
+      </c>
+      <c r="AK408">
+        <v>1.29</v>
+      </c>
+      <c r="AL408">
+        <v>1.33</v>
+      </c>
+      <c r="AM408">
+        <v>1.68</v>
+      </c>
+      <c r="AN408">
+        <v>1.56</v>
+      </c>
+      <c r="AO408">
+        <v>1.17</v>
+      </c>
+      <c r="AP408">
+        <v>1.63</v>
+      </c>
+      <c r="AQ408">
+        <v>1.11</v>
+      </c>
+      <c r="AR408">
+        <v>1.78</v>
+      </c>
+      <c r="AS408">
+        <v>1.3</v>
+      </c>
+      <c r="AT408">
+        <v>3.08</v>
+      </c>
+      <c r="AU408">
+        <v>11</v>
+      </c>
+      <c r="AV408">
+        <v>3</v>
+      </c>
+      <c r="AW408">
+        <v>15</v>
+      </c>
+      <c r="AX408">
+        <v>4</v>
+      </c>
+      <c r="AY408">
+        <v>30</v>
+      </c>
+      <c r="AZ408">
+        <v>7</v>
+      </c>
+      <c r="BA408">
+        <v>10</v>
+      </c>
+      <c r="BB408">
+        <v>2</v>
+      </c>
+      <c r="BC408">
+        <v>12</v>
+      </c>
+      <c r="BD408">
+        <v>1.58</v>
+      </c>
+      <c r="BE408">
+        <v>6.5</v>
+      </c>
+      <c r="BF408">
+        <v>2.65</v>
+      </c>
+      <c r="BG408">
+        <v>1.43</v>
+      </c>
+      <c r="BH408">
+        <v>2.55</v>
+      </c>
+      <c r="BI408">
+        <v>1.71</v>
+      </c>
+      <c r="BJ408">
+        <v>1.96</v>
+      </c>
+      <c r="BK408">
+        <v>1.98</v>
+      </c>
+      <c r="BL408">
+        <v>1.82</v>
+      </c>
+      <c r="BM408">
+        <v>2.7</v>
+      </c>
+      <c r="BN408">
+        <v>1.38</v>
+      </c>
+      <c r="BO408">
+        <v>3.55</v>
+      </c>
+      <c r="BP408">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="476">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1051,6 +1051,9 @@
     <t>['24', '38', '73', '84']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1232,9 +1235,6 @@
   </si>
   <si>
     <t>['16', '56']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['16', '41']</t>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>['47', '59']</t>
+  </si>
+  <si>
+    <t>['45+5', '62']</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP408"/>
+  <dimension ref="A1:BP412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2062,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2471,7 +2474,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2755,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -3170,7 +3173,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ7">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3295,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3501,7 +3504,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3785,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
         <v>0.42</v>
@@ -4325,7 +4328,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4609,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ14">
         <v>1.42</v>
@@ -5024,7 +5027,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ16">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -5433,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ18">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5561,7 +5564,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5848,7 +5851,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ20">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6054,7 +6057,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ21">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6179,7 +6182,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6385,7 +6388,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6591,7 +6594,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6797,7 +6800,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7003,7 +7006,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7287,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7621,7 +7624,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7699,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
         <v>1.11</v>
@@ -8239,7 +8242,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8445,7 +8448,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8523,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ33">
         <v>1.42</v>
@@ -8857,7 +8860,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9347,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ37">
         <v>1.05</v>
@@ -9556,7 +9559,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9968,7 +9971,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10586,7 +10589,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ43">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10711,7 +10714,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11329,7 +11332,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11613,7 +11616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ48">
         <v>0.39</v>
@@ -11819,7 +11822,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ49">
         <v>1.21</v>
@@ -12643,7 +12646,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
         <v>1.11</v>
@@ -12977,7 +12980,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13058,7 +13061,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ55">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -13183,7 +13186,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13389,7 +13392,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13595,7 +13598,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13882,7 +13885,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -14007,7 +14010,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14625,7 +14628,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15118,7 +15121,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -15243,7 +15246,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15527,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ67">
         <v>1.21</v>
@@ -15655,7 +15658,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15861,7 +15864,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16479,7 +16482,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16557,10 +16560,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ72">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16685,7 +16688,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16891,7 +16894,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16969,10 +16972,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -17715,7 +17718,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17999,7 +18002,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ79">
         <v>1.11</v>
@@ -18208,7 +18211,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ80">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -18333,7 +18336,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18414,7 +18417,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ81">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR81">
         <v>1.07</v>
@@ -18539,7 +18542,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18617,7 +18620,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18745,7 +18748,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19569,7 +19572,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19856,7 +19859,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19981,7 +19984,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20187,7 +20190,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20599,7 +20602,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20883,7 +20886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -21011,7 +21014,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21089,7 +21092,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21217,7 +21220,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21913,10 +21916,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -22247,7 +22250,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22737,10 +22740,10 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ102">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR102">
         <v>1.13</v>
@@ -23689,7 +23692,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24307,7 +24310,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24800,7 +24803,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ112">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24925,7 +24928,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25006,7 +25009,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ113">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -25209,7 +25212,7 @@
         <v>1.75</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ114">
         <v>1.11</v>
@@ -25337,7 +25340,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25830,7 +25833,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ117">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -26161,7 +26164,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26779,7 +26782,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26857,7 +26860,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
         <v>0.72</v>
@@ -27066,7 +27069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR123">
         <v>1.53</v>
@@ -27191,7 +27194,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27603,7 +27606,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27887,7 +27890,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ127">
         <v>0.84</v>
@@ -28015,7 +28018,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28427,7 +28430,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28633,7 +28636,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28711,7 +28714,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ131">
         <v>1.16</v>
@@ -28839,7 +28842,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29251,7 +29254,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29329,10 +29332,10 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ134">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -29457,7 +29460,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29950,7 +29953,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ137">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR137">
         <v>1.67</v>
@@ -30075,7 +30078,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30568,7 +30571,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30693,7 +30696,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30899,7 +30902,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31105,7 +31108,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31183,7 +31186,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ143">
         <v>1.11</v>
@@ -31311,7 +31314,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31595,7 +31598,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ145">
         <v>0.42</v>
@@ -31723,7 +31726,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32007,7 +32010,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -32135,7 +32138,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32422,7 +32425,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR149">
         <v>1.82</v>
@@ -32831,7 +32834,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ151">
         <v>0.72</v>
@@ -33165,7 +33168,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33246,7 +33249,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ153">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -33452,7 +33455,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ154">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33783,7 +33786,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33864,7 +33867,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ156">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR156">
         <v>1.44</v>
@@ -35431,7 +35434,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35921,7 +35924,7 @@
         <v>0.71</v>
       </c>
       <c r="AP166">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166">
         <v>0.84</v>
@@ -36049,7 +36052,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36333,7 +36336,7 @@
         <v>3</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ168">
         <v>1.72</v>
@@ -37079,7 +37082,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37157,7 +37160,7 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ172">
         <v>1.11</v>
@@ -37366,7 +37369,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ173">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -38521,7 +38524,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38602,7 +38605,7 @@
         <v>2</v>
       </c>
       <c r="AQ179">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -39014,7 +39017,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ181">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -39220,7 +39223,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ182">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR182">
         <v>1.26</v>
@@ -40247,7 +40250,7 @@
         <v>0.75</v>
       </c>
       <c r="AP187">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ187">
         <v>0.42</v>
@@ -40375,7 +40378,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -41277,7 +41280,7 @@
         <v>0.63</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ192">
         <v>0.84</v>
@@ -41486,7 +41489,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ193">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR193">
         <v>1.13</v>
@@ -41689,7 +41692,7 @@
         <v>1.56</v>
       </c>
       <c r="AP194">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ194">
         <v>1.16</v>
@@ -42101,7 +42104,7 @@
         <v>0.63</v>
       </c>
       <c r="AP196">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ196">
         <v>1.06</v>
@@ -42722,7 +42725,7 @@
         <v>2</v>
       </c>
       <c r="AQ199">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.74</v>
@@ -43259,7 +43262,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43465,7 +43468,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43543,7 +43546,7 @@
         <v>1.6</v>
       </c>
       <c r="AP203">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ203">
         <v>1.11</v>
@@ -43752,7 +43755,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ204">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR204">
         <v>1.41</v>
@@ -43958,7 +43961,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ205">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR205">
         <v>1.69</v>
@@ -44367,7 +44370,7 @@
         <v>0.78</v>
       </c>
       <c r="AP207">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ207">
         <v>0.84</v>
@@ -45400,7 +45403,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ212">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45731,7 +45734,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46015,7 +46018,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP215">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ215">
         <v>1.06</v>
@@ -46143,7 +46146,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46839,7 +46842,7 @@
         <v>0.22</v>
       </c>
       <c r="AP219">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ219">
         <v>0.39</v>
@@ -47251,10 +47254,10 @@
         <v>1.56</v>
       </c>
       <c r="AP221">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ221">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR221">
         <v>1.48</v>
@@ -48075,7 +48078,7 @@
         <v>0.2</v>
       </c>
       <c r="AP225">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ225">
         <v>0.39</v>
@@ -48284,7 +48287,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ226">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR226">
         <v>1.73</v>
@@ -48902,7 +48905,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ229">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -49929,10 +49932,10 @@
         <v>1.4</v>
       </c>
       <c r="AP234">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ234">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR234">
         <v>1.16</v>
@@ -50547,7 +50550,7 @@
         <v>1.22</v>
       </c>
       <c r="AP237">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ237">
         <v>1.42</v>
@@ -51786,7 +51789,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ243">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR243">
         <v>1.18</v>
@@ -52195,7 +52198,7 @@
         <v>1.09</v>
       </c>
       <c r="AP245">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ245">
         <v>1</v>
@@ -52323,7 +52326,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -52404,7 +52407,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ246">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR246">
         <v>1.56</v>
@@ -52610,7 +52613,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ247">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -52813,7 +52816,7 @@
         <v>1.2</v>
       </c>
       <c r="AP248">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ248">
         <v>1.42</v>
@@ -54667,7 +54670,7 @@
         <v>0.58</v>
       </c>
       <c r="AP257">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ257">
         <v>0.42</v>
@@ -55697,7 +55700,7 @@
         <v>1.33</v>
       </c>
       <c r="AP262">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ262">
         <v>1.11</v>
@@ -55906,7 +55909,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ263">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR263">
         <v>1.43</v>
@@ -56318,7 +56321,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ265">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR265">
         <v>1.45</v>
@@ -56524,7 +56527,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ266">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR266">
         <v>1.24</v>
@@ -56936,7 +56939,7 @@
         <v>2</v>
       </c>
       <c r="AQ268">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR268">
         <v>1.8</v>
@@ -57551,7 +57554,7 @@
         <v>1.33</v>
       </c>
       <c r="AP271">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ271">
         <v>1.42</v>
@@ -58996,7 +58999,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ278">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR278">
         <v>1.69</v>
@@ -59199,7 +59202,7 @@
         <v>1.46</v>
       </c>
       <c r="AP279">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ279">
         <v>1.42</v>
@@ -59817,7 +59820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP282">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ282">
         <v>1.72</v>
@@ -60769,7 +60772,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -62289,10 +62292,10 @@
         <v>1.5</v>
       </c>
       <c r="AP294">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ294">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR294">
         <v>1.27</v>
@@ -62910,7 +62913,7 @@
         <v>2</v>
       </c>
       <c r="AQ297">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR297">
         <v>1.76</v>
@@ -63113,7 +63116,7 @@
         <v>0.23</v>
       </c>
       <c r="AP298">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ298">
         <v>0.39</v>
@@ -63525,10 +63528,10 @@
         <v>1.38</v>
       </c>
       <c r="AP300">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ300">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR300">
         <v>1.42</v>
@@ -63731,7 +63734,7 @@
         <v>2</v>
       </c>
       <c r="AP301">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ301">
         <v>1.72</v>
@@ -64764,7 +64767,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ306">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR306">
         <v>1.68</v>
@@ -65585,7 +65588,7 @@
         <v>1</v>
       </c>
       <c r="AP310">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ310">
         <v>0.72</v>
@@ -66412,7 +66415,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ314">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR314">
         <v>1.64</v>
@@ -67236,7 +67239,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ318">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR318">
         <v>1.61</v>
@@ -67851,7 +67854,7 @@
         <v>1.47</v>
       </c>
       <c r="AP321">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ321">
         <v>1.16</v>
@@ -68266,7 +68269,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ323">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR323">
         <v>1.37</v>
@@ -69293,7 +69296,7 @@
         <v>1.21</v>
       </c>
       <c r="AP328">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ328">
         <v>1.11</v>
@@ -69911,7 +69914,7 @@
         <v>0.93</v>
       </c>
       <c r="AP331">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ331">
         <v>1</v>
@@ -70120,7 +70123,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ332">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR332">
         <v>1.6</v>
@@ -71356,7 +71359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ338">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR338">
         <v>1.53</v>
@@ -71559,7 +71562,7 @@
         <v>1.53</v>
       </c>
       <c r="AP339">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ339">
         <v>1.42</v>
@@ -71974,7 +71977,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ341">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR341">
         <v>1.44</v>
@@ -72383,7 +72386,7 @@
         <v>1.38</v>
       </c>
       <c r="AP343">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ343">
         <v>1.16</v>
@@ -73001,7 +73004,7 @@
         <v>0.87</v>
       </c>
       <c r="AP346">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ346">
         <v>0.72</v>
@@ -73210,7 +73213,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ347">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR347">
         <v>1.66</v>
@@ -73619,7 +73622,7 @@
         <v>1.38</v>
       </c>
       <c r="AP349">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ349">
         <v>1.21</v>
@@ -74365,7 +74368,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -74652,7 +74655,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ354">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR354">
         <v>1.4</v>
@@ -75888,7 +75891,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ360">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR360">
         <v>1.68</v>
@@ -76297,7 +76300,7 @@
         <v>1</v>
       </c>
       <c r="AP362">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ362">
         <v>1</v>
@@ -76506,7 +76509,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ363">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR363">
         <v>1.53</v>
@@ -77043,7 +77046,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77121,10 +77124,10 @@
         <v>1.31</v>
       </c>
       <c r="AP366">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ366">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR366">
         <v>1.59</v>
@@ -77948,7 +77951,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ370">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR370">
         <v>1.63</v>
@@ -78357,7 +78360,7 @@
         <v>1.12</v>
       </c>
       <c r="AP372">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ372">
         <v>1.21</v>
@@ -78563,7 +78566,7 @@
         <v>1.29</v>
       </c>
       <c r="AP373">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ373">
         <v>1.21</v>
@@ -79721,7 +79724,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -79802,7 +79805,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ379">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR379">
         <v>1.45</v>
@@ -80214,7 +80217,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ381">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR381">
         <v>1.53</v>
@@ -80339,7 +80342,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -81241,7 +81244,7 @@
         <v>0.88</v>
       </c>
       <c r="AP386">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ386">
         <v>0.84</v>
@@ -81450,7 +81453,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ387">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR387">
         <v>1.52</v>
@@ -82065,7 +82068,7 @@
         <v>1.65</v>
       </c>
       <c r="AP390">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ390">
         <v>1.72</v>
@@ -82477,7 +82480,7 @@
         <v>1.18</v>
       </c>
       <c r="AP392">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ392">
         <v>1.11</v>
@@ -82686,7 +82689,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ393">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR393">
         <v>1.14</v>
@@ -82892,7 +82895,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ394">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR394">
         <v>1.75</v>
@@ -83507,7 +83510,7 @@
         <v>0.83</v>
       </c>
       <c r="AP397">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ397">
         <v>0.84</v>
@@ -84459,7 +84462,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84540,7 +84543,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ402">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR402">
         <v>1.67</v>
@@ -84665,7 +84668,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -85361,7 +85364,7 @@
         <v>1.17</v>
       </c>
       <c r="AP406">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ406">
         <v>1.11</v>
@@ -85851,6 +85854,830 @@
         <v>3.55</v>
       </c>
       <c r="BP408">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="409" spans="1:68">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>7728609</v>
+      </c>
+      <c r="C409" t="s">
+        <v>68</v>
+      </c>
+      <c r="D409" t="s">
+        <v>69</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45780.46875</v>
+      </c>
+      <c r="F409">
+        <v>38</v>
+      </c>
+      <c r="G409" t="s">
+        <v>81</v>
+      </c>
+      <c r="H409" t="s">
+        <v>89</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409">
+        <v>2</v>
+      </c>
+      <c r="N409">
+        <v>3</v>
+      </c>
+      <c r="O409" t="s">
+        <v>345</v>
+      </c>
+      <c r="P409" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q409">
+        <v>3.75</v>
+      </c>
+      <c r="R409">
+        <v>1.83</v>
+      </c>
+      <c r="S409">
+        <v>3.6</v>
+      </c>
+      <c r="T409">
+        <v>1.62</v>
+      </c>
+      <c r="U409">
+        <v>2.2</v>
+      </c>
+      <c r="V409">
+        <v>4</v>
+      </c>
+      <c r="W409">
+        <v>1.22</v>
+      </c>
+      <c r="X409">
+        <v>13</v>
+      </c>
+      <c r="Y409">
+        <v>1.04</v>
+      </c>
+      <c r="Z409">
+        <v>2.96</v>
+      </c>
+      <c r="AA409">
+        <v>2.83</v>
+      </c>
+      <c r="AB409">
+        <v>2.91</v>
+      </c>
+      <c r="AC409">
+        <v>1.13</v>
+      </c>
+      <c r="AD409">
+        <v>5.75</v>
+      </c>
+      <c r="AE409">
+        <v>1.55</v>
+      </c>
+      <c r="AF409">
+        <v>2.2</v>
+      </c>
+      <c r="AG409">
+        <v>2.94</v>
+      </c>
+      <c r="AH409">
+        <v>1.35</v>
+      </c>
+      <c r="AI409">
+        <v>2.25</v>
+      </c>
+      <c r="AJ409">
+        <v>1.57</v>
+      </c>
+      <c r="AK409">
+        <v>1.43</v>
+      </c>
+      <c r="AL409">
+        <v>1.4</v>
+      </c>
+      <c r="AM409">
+        <v>1.41</v>
+      </c>
+      <c r="AN409">
+        <v>1.94</v>
+      </c>
+      <c r="AO409">
+        <v>1.28</v>
+      </c>
+      <c r="AP409">
+        <v>1.84</v>
+      </c>
+      <c r="AQ409">
+        <v>1.37</v>
+      </c>
+      <c r="AR409">
+        <v>1.31</v>
+      </c>
+      <c r="AS409">
+        <v>1.29</v>
+      </c>
+      <c r="AT409">
+        <v>2.6</v>
+      </c>
+      <c r="AU409">
+        <v>4</v>
+      </c>
+      <c r="AV409">
+        <v>8</v>
+      </c>
+      <c r="AW409">
+        <v>5</v>
+      </c>
+      <c r="AX409">
+        <v>6</v>
+      </c>
+      <c r="AY409">
+        <v>9</v>
+      </c>
+      <c r="AZ409">
+        <v>16</v>
+      </c>
+      <c r="BA409">
+        <v>3</v>
+      </c>
+      <c r="BB409">
+        <v>9</v>
+      </c>
+      <c r="BC409">
+        <v>12</v>
+      </c>
+      <c r="BD409">
+        <v>1.95</v>
+      </c>
+      <c r="BE409">
+        <v>6.4</v>
+      </c>
+      <c r="BF409">
+        <v>2.05</v>
+      </c>
+      <c r="BG409">
+        <v>1.36</v>
+      </c>
+      <c r="BH409">
+        <v>2.87</v>
+      </c>
+      <c r="BI409">
+        <v>1.63</v>
+      </c>
+      <c r="BJ409">
+        <v>2.2</v>
+      </c>
+      <c r="BK409">
+        <v>2.02</v>
+      </c>
+      <c r="BL409">
+        <v>1.74</v>
+      </c>
+      <c r="BM409">
+        <v>2.55</v>
+      </c>
+      <c r="BN409">
+        <v>1.45</v>
+      </c>
+      <c r="BO409">
+        <v>3.38</v>
+      </c>
+      <c r="BP409">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="410" spans="1:68">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>7728846</v>
+      </c>
+      <c r="C410" t="s">
+        <v>68</v>
+      </c>
+      <c r="D410" t="s">
+        <v>69</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F410">
+        <v>38</v>
+      </c>
+      <c r="G410" t="s">
+        <v>83</v>
+      </c>
+      <c r="H410" t="s">
+        <v>70</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>1</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>1</v>
+      </c>
+      <c r="O410" t="s">
+        <v>147</v>
+      </c>
+      <c r="P410" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q410">
+        <v>3.6</v>
+      </c>
+      <c r="R410">
+        <v>2</v>
+      </c>
+      <c r="S410">
+        <v>3.25</v>
+      </c>
+      <c r="T410">
+        <v>1.5</v>
+      </c>
+      <c r="U410">
+        <v>2.5</v>
+      </c>
+      <c r="V410">
+        <v>3.4</v>
+      </c>
+      <c r="W410">
+        <v>1.3</v>
+      </c>
+      <c r="X410">
+        <v>10</v>
+      </c>
+      <c r="Y410">
+        <v>1.06</v>
+      </c>
+      <c r="Z410">
+        <v>2.98</v>
+      </c>
+      <c r="AA410">
+        <v>3.13</v>
+      </c>
+      <c r="AB410">
+        <v>2.63</v>
+      </c>
+      <c r="AC410">
+        <v>1.09</v>
+      </c>
+      <c r="AD410">
+        <v>7</v>
+      </c>
+      <c r="AE410">
+        <v>1.44</v>
+      </c>
+      <c r="AF410">
+        <v>2.75</v>
+      </c>
+      <c r="AG410">
+        <v>2.2</v>
+      </c>
+      <c r="AH410">
+        <v>1.55</v>
+      </c>
+      <c r="AI410">
+        <v>1.91</v>
+      </c>
+      <c r="AJ410">
+        <v>1.8</v>
+      </c>
+      <c r="AK410">
+        <v>1.52</v>
+      </c>
+      <c r="AL410">
+        <v>1.35</v>
+      </c>
+      <c r="AM410">
+        <v>1.38</v>
+      </c>
+      <c r="AN410">
+        <v>1.67</v>
+      </c>
+      <c r="AO410">
+        <v>1.39</v>
+      </c>
+      <c r="AP410">
+        <v>1.74</v>
+      </c>
+      <c r="AQ410">
+        <v>1.32</v>
+      </c>
+      <c r="AR410">
+        <v>1.31</v>
+      </c>
+      <c r="AS410">
+        <v>1.27</v>
+      </c>
+      <c r="AT410">
+        <v>2.58</v>
+      </c>
+      <c r="AU410">
+        <v>7</v>
+      </c>
+      <c r="AV410">
+        <v>2</v>
+      </c>
+      <c r="AW410">
+        <v>11</v>
+      </c>
+      <c r="AX410">
+        <v>6</v>
+      </c>
+      <c r="AY410">
+        <v>21</v>
+      </c>
+      <c r="AZ410">
+        <v>10</v>
+      </c>
+      <c r="BA410">
+        <v>9</v>
+      </c>
+      <c r="BB410">
+        <v>4</v>
+      </c>
+      <c r="BC410">
+        <v>13</v>
+      </c>
+      <c r="BD410">
+        <v>1.9</v>
+      </c>
+      <c r="BE410">
+        <v>6.75</v>
+      </c>
+      <c r="BF410">
+        <v>2.07</v>
+      </c>
+      <c r="BG410">
+        <v>1.29</v>
+      </c>
+      <c r="BH410">
+        <v>3.15</v>
+      </c>
+      <c r="BI410">
+        <v>1.49</v>
+      </c>
+      <c r="BJ410">
+        <v>2.35</v>
+      </c>
+      <c r="BK410">
+        <v>1.81</v>
+      </c>
+      <c r="BL410">
+        <v>1.85</v>
+      </c>
+      <c r="BM410">
+        <v>2.25</v>
+      </c>
+      <c r="BN410">
+        <v>1.53</v>
+      </c>
+      <c r="BO410">
+        <v>2.9</v>
+      </c>
+      <c r="BP410">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="411" spans="1:68">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>7728607</v>
+      </c>
+      <c r="C411" t="s">
+        <v>68</v>
+      </c>
+      <c r="D411" t="s">
+        <v>69</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F411">
+        <v>38</v>
+      </c>
+      <c r="G411" t="s">
+        <v>73</v>
+      </c>
+      <c r="H411" t="s">
+        <v>71</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>1</v>
+      </c>
+      <c r="N411">
+        <v>1</v>
+      </c>
+      <c r="O411" t="s">
+        <v>94</v>
+      </c>
+      <c r="P411" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q411">
+        <v>3</v>
+      </c>
+      <c r="R411">
+        <v>1.95</v>
+      </c>
+      <c r="S411">
+        <v>4.33</v>
+      </c>
+      <c r="T411">
+        <v>1.57</v>
+      </c>
+      <c r="U411">
+        <v>2.25</v>
+      </c>
+      <c r="V411">
+        <v>3.75</v>
+      </c>
+      <c r="W411">
+        <v>1.25</v>
+      </c>
+      <c r="X411">
+        <v>11</v>
+      </c>
+      <c r="Y411">
+        <v>1.05</v>
+      </c>
+      <c r="Z411">
+        <v>2.37</v>
+      </c>
+      <c r="AA411">
+        <v>3.05</v>
+      </c>
+      <c r="AB411">
+        <v>3.51</v>
+      </c>
+      <c r="AC411">
+        <v>1.11</v>
+      </c>
+      <c r="AD411">
+        <v>6.25</v>
+      </c>
+      <c r="AE411">
+        <v>1.5</v>
+      </c>
+      <c r="AF411">
+        <v>2.3</v>
+      </c>
+      <c r="AG411">
+        <v>2.55</v>
+      </c>
+      <c r="AH411">
+        <v>1.45</v>
+      </c>
+      <c r="AI411">
+        <v>2.2</v>
+      </c>
+      <c r="AJ411">
+        <v>1.62</v>
+      </c>
+      <c r="AK411">
+        <v>1.27</v>
+      </c>
+      <c r="AL411">
+        <v>1.36</v>
+      </c>
+      <c r="AM411">
+        <v>1.66</v>
+      </c>
+      <c r="AN411">
+        <v>1.83</v>
+      </c>
+      <c r="AO411">
+        <v>0.89</v>
+      </c>
+      <c r="AP411">
+        <v>1.74</v>
+      </c>
+      <c r="AQ411">
+        <v>1</v>
+      </c>
+      <c r="AR411">
+        <v>1.62</v>
+      </c>
+      <c r="AS411">
+        <v>1.25</v>
+      </c>
+      <c r="AT411">
+        <v>2.87</v>
+      </c>
+      <c r="AU411">
+        <v>2</v>
+      </c>
+      <c r="AV411">
+        <v>4</v>
+      </c>
+      <c r="AW411">
+        <v>8</v>
+      </c>
+      <c r="AX411">
+        <v>8</v>
+      </c>
+      <c r="AY411">
+        <v>13</v>
+      </c>
+      <c r="AZ411">
+        <v>16</v>
+      </c>
+      <c r="BA411">
+        <v>7</v>
+      </c>
+      <c r="BB411">
+        <v>5</v>
+      </c>
+      <c r="BC411">
+        <v>12</v>
+      </c>
+      <c r="BD411">
+        <v>1.57</v>
+      </c>
+      <c r="BE411">
+        <v>6.5</v>
+      </c>
+      <c r="BF411">
+        <v>2.65</v>
+      </c>
+      <c r="BG411">
+        <v>1.41</v>
+      </c>
+      <c r="BH411">
+        <v>2.6</v>
+      </c>
+      <c r="BI411">
+        <v>1.71</v>
+      </c>
+      <c r="BJ411">
+        <v>1.98</v>
+      </c>
+      <c r="BK411">
+        <v>2.14</v>
+      </c>
+      <c r="BL411">
+        <v>1.6</v>
+      </c>
+      <c r="BM411">
+        <v>2.8</v>
+      </c>
+      <c r="BN411">
+        <v>1.36</v>
+      </c>
+      <c r="BO411">
+        <v>3.7</v>
+      </c>
+      <c r="BP411">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="412" spans="1:68">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>7728604</v>
+      </c>
+      <c r="C412" t="s">
+        <v>68</v>
+      </c>
+      <c r="D412" t="s">
+        <v>69</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F412">
+        <v>38</v>
+      </c>
+      <c r="G412" t="s">
+        <v>78</v>
+      </c>
+      <c r="H412" t="s">
+        <v>79</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>1</v>
+      </c>
+      <c r="N412">
+        <v>1</v>
+      </c>
+      <c r="O412" t="s">
+        <v>94</v>
+      </c>
+      <c r="P412" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q412">
+        <v>4</v>
+      </c>
+      <c r="R412">
+        <v>1.91</v>
+      </c>
+      <c r="S412">
+        <v>3.2</v>
+      </c>
+      <c r="T412">
+        <v>1.57</v>
+      </c>
+      <c r="U412">
+        <v>2.25</v>
+      </c>
+      <c r="V412">
+        <v>3.75</v>
+      </c>
+      <c r="W412">
+        <v>1.25</v>
+      </c>
+      <c r="X412">
+        <v>11</v>
+      </c>
+      <c r="Y412">
+        <v>1.05</v>
+      </c>
+      <c r="Z412">
+        <v>3.47</v>
+      </c>
+      <c r="AA412">
+        <v>3.07</v>
+      </c>
+      <c r="AB412">
+        <v>2.38</v>
+      </c>
+      <c r="AC412">
+        <v>1.11</v>
+      </c>
+      <c r="AD412">
+        <v>6.25</v>
+      </c>
+      <c r="AE412">
+        <v>1.5</v>
+      </c>
+      <c r="AF412">
+        <v>2.3</v>
+      </c>
+      <c r="AG412">
+        <v>2.99</v>
+      </c>
+      <c r="AH412">
+        <v>1.34</v>
+      </c>
+      <c r="AI412">
+        <v>2.2</v>
+      </c>
+      <c r="AJ412">
+        <v>1.62</v>
+      </c>
+      <c r="AK412">
+        <v>1.58</v>
+      </c>
+      <c r="AL412">
+        <v>1.36</v>
+      </c>
+      <c r="AM412">
+        <v>1.32</v>
+      </c>
+      <c r="AN412">
+        <v>1.72</v>
+      </c>
+      <c r="AO412">
+        <v>1.28</v>
+      </c>
+      <c r="AP412">
+        <v>1.63</v>
+      </c>
+      <c r="AQ412">
+        <v>1.37</v>
+      </c>
+      <c r="AR412">
+        <v>1.35</v>
+      </c>
+      <c r="AS412">
+        <v>1.29</v>
+      </c>
+      <c r="AT412">
+        <v>2.64</v>
+      </c>
+      <c r="AU412">
+        <v>4</v>
+      </c>
+      <c r="AV412">
+        <v>6</v>
+      </c>
+      <c r="AW412">
+        <v>5</v>
+      </c>
+      <c r="AX412">
+        <v>3</v>
+      </c>
+      <c r="AY412">
+        <v>10</v>
+      </c>
+      <c r="AZ412">
+        <v>11</v>
+      </c>
+      <c r="BA412">
+        <v>6</v>
+      </c>
+      <c r="BB412">
+        <v>4</v>
+      </c>
+      <c r="BC412">
+        <v>10</v>
+      </c>
+      <c r="BD412">
+        <v>2.23</v>
+      </c>
+      <c r="BE412">
+        <v>6.25</v>
+      </c>
+      <c r="BF412">
+        <v>1.79</v>
+      </c>
+      <c r="BG412">
+        <v>1.39</v>
+      </c>
+      <c r="BH412">
+        <v>2.75</v>
+      </c>
+      <c r="BI412">
+        <v>1.68</v>
+      </c>
+      <c r="BJ412">
+        <v>2.11</v>
+      </c>
+      <c r="BK412">
+        <v>2.1</v>
+      </c>
+      <c r="BL412">
+        <v>1.69</v>
+      </c>
+      <c r="BM412">
+        <v>2.65</v>
+      </c>
+      <c r="BN412">
+        <v>1.42</v>
+      </c>
+      <c r="BO412">
+        <v>3.55</v>
+      </c>
+      <c r="BP412">
         <v>1.23</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="483">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1048,6 +1048,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['43', '51']</t>
+  </si>
+  <si>
     <t>['24', '38', '73', '84']</t>
   </si>
   <si>
@@ -1061,6 +1064,9 @@
   </si>
   <si>
     <t>['28', '34', '46', '62', '75']</t>
+  </si>
+  <si>
+    <t>['17', '45+3', '67', '71']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -1455,6 +1461,9 @@
   <si>
     <t>['1', '51']</t>
   </si>
+  <si>
+    <t>['31', '53', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1815,7 +1824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP417"/>
+  <dimension ref="A1:BP419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2074,7 +2083,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2486,7 +2495,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3310,7 +3319,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3516,7 +3525,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4340,7 +4349,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5576,7 +5585,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6066,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21">
         <v>1.37</v>
@@ -6194,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6400,7 +6409,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6606,7 +6615,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6812,7 +6821,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7018,7 +7027,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7508,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7636,7 +7645,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7923,7 +7932,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ30">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -8254,7 +8263,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8460,7 +8469,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8872,7 +8881,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10726,7 +10735,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10804,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
         <v>1.11</v>
@@ -11344,7 +11353,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12043,7 +12052,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -12867,7 +12876,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12992,7 +13001,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13198,7 +13207,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13276,7 +13285,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -13404,7 +13413,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13610,7 +13619,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -14022,7 +14031,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14515,7 +14524,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14640,7 +14649,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14924,7 +14933,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -15258,7 +15267,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15336,7 +15345,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>0.84</v>
@@ -15670,7 +15679,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15876,7 +15885,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16494,7 +16503,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16700,7 +16709,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16906,7 +16915,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17190,7 +17199,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
         <v>0.42</v>
@@ -17399,7 +17408,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17730,7 +17739,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18348,7 +18357,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18554,7 +18563,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18635,7 +18644,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR82">
         <v>1.41</v>
@@ -18760,7 +18769,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19044,7 +19053,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1.05</v>
@@ -19584,7 +19593,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19996,7 +20005,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20202,7 +20211,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20489,7 +20498,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ91">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20614,7 +20623,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21026,7 +21035,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21232,7 +21241,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22262,7 +22271,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23370,7 +23379,7 @@
         <v>1.4</v>
       </c>
       <c r="AP105">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
         <v>1.42</v>
@@ -23704,7 +23713,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24197,7 +24206,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -24322,7 +24331,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24940,7 +24949,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25018,7 +25027,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>1.32</v>
@@ -25352,7 +25361,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26048,7 +26057,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
         <v>0.95</v>
@@ -26176,7 +26185,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26794,7 +26803,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26875,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ122">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -27206,7 +27215,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27618,7 +27627,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28030,7 +28039,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28442,7 +28451,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28523,7 +28532,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28648,7 +28657,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28854,7 +28863,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29266,7 +29275,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29472,7 +29481,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30090,7 +30099,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30708,7 +30717,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30914,7 +30923,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31120,7 +31129,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31326,7 +31335,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31738,7 +31747,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32025,7 +32034,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -32150,7 +32159,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32849,7 +32858,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ151">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -33180,7 +33189,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33258,7 +33267,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33798,7 +33807,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34494,7 +34503,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
         <v>1.42</v>
@@ -35446,7 +35455,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36064,7 +36073,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36763,7 +36772,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -37094,7 +37103,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37584,7 +37593,7 @@
         <v>0.14</v>
       </c>
       <c r="AP174">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ174">
         <v>1.21</v>
@@ -37712,7 +37721,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37996,10 +38005,10 @@
         <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR176">
         <v>1.6</v>
@@ -38124,7 +38133,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38536,7 +38545,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38614,7 +38623,7 @@
         <v>2</v>
       </c>
       <c r="AP179">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ179">
         <v>1.32</v>
@@ -38742,7 +38751,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39438,7 +39447,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
         <v>0.84</v>
@@ -39566,7 +39575,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39853,7 +39862,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ185">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -40390,7 +40399,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -41008,7 +41017,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41214,7 +41223,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41420,7 +41429,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41626,7 +41635,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42531,7 +42540,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42734,7 +42743,7 @@
         <v>1.38</v>
       </c>
       <c r="AP199">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42862,7 +42871,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43274,7 +43283,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43352,7 +43361,7 @@
         <v>0.67</v>
       </c>
       <c r="AP202">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
         <v>0.42</v>
@@ -43480,7 +43489,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44098,7 +44107,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44179,7 +44188,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -45334,7 +45343,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45540,7 +45549,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45746,7 +45755,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -45827,7 +45836,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR214">
         <v>1.17</v>
@@ -46158,7 +46167,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47394,7 +47403,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47681,7 +47690,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ223">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR223">
         <v>1.71</v>
@@ -47806,7 +47815,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48218,7 +48227,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48296,7 +48305,7 @@
         <v>1.11</v>
       </c>
       <c r="AP226">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ226">
         <v>1.37</v>
@@ -48502,7 +48511,7 @@
         <v>1</v>
       </c>
       <c r="AP227">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ227">
         <v>1.11</v>
@@ -48836,7 +48845,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49042,7 +49051,7 @@
         <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -49248,7 +49257,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50072,7 +50081,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50771,7 +50780,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ238">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR238">
         <v>1.62</v>
@@ -50896,7 +50905,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51514,7 +51523,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51926,7 +51935,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52338,7 +52347,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53037,7 +53046,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ249">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR249">
         <v>1.51</v>
@@ -53162,7 +53171,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53240,7 +53249,7 @@
         <v>0.45</v>
       </c>
       <c r="AP250">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
         <v>1.21</v>
@@ -53368,7 +53377,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53652,7 +53661,7 @@
         <v>1.27</v>
       </c>
       <c r="AP252">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ252">
         <v>1.21</v>
@@ -53780,7 +53789,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54192,7 +54201,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54398,7 +54407,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55097,7 +55106,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ259">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR259">
         <v>1.7</v>
@@ -55634,7 +55643,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56252,7 +56261,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -56948,7 +56957,7 @@
         <v>1.42</v>
       </c>
       <c r="AP268">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ268">
         <v>1.37</v>
@@ -57360,7 +57369,7 @@
         <v>1.25</v>
       </c>
       <c r="AP270">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ270">
         <v>1.21</v>
@@ -57694,7 +57703,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58393,7 +58402,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ275">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR275">
         <v>1.57</v>
@@ -58724,7 +58733,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59960,7 +59969,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60166,7 +60175,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60784,7 +60793,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60865,7 +60874,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ287">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR287">
         <v>1.29</v>
@@ -61068,7 +61077,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP288">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ288">
         <v>0.84</v>
@@ -61402,7 +61411,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61608,7 +61617,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -61895,7 +61904,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ292">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR292">
         <v>1.67</v>
@@ -62922,7 +62931,7 @@
         <v>1.17</v>
       </c>
       <c r="AP297">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ297">
         <v>1.37</v>
@@ -63462,7 +63471,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63668,7 +63677,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63874,7 +63883,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -65316,7 +65325,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -65603,7 +65612,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ310">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR310">
         <v>1.27</v>
@@ -65806,7 +65815,7 @@
         <v>0.92</v>
       </c>
       <c r="AP311">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ311">
         <v>1.05</v>
@@ -66015,7 +66024,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ312">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR312">
         <v>1.54</v>
@@ -66140,7 +66149,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66218,7 +66227,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ313">
         <v>0.84</v>
@@ -66552,7 +66561,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66758,7 +66767,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -68818,7 +68827,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69230,7 +69239,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69723,7 +69732,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ330">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR330">
         <v>1.67</v>
@@ -70956,7 +70965,7 @@
         <v>1.33</v>
       </c>
       <c r="AP336">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ336">
         <v>1.21</v>
@@ -71165,7 +71174,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ337">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR337">
         <v>1.66</v>
@@ -71290,7 +71299,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71496,7 +71505,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72114,7 +72123,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72192,7 +72201,7 @@
         <v>1.47</v>
       </c>
       <c r="AP342">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ342">
         <v>1.42</v>
@@ -73019,7 +73028,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ346">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR346">
         <v>1.35</v>
@@ -73350,7 +73359,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73762,7 +73771,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74174,7 +74183,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74380,7 +74389,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75204,7 +75213,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75694,7 +75703,7 @@
         <v>1.63</v>
       </c>
       <c r="AP359">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ359">
         <v>1.42</v>
@@ -75822,7 +75831,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76234,7 +76243,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76315,7 +76324,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ362">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR362">
         <v>1.26</v>
@@ -76440,7 +76449,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76852,7 +76861,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -76930,7 +76939,7 @@
         <v>1</v>
       </c>
       <c r="AP365">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ365">
         <v>0.95</v>
@@ -77058,7 +77067,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77676,7 +77685,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -78993,7 +79002,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ375">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR375">
         <v>1.7</v>
@@ -79118,7 +79127,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79324,7 +79333,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79736,7 +79745,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80023,7 +80032,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ380">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR380">
         <v>1.6</v>
@@ -80148,7 +80157,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80354,7 +80363,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80560,7 +80569,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80766,7 +80775,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -80847,7 +80856,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ384">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR384">
         <v>1.56</v>
@@ -81050,7 +81059,7 @@
         <v>0.47</v>
       </c>
       <c r="AP385">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ385">
         <v>0.42</v>
@@ -81668,7 +81677,7 @@
         <v>1.22</v>
       </c>
       <c r="AP388">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ388">
         <v>1.16</v>
@@ -82002,7 +82011,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82208,7 +82217,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82414,7 +82423,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82620,7 +82629,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83032,7 +83041,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83444,7 +83453,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -83731,7 +83740,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ398">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR398">
         <v>1.48</v>
@@ -84474,7 +84483,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84680,7 +84689,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -85668,7 +85677,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>7728612</v>
+        <v>7728593</v>
       </c>
       <c r="C408" t="s">
         <v>68</v>
@@ -85677,196 +85686,196 @@
         <v>69</v>
       </c>
       <c r="E408" s="2">
-        <v>45779.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="F408">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G408" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H408" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J408">
         <v>0</v>
       </c>
       <c r="K408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N408">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O408" t="s">
         <v>344</v>
       </c>
       <c r="P408" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="Q408">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R408">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S408">
+        <v>9.5</v>
+      </c>
+      <c r="T408">
+        <v>1.33</v>
+      </c>
+      <c r="U408">
+        <v>3.25</v>
+      </c>
+      <c r="V408">
+        <v>2.63</v>
+      </c>
+      <c r="W408">
+        <v>1.44</v>
+      </c>
+      <c r="X408">
+        <v>6.5</v>
+      </c>
+      <c r="Y408">
+        <v>1.11</v>
+      </c>
+      <c r="Z408">
+        <v>1.3</v>
+      </c>
+      <c r="AA408">
+        <v>5.7</v>
+      </c>
+      <c r="AB408">
+        <v>11</v>
+      </c>
+      <c r="AC408">
+        <v>1.03</v>
+      </c>
+      <c r="AD408">
+        <v>12</v>
+      </c>
+      <c r="AE408">
+        <v>1.21</v>
+      </c>
+      <c r="AF408">
         <v>4</v>
       </c>
-      <c r="T408">
-        <v>1.44</v>
-      </c>
-      <c r="U408">
-        <v>2.63</v>
-      </c>
-      <c r="V408">
-        <v>3.25</v>
-      </c>
-      <c r="W408">
-        <v>1.33</v>
-      </c>
-      <c r="X408">
-        <v>10</v>
-      </c>
-      <c r="Y408">
-        <v>1.06</v>
-      </c>
-      <c r="Z408">
-        <v>2.17</v>
-      </c>
-      <c r="AA408">
-        <v>3.32</v>
-      </c>
-      <c r="AB408">
-        <v>3.67</v>
-      </c>
-      <c r="AC408">
-        <v>1.08</v>
-      </c>
-      <c r="AD408">
-        <v>7.5</v>
-      </c>
-      <c r="AE408">
-        <v>1.4</v>
-      </c>
-      <c r="AF408">
-        <v>2.9</v>
-      </c>
       <c r="AG408">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AH408">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AI408">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AJ408">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK408">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="AL408">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AM408">
-        <v>1.68</v>
+        <v>3.6</v>
       </c>
       <c r="AN408">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO408">
-        <v>1.17</v>
+        <v>0.72</v>
       </c>
       <c r="AP408">
-        <v>1.63</v>
+        <v>2.11</v>
       </c>
       <c r="AQ408">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="AR408">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AS408">
-        <v>1.3</v>
+        <v>0.96</v>
       </c>
       <c r="AT408">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="AU408">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV408">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW408">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX408">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY408">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AZ408">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BA408">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB408">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC408">
         <v>12</v>
       </c>
       <c r="BD408">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="BE408">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF408">
-        <v>2.65</v>
+        <v>5.75</v>
       </c>
       <c r="BG408">
+        <v>1.23</v>
+      </c>
+      <c r="BH408">
+        <v>3.6</v>
+      </c>
+      <c r="BI408">
         <v>1.43</v>
       </c>
-      <c r="BH408">
-        <v>2.55</v>
-      </c>
-      <c r="BI408">
-        <v>1.71</v>
-      </c>
       <c r="BJ408">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="BK408">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="BL408">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BM408">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BN408">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="BO408">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="BP408">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="409" spans="1:68">
@@ -85874,7 +85883,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>7728609</v>
+        <v>7728612</v>
       </c>
       <c r="C409" t="s">
         <v>68</v>
@@ -85883,196 +85892,196 @@
         <v>69</v>
       </c>
       <c r="E409" s="2">
-        <v>45780.46875</v>
+        <v>45779.64583333334</v>
       </c>
       <c r="F409">
         <v>38</v>
       </c>
       <c r="G409" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H409" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L409">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M409">
         <v>2</v>
       </c>
       <c r="N409">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O409" t="s">
         <v>345</v>
       </c>
       <c r="P409" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q409">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R409">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S409">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T409">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="U409">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="V409">
+        <v>3.25</v>
+      </c>
+      <c r="W409">
+        <v>1.33</v>
+      </c>
+      <c r="X409">
+        <v>10</v>
+      </c>
+      <c r="Y409">
+        <v>1.06</v>
+      </c>
+      <c r="Z409">
+        <v>2.17</v>
+      </c>
+      <c r="AA409">
+        <v>3.32</v>
+      </c>
+      <c r="AB409">
+        <v>3.67</v>
+      </c>
+      <c r="AC409">
+        <v>1.08</v>
+      </c>
+      <c r="AD409">
+        <v>7.5</v>
+      </c>
+      <c r="AE409">
+        <v>1.4</v>
+      </c>
+      <c r="AF409">
+        <v>2.9</v>
+      </c>
+      <c r="AG409">
+        <v>1.98</v>
+      </c>
+      <c r="AH409">
+        <v>1.77</v>
+      </c>
+      <c r="AI409">
+        <v>1.91</v>
+      </c>
+      <c r="AJ409">
+        <v>1.8</v>
+      </c>
+      <c r="AK409">
+        <v>1.29</v>
+      </c>
+      <c r="AL409">
+        <v>1.33</v>
+      </c>
+      <c r="AM409">
+        <v>1.68</v>
+      </c>
+      <c r="AN409">
+        <v>1.56</v>
+      </c>
+      <c r="AO409">
+        <v>1.17</v>
+      </c>
+      <c r="AP409">
+        <v>1.63</v>
+      </c>
+      <c r="AQ409">
+        <v>1.11</v>
+      </c>
+      <c r="AR409">
+        <v>1.78</v>
+      </c>
+      <c r="AS409">
+        <v>1.3</v>
+      </c>
+      <c r="AT409">
+        <v>3.08</v>
+      </c>
+      <c r="AU409">
+        <v>11</v>
+      </c>
+      <c r="AV409">
+        <v>3</v>
+      </c>
+      <c r="AW409">
+        <v>15</v>
+      </c>
+      <c r="AX409">
         <v>4</v>
       </c>
-      <c r="W409">
-        <v>1.22</v>
-      </c>
-      <c r="X409">
-        <v>13</v>
-      </c>
-      <c r="Y409">
-        <v>1.04</v>
-      </c>
-      <c r="Z409">
-        <v>2.96</v>
-      </c>
-      <c r="AA409">
-        <v>2.83</v>
-      </c>
-      <c r="AB409">
-        <v>2.91</v>
-      </c>
-      <c r="AC409">
-        <v>1.13</v>
-      </c>
-      <c r="AD409">
-        <v>5.75</v>
-      </c>
-      <c r="AE409">
-        <v>1.55</v>
-      </c>
-      <c r="AF409">
-        <v>2.2</v>
-      </c>
-      <c r="AG409">
-        <v>2.94</v>
-      </c>
-      <c r="AH409">
-        <v>1.35</v>
-      </c>
-      <c r="AI409">
-        <v>2.25</v>
-      </c>
-      <c r="AJ409">
-        <v>1.57</v>
-      </c>
-      <c r="AK409">
-        <v>1.43</v>
-      </c>
-      <c r="AL409">
-        <v>1.4</v>
-      </c>
-      <c r="AM409">
-        <v>1.41</v>
-      </c>
-      <c r="AN409">
-        <v>1.94</v>
-      </c>
-      <c r="AO409">
-        <v>1.28</v>
-      </c>
-      <c r="AP409">
-        <v>1.84</v>
-      </c>
-      <c r="AQ409">
-        <v>1.37</v>
-      </c>
-      <c r="AR409">
-        <v>1.31</v>
-      </c>
-      <c r="AS409">
-        <v>1.29</v>
-      </c>
-      <c r="AT409">
-        <v>2.6</v>
-      </c>
-      <c r="AU409">
-        <v>4</v>
-      </c>
-      <c r="AV409">
-        <v>8</v>
-      </c>
-      <c r="AW409">
-        <v>5</v>
-      </c>
-      <c r="AX409">
-        <v>6</v>
-      </c>
       <c r="AY409">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AZ409">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA409">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB409">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC409">
         <v>12</v>
       </c>
       <c r="BD409">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="BE409">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF409">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BG409">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="BH409">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="BI409">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="BJ409">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="BK409">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BL409">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BM409">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BN409">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BO409">
-        <v>3.38</v>
+        <v>3.55</v>
       </c>
       <c r="BP409">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="410" spans="1:68">
@@ -86080,7 +86089,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>7728846</v>
+        <v>7728609</v>
       </c>
       <c r="C410" t="s">
         <v>68</v>
@@ -86089,22 +86098,22 @@
         <v>69</v>
       </c>
       <c r="E410" s="2">
-        <v>45780.5625</v>
+        <v>45780.46875</v>
       </c>
       <c r="F410">
         <v>38</v>
       </c>
       <c r="G410" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H410" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K410">
         <v>1</v>
@@ -86113,172 +86122,172 @@
         <v>1</v>
       </c>
       <c r="M410">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N410">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O410" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="P410" t="s">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="Q410">
+        <v>3.75</v>
+      </c>
+      <c r="R410">
+        <v>1.83</v>
+      </c>
+      <c r="S410">
         <v>3.6</v>
       </c>
-      <c r="R410">
-        <v>2</v>
-      </c>
-      <c r="S410">
-        <v>3.25</v>
-      </c>
       <c r="T410">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U410">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V410">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="W410">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X410">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y410">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z410">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AA410">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="AB410">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="AC410">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AD410">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AE410">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AF410">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AG410">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="AH410">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AI410">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AJ410">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK410">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AL410">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AM410">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AN410">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="AO410">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AP410">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="AQ410">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AR410">
         <v>1.31</v>
       </c>
       <c r="AS410">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AT410">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AU410">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV410">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW410">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX410">
         <v>6</v>
       </c>
       <c r="AY410">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AZ410">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA410">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB410">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC410">
         <v>12</v>
       </c>
       <c r="BD410">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BE410">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF410">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="BG410">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH410">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="BI410">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BJ410">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BK410">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="BL410">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BM410">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BN410">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="BO410">
-        <v>2.9</v>
+        <v>3.38</v>
       </c>
       <c r="BP410">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="411" spans="1:68">
@@ -86286,7 +86295,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>7728607</v>
+        <v>7728846</v>
       </c>
       <c r="C411" t="s">
         <v>68</v>
@@ -86301,190 +86310,190 @@
         <v>38</v>
       </c>
       <c r="G411" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H411" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J411">
         <v>0</v>
       </c>
       <c r="K411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N411">
         <v>1</v>
       </c>
       <c r="O411" t="s">
+        <v>147</v>
+      </c>
+      <c r="P411" t="s">
         <v>94</v>
       </c>
-      <c r="P411" t="s">
-        <v>197</v>
-      </c>
       <c r="Q411">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R411">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S411">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T411">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U411">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V411">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W411">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X411">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y411">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z411">
-        <v>2.37</v>
+        <v>2.98</v>
       </c>
       <c r="AA411">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AB411">
-        <v>3.51</v>
+        <v>2.63</v>
       </c>
       <c r="AC411">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AD411">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AE411">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AF411">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="AG411">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="AH411">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AI411">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ411">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK411">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AL411">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AM411">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="AN411">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO411">
-        <v>0.89</v>
+        <v>1.39</v>
       </c>
       <c r="AP411">
         <v>1.74</v>
       </c>
       <c r="AQ411">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AR411">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AS411">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT411">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="AU411">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV411">
+        <v>2</v>
+      </c>
+      <c r="AW411">
+        <v>11</v>
+      </c>
+      <c r="AX411">
+        <v>6</v>
+      </c>
+      <c r="AY411">
+        <v>21</v>
+      </c>
+      <c r="AZ411">
+        <v>10</v>
+      </c>
+      <c r="BA411">
+        <v>8</v>
+      </c>
+      <c r="BB411">
         <v>4</v>
-      </c>
-      <c r="AW411">
-        <v>8</v>
-      </c>
-      <c r="AX411">
-        <v>8</v>
-      </c>
-      <c r="AY411">
-        <v>13</v>
-      </c>
-      <c r="AZ411">
-        <v>16</v>
-      </c>
-      <c r="BA411">
-        <v>7</v>
-      </c>
-      <c r="BB411">
-        <v>5</v>
       </c>
       <c r="BC411">
         <v>12</v>
       </c>
       <c r="BD411">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="BE411">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF411">
-        <v>2.65</v>
+        <v>2.07</v>
       </c>
       <c r="BG411">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BH411">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="BI411">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="BJ411">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="BK411">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="BL411">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BM411">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="BN411">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="BO411">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP411">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="412" spans="1:68">
@@ -86492,7 +86501,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>7728604</v>
+        <v>7728607</v>
       </c>
       <c r="C412" t="s">
         <v>68</v>
@@ -86501,16 +86510,16 @@
         <v>69</v>
       </c>
       <c r="E412" s="2">
-        <v>45780.66666666666</v>
+        <v>45780.5625</v>
       </c>
       <c r="F412">
         <v>38</v>
       </c>
       <c r="G412" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H412" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I412">
         <v>0</v>
@@ -86534,16 +86543,16 @@
         <v>94</v>
       </c>
       <c r="P412" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="Q412">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R412">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S412">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="T412">
         <v>1.57</v>
@@ -86564,13 +86573,13 @@
         <v>1.05</v>
       </c>
       <c r="Z412">
-        <v>3.47</v>
+        <v>2.37</v>
       </c>
       <c r="AA412">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AB412">
-        <v>2.38</v>
+        <v>3.51</v>
       </c>
       <c r="AC412">
         <v>1.11</v>
@@ -86585,10 +86594,10 @@
         <v>2.3</v>
       </c>
       <c r="AG412">
-        <v>2.99</v>
+        <v>2.55</v>
       </c>
       <c r="AH412">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AI412">
         <v>2.2</v>
@@ -86597,100 +86606,100 @@
         <v>1.62</v>
       </c>
       <c r="AK412">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AL412">
         <v>1.36</v>
       </c>
       <c r="AM412">
-        <v>1.32</v>
+        <v>1.66</v>
       </c>
       <c r="AN412">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AO412">
-        <v>1.28</v>
+        <v>0.89</v>
       </c>
       <c r="AP412">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AQ412">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AR412">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AS412">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT412">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU412">
+        <v>2</v>
+      </c>
+      <c r="AV412">
         <v>4</v>
       </c>
-      <c r="AV412">
-        <v>6</v>
-      </c>
       <c r="AW412">
+        <v>8</v>
+      </c>
+      <c r="AX412">
+        <v>8</v>
+      </c>
+      <c r="AY412">
+        <v>13</v>
+      </c>
+      <c r="AZ412">
+        <v>16</v>
+      </c>
+      <c r="BA412">
+        <v>7</v>
+      </c>
+      <c r="BB412">
         <v>5</v>
       </c>
-      <c r="AX412">
-        <v>3</v>
-      </c>
-      <c r="AY412">
-        <v>10</v>
-      </c>
-      <c r="AZ412">
-        <v>11</v>
-      </c>
-      <c r="BA412">
-        <v>6</v>
-      </c>
-      <c r="BB412">
-        <v>4</v>
-      </c>
       <c r="BC412">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD412">
-        <v>2.23</v>
+        <v>1.57</v>
       </c>
       <c r="BE412">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF412">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="BG412">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="BH412">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="BI412">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="BJ412">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="BK412">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="BL412">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="BM412">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BN412">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="BO412">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BP412">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="413" spans="1:68">
@@ -86698,7 +86707,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>7728610</v>
+        <v>7728604</v>
       </c>
       <c r="C413" t="s">
         <v>68</v>
@@ -86707,196 +86716,196 @@
         <v>69</v>
       </c>
       <c r="E413" s="2">
-        <v>45781.375</v>
+        <v>45780.66666666666</v>
       </c>
       <c r="F413">
         <v>38</v>
       </c>
       <c r="G413" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H413" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I413">
         <v>0</v>
       </c>
       <c r="J413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M413">
         <v>1</v>
       </c>
       <c r="N413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O413" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="P413" t="s">
-        <v>478</v>
+        <v>224</v>
       </c>
       <c r="Q413">
+        <v>4</v>
+      </c>
+      <c r="R413">
+        <v>1.91</v>
+      </c>
+      <c r="S413">
+        <v>3.2</v>
+      </c>
+      <c r="T413">
+        <v>1.57</v>
+      </c>
+      <c r="U413">
+        <v>2.25</v>
+      </c>
+      <c r="V413">
+        <v>3.75</v>
+      </c>
+      <c r="W413">
+        <v>1.25</v>
+      </c>
+      <c r="X413">
+        <v>11</v>
+      </c>
+      <c r="Y413">
+        <v>1.05</v>
+      </c>
+      <c r="Z413">
+        <v>3.47</v>
+      </c>
+      <c r="AA413">
+        <v>3.07</v>
+      </c>
+      <c r="AB413">
+        <v>2.38</v>
+      </c>
+      <c r="AC413">
+        <v>1.11</v>
+      </c>
+      <c r="AD413">
+        <v>6.25</v>
+      </c>
+      <c r="AE413">
+        <v>1.5</v>
+      </c>
+      <c r="AF413">
         <v>2.3</v>
       </c>
-      <c r="R413">
+      <c r="AG413">
+        <v>2.99</v>
+      </c>
+      <c r="AH413">
+        <v>1.34</v>
+      </c>
+      <c r="AI413">
         <v>2.2</v>
       </c>
-      <c r="S413">
+      <c r="AJ413">
+        <v>1.62</v>
+      </c>
+      <c r="AK413">
+        <v>1.58</v>
+      </c>
+      <c r="AL413">
+        <v>1.36</v>
+      </c>
+      <c r="AM413">
+        <v>1.32</v>
+      </c>
+      <c r="AN413">
+        <v>1.72</v>
+      </c>
+      <c r="AO413">
+        <v>1.28</v>
+      </c>
+      <c r="AP413">
+        <v>1.63</v>
+      </c>
+      <c r="AQ413">
+        <v>1.37</v>
+      </c>
+      <c r="AR413">
+        <v>1.35</v>
+      </c>
+      <c r="AS413">
+        <v>1.29</v>
+      </c>
+      <c r="AT413">
+        <v>2.64</v>
+      </c>
+      <c r="AU413">
+        <v>4</v>
+      </c>
+      <c r="AV413">
+        <v>6</v>
+      </c>
+      <c r="AW413">
         <v>5</v>
       </c>
-      <c r="T413">
-        <v>1.4</v>
-      </c>
-      <c r="U413">
+      <c r="AX413">
+        <v>3</v>
+      </c>
+      <c r="AY413">
+        <v>10</v>
+      </c>
+      <c r="AZ413">
+        <v>11</v>
+      </c>
+      <c r="BA413">
+        <v>6</v>
+      </c>
+      <c r="BB413">
+        <v>4</v>
+      </c>
+      <c r="BC413">
+        <v>10</v>
+      </c>
+      <c r="BD413">
+        <v>2.23</v>
+      </c>
+      <c r="BE413">
+        <v>6.25</v>
+      </c>
+      <c r="BF413">
+        <v>1.79</v>
+      </c>
+      <c r="BG413">
+        <v>1.39</v>
+      </c>
+      <c r="BH413">
         <v>2.75</v>
       </c>
-      <c r="V413">
-        <v>2.75</v>
-      </c>
-      <c r="W413">
-        <v>1.4</v>
-      </c>
-      <c r="X413">
-        <v>8</v>
-      </c>
-      <c r="Y413">
-        <v>1.08</v>
-      </c>
-      <c r="Z413">
-        <v>1.7</v>
-      </c>
-      <c r="AA413">
-        <v>3.98</v>
-      </c>
-      <c r="AB413">
-        <v>5.1</v>
-      </c>
-      <c r="AC413">
-        <v>1</v>
-      </c>
-      <c r="AD413">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AE413">
-        <v>1.31</v>
-      </c>
-      <c r="AF413">
-        <v>3.4</v>
-      </c>
-      <c r="AG413">
-        <v>1.89</v>
-      </c>
-      <c r="AH413">
-        <v>1.92</v>
-      </c>
-      <c r="AI413">
-        <v>1.83</v>
-      </c>
-      <c r="AJ413">
-        <v>1.83</v>
-      </c>
-      <c r="AK413">
-        <v>1.17</v>
-      </c>
-      <c r="AL413">
-        <v>1.25</v>
-      </c>
-      <c r="AM413">
-        <v>2.15</v>
-      </c>
-      <c r="AN413">
-        <v>2.17</v>
-      </c>
-      <c r="AO413">
-        <v>0.39</v>
-      </c>
-      <c r="AP413">
+      <c r="BI413">
+        <v>1.68</v>
+      </c>
+      <c r="BJ413">
         <v>2.11</v>
       </c>
-      <c r="AQ413">
-        <v>0.42</v>
-      </c>
-      <c r="AR413">
-        <v>1.71</v>
-      </c>
-      <c r="AS413">
-        <v>1.18</v>
-      </c>
-      <c r="AT413">
-        <v>2.89</v>
-      </c>
-      <c r="AU413">
-        <v>3</v>
-      </c>
-      <c r="AV413">
-        <v>3</v>
-      </c>
-      <c r="AW413">
-        <v>10</v>
-      </c>
-      <c r="AX413">
-        <v>7</v>
-      </c>
-      <c r="AY413">
-        <v>15</v>
-      </c>
-      <c r="AZ413">
-        <v>13</v>
-      </c>
-      <c r="BA413">
-        <v>3</v>
-      </c>
-      <c r="BB413">
-        <v>1</v>
-      </c>
-      <c r="BC413">
-        <v>4</v>
-      </c>
-      <c r="BD413">
-        <v>1.35</v>
-      </c>
-      <c r="BE413">
-        <v>7.5</v>
-      </c>
-      <c r="BF413">
+      <c r="BK413">
+        <v>2.1</v>
+      </c>
+      <c r="BL413">
+        <v>1.69</v>
+      </c>
+      <c r="BM413">
+        <v>2.65</v>
+      </c>
+      <c r="BN413">
+        <v>1.42</v>
+      </c>
+      <c r="BO413">
         <v>3.55</v>
       </c>
-      <c r="BG413">
-        <v>1.33</v>
-      </c>
-      <c r="BH413">
-        <v>2.95</v>
-      </c>
-      <c r="BI413">
-        <v>1.56</v>
-      </c>
-      <c r="BJ413">
-        <v>2.23</v>
-      </c>
-      <c r="BK413">
-        <v>1.9</v>
-      </c>
-      <c r="BL413">
-        <v>1.76</v>
-      </c>
-      <c r="BM413">
-        <v>2.38</v>
-      </c>
-      <c r="BN413">
-        <v>1.49</v>
-      </c>
-      <c r="BO413">
-        <v>3.05</v>
-      </c>
       <c r="BP413">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="414" spans="1:68">
@@ -86904,7 +86913,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>7728608</v>
+        <v>7728610</v>
       </c>
       <c r="C414" t="s">
         <v>68</v>
@@ -86913,16 +86922,16 @@
         <v>69</v>
       </c>
       <c r="E414" s="2">
-        <v>45781.46875</v>
+        <v>45781.375</v>
       </c>
       <c r="F414">
         <v>38</v>
       </c>
       <c r="G414" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H414" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I414">
         <v>0</v>
@@ -86937,172 +86946,172 @@
         <v>1</v>
       </c>
       <c r="M414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N414">
+        <v>2</v>
+      </c>
+      <c r="O414" t="s">
+        <v>244</v>
+      </c>
+      <c r="P414" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q414">
+        <v>2.3</v>
+      </c>
+      <c r="R414">
+        <v>2.2</v>
+      </c>
+      <c r="S414">
+        <v>5</v>
+      </c>
+      <c r="T414">
+        <v>1.4</v>
+      </c>
+      <c r="U414">
+        <v>2.75</v>
+      </c>
+      <c r="V414">
+        <v>2.75</v>
+      </c>
+      <c r="W414">
+        <v>1.4</v>
+      </c>
+      <c r="X414">
+        <v>8</v>
+      </c>
+      <c r="Y414">
+        <v>1.08</v>
+      </c>
+      <c r="Z414">
+        <v>1.7</v>
+      </c>
+      <c r="AA414">
+        <v>3.98</v>
+      </c>
+      <c r="AB414">
+        <v>5.1</v>
+      </c>
+      <c r="AC414">
+        <v>1</v>
+      </c>
+      <c r="AD414">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE414">
+        <v>1.31</v>
+      </c>
+      <c r="AF414">
+        <v>3.4</v>
+      </c>
+      <c r="AG414">
+        <v>1.89</v>
+      </c>
+      <c r="AH414">
+        <v>1.92</v>
+      </c>
+      <c r="AI414">
+        <v>1.83</v>
+      </c>
+      <c r="AJ414">
+        <v>1.83</v>
+      </c>
+      <c r="AK414">
+        <v>1.17</v>
+      </c>
+      <c r="AL414">
+        <v>1.25</v>
+      </c>
+      <c r="AM414">
+        <v>2.15</v>
+      </c>
+      <c r="AN414">
+        <v>2.17</v>
+      </c>
+      <c r="AO414">
+        <v>0.39</v>
+      </c>
+      <c r="AP414">
+        <v>2.11</v>
+      </c>
+      <c r="AQ414">
+        <v>0.42</v>
+      </c>
+      <c r="AR414">
+        <v>1.71</v>
+      </c>
+      <c r="AS414">
+        <v>1.18</v>
+      </c>
+      <c r="AT414">
+        <v>2.89</v>
+      </c>
+      <c r="AU414">
         <v>3</v>
       </c>
-      <c r="O414" t="s">
-        <v>290</v>
-      </c>
-      <c r="P414" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q414">
-        <v>4.5</v>
-      </c>
-      <c r="R414">
-        <v>2.05</v>
-      </c>
-      <c r="S414">
-        <v>2.75</v>
-      </c>
-      <c r="T414">
-        <v>1.5</v>
-      </c>
-      <c r="U414">
-        <v>2.5</v>
-      </c>
-      <c r="V414">
-        <v>3.4</v>
-      </c>
-      <c r="W414">
+      <c r="AV414">
+        <v>3</v>
+      </c>
+      <c r="AW414">
+        <v>10</v>
+      </c>
+      <c r="AX414">
+        <v>7</v>
+      </c>
+      <c r="AY414">
+        <v>15</v>
+      </c>
+      <c r="AZ414">
+        <v>13</v>
+      </c>
+      <c r="BA414">
+        <v>3</v>
+      </c>
+      <c r="BB414">
+        <v>1</v>
+      </c>
+      <c r="BC414">
+        <v>4</v>
+      </c>
+      <c r="BD414">
+        <v>1.35</v>
+      </c>
+      <c r="BE414">
+        <v>7.5</v>
+      </c>
+      <c r="BF414">
+        <v>3.55</v>
+      </c>
+      <c r="BG414">
+        <v>1.33</v>
+      </c>
+      <c r="BH414">
+        <v>2.95</v>
+      </c>
+      <c r="BI414">
+        <v>1.56</v>
+      </c>
+      <c r="BJ414">
+        <v>2.23</v>
+      </c>
+      <c r="BK414">
+        <v>1.9</v>
+      </c>
+      <c r="BL414">
+        <v>1.76</v>
+      </c>
+      <c r="BM414">
+        <v>2.38</v>
+      </c>
+      <c r="BN414">
+        <v>1.49</v>
+      </c>
+      <c r="BO414">
+        <v>3.05</v>
+      </c>
+      <c r="BP414">
         <v>1.3</v>
-      </c>
-      <c r="X414">
-        <v>10</v>
-      </c>
-      <c r="Y414">
-        <v>1.06</v>
-      </c>
-      <c r="Z414">
-        <v>3.93</v>
-      </c>
-      <c r="AA414">
-        <v>3.71</v>
-      </c>
-      <c r="AB414">
-        <v>1.96</v>
-      </c>
-      <c r="AC414">
-        <v>1.08</v>
-      </c>
-      <c r="AD414">
-        <v>7.5</v>
-      </c>
-      <c r="AE414">
-        <v>1.42</v>
-      </c>
-      <c r="AF414">
-        <v>2.8</v>
-      </c>
-      <c r="AG414">
-        <v>2.01</v>
-      </c>
-      <c r="AH414">
-        <v>1.81</v>
-      </c>
-      <c r="AI414">
-        <v>2.1</v>
-      </c>
-      <c r="AJ414">
-        <v>1.67</v>
-      </c>
-      <c r="AK414">
-        <v>1.73</v>
-      </c>
-      <c r="AL414">
-        <v>1.32</v>
-      </c>
-      <c r="AM414">
-        <v>1.27</v>
-      </c>
-      <c r="AN414">
-        <v>0.72</v>
-      </c>
-      <c r="AO414">
-        <v>1.11</v>
-      </c>
-      <c r="AP414">
-        <v>0.68</v>
-      </c>
-      <c r="AQ414">
-        <v>1.21</v>
-      </c>
-      <c r="AR414">
-        <v>1.21</v>
-      </c>
-      <c r="AS414">
-        <v>1.37</v>
-      </c>
-      <c r="AT414">
-        <v>2.58</v>
-      </c>
-      <c r="AU414">
-        <v>4</v>
-      </c>
-      <c r="AV414">
-        <v>8</v>
-      </c>
-      <c r="AW414">
-        <v>11</v>
-      </c>
-      <c r="AX414">
-        <v>4</v>
-      </c>
-      <c r="AY414">
-        <v>17</v>
-      </c>
-      <c r="AZ414">
-        <v>14</v>
-      </c>
-      <c r="BA414">
-        <v>5</v>
-      </c>
-      <c r="BB414">
-        <v>3</v>
-      </c>
-      <c r="BC414">
-        <v>8</v>
-      </c>
-      <c r="BD414">
-        <v>2.02</v>
-      </c>
-      <c r="BE414">
-        <v>6.4</v>
-      </c>
-      <c r="BF414">
-        <v>1.96</v>
-      </c>
-      <c r="BG414">
-        <v>1.4</v>
-      </c>
-      <c r="BH414">
-        <v>2.65</v>
-      </c>
-      <c r="BI414">
-        <v>1.68</v>
-      </c>
-      <c r="BJ414">
-        <v>2</v>
-      </c>
-      <c r="BK414">
-        <v>2.1</v>
-      </c>
-      <c r="BL414">
-        <v>1.62</v>
-      </c>
-      <c r="BM414">
-        <v>2.7</v>
-      </c>
-      <c r="BN414">
-        <v>1.38</v>
-      </c>
-      <c r="BO414">
-        <v>3.55</v>
-      </c>
-      <c r="BP414">
-        <v>1.23</v>
       </c>
     </row>
     <row r="415" spans="1:68">
@@ -87110,7 +87119,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>7728603</v>
+        <v>7728608</v>
       </c>
       <c r="C415" t="s">
         <v>68</v>
@@ -87119,196 +87128,196 @@
         <v>69</v>
       </c>
       <c r="E415" s="2">
-        <v>45781.5625</v>
+        <v>45781.46875</v>
       </c>
       <c r="F415">
         <v>38</v>
       </c>
       <c r="G415" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H415" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I415">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415">
+        <v>2</v>
+      </c>
+      <c r="N415">
+        <v>3</v>
+      </c>
+      <c r="O415" t="s">
+        <v>290</v>
+      </c>
+      <c r="P415" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q415">
+        <v>4.5</v>
+      </c>
+      <c r="R415">
+        <v>2.05</v>
+      </c>
+      <c r="S415">
+        <v>2.75</v>
+      </c>
+      <c r="T415">
+        <v>1.5</v>
+      </c>
+      <c r="U415">
+        <v>2.5</v>
+      </c>
+      <c r="V415">
+        <v>3.4</v>
+      </c>
+      <c r="W415">
+        <v>1.3</v>
+      </c>
+      <c r="X415">
+        <v>10</v>
+      </c>
+      <c r="Y415">
+        <v>1.06</v>
+      </c>
+      <c r="Z415">
+        <v>3.93</v>
+      </c>
+      <c r="AA415">
+        <v>3.71</v>
+      </c>
+      <c r="AB415">
+        <v>1.96</v>
+      </c>
+      <c r="AC415">
+        <v>1.08</v>
+      </c>
+      <c r="AD415">
+        <v>7.5</v>
+      </c>
+      <c r="AE415">
+        <v>1.42</v>
+      </c>
+      <c r="AF415">
+        <v>2.8</v>
+      </c>
+      <c r="AG415">
+        <v>2.01</v>
+      </c>
+      <c r="AH415">
+        <v>1.81</v>
+      </c>
+      <c r="AI415">
+        <v>2.1</v>
+      </c>
+      <c r="AJ415">
+        <v>1.67</v>
+      </c>
+      <c r="AK415">
+        <v>1.73</v>
+      </c>
+      <c r="AL415">
+        <v>1.32</v>
+      </c>
+      <c r="AM415">
+        <v>1.27</v>
+      </c>
+      <c r="AN415">
+        <v>0.72</v>
+      </c>
+      <c r="AO415">
+        <v>1.11</v>
+      </c>
+      <c r="AP415">
+        <v>0.68</v>
+      </c>
+      <c r="AQ415">
+        <v>1.21</v>
+      </c>
+      <c r="AR415">
+        <v>1.21</v>
+      </c>
+      <c r="AS415">
+        <v>1.37</v>
+      </c>
+      <c r="AT415">
+        <v>2.58</v>
+      </c>
+      <c r="AU415">
+        <v>4</v>
+      </c>
+      <c r="AV415">
+        <v>8</v>
+      </c>
+      <c r="AW415">
+        <v>11</v>
+      </c>
+      <c r="AX415">
+        <v>4</v>
+      </c>
+      <c r="AY415">
+        <v>17</v>
+      </c>
+      <c r="AZ415">
+        <v>14</v>
+      </c>
+      <c r="BA415">
         <v>5</v>
       </c>
-      <c r="M415">
-        <v>0</v>
-      </c>
-      <c r="N415">
-        <v>5</v>
-      </c>
-      <c r="O415" t="s">
-        <v>346</v>
-      </c>
-      <c r="P415" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q415">
-        <v>2.05</v>
-      </c>
-      <c r="R415">
-        <v>2.38</v>
-      </c>
-      <c r="S415">
-        <v>6</v>
-      </c>
-      <c r="T415">
-        <v>1.36</v>
-      </c>
-      <c r="U415">
+      <c r="BB415">
         <v>3</v>
       </c>
-      <c r="V415">
-        <v>2.63</v>
-      </c>
-      <c r="W415">
-        <v>1.44</v>
-      </c>
-      <c r="X415">
-        <v>7</v>
-      </c>
-      <c r="Y415">
-        <v>1.1</v>
-      </c>
-      <c r="Z415">
-        <v>1.79</v>
-      </c>
-      <c r="AA415">
-        <v>3.61</v>
-      </c>
-      <c r="AB415">
-        <v>5</v>
-      </c>
-      <c r="AC415">
-        <v>1.05</v>
-      </c>
-      <c r="AD415">
-        <v>9.5</v>
-      </c>
-      <c r="AE415">
-        <v>1.25</v>
-      </c>
-      <c r="AF415">
-        <v>3.75</v>
-      </c>
-      <c r="AG415">
+      <c r="BC415">
+        <v>8</v>
+      </c>
+      <c r="BD415">
+        <v>2.02</v>
+      </c>
+      <c r="BE415">
+        <v>6.4</v>
+      </c>
+      <c r="BF415">
         <v>1.96</v>
       </c>
-      <c r="AH415">
-        <v>1.85</v>
-      </c>
-      <c r="AI415">
-        <v>1.83</v>
-      </c>
-      <c r="AJ415">
-        <v>1.83</v>
-      </c>
-      <c r="AK415">
-        <v>1.15</v>
-      </c>
-      <c r="AL415">
-        <v>1.22</v>
-      </c>
-      <c r="AM415">
-        <v>2.35</v>
-      </c>
-      <c r="AN415">
-        <v>2</v>
-      </c>
-      <c r="AO415">
-        <v>1.06</v>
-      </c>
-      <c r="AP415">
-        <v>2.06</v>
-      </c>
-      <c r="AQ415">
-        <v>1</v>
-      </c>
-      <c r="AR415">
-        <v>1.81</v>
-      </c>
-      <c r="AS415">
-        <v>1.19</v>
-      </c>
-      <c r="AT415">
-        <v>3</v>
-      </c>
-      <c r="AU415">
-        <v>11</v>
-      </c>
-      <c r="AV415">
-        <v>3</v>
-      </c>
-      <c r="AW415">
-        <v>12</v>
-      </c>
-      <c r="AX415">
-        <v>10</v>
-      </c>
-      <c r="AY415">
-        <v>27</v>
-      </c>
-      <c r="AZ415">
-        <v>13</v>
-      </c>
-      <c r="BA415">
-        <v>4</v>
-      </c>
-      <c r="BB415">
-        <v>7</v>
-      </c>
-      <c r="BC415">
-        <v>11</v>
-      </c>
-      <c r="BD415">
+      <c r="BG415">
         <v>1.4</v>
       </c>
-      <c r="BE415">
-        <v>7</v>
-      </c>
-      <c r="BF415">
-        <v>3.3</v>
-      </c>
-      <c r="BG415">
-        <v>1.34</v>
-      </c>
       <c r="BH415">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI415">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BJ415">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="BK415">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BL415">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="BM415">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BN415">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BO415">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BP415">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="416" spans="1:68">
@@ -87316,7 +87325,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>7728605</v>
+        <v>7728603</v>
       </c>
       <c r="C416" t="s">
         <v>68</v>
@@ -87331,28 +87340,28 @@
         <v>38</v>
       </c>
       <c r="G416" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H416" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J416">
         <v>0</v>
       </c>
       <c r="K416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L416">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M416">
         <v>0</v>
       </c>
       <c r="N416">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O416" t="s">
         <v>347</v>
@@ -87361,58 +87370,58 @@
         <v>94</v>
       </c>
       <c r="Q416">
+        <v>2.05</v>
+      </c>
+      <c r="R416">
+        <v>2.38</v>
+      </c>
+      <c r="S416">
         <v>6</v>
       </c>
-      <c r="R416">
-        <v>2.4</v>
-      </c>
-      <c r="S416">
-        <v>2</v>
-      </c>
       <c r="T416">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U416">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V416">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W416">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X416">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y416">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z416">
-        <v>6.3</v>
+        <v>1.79</v>
       </c>
       <c r="AA416">
-        <v>4.4</v>
+        <v>3.61</v>
       </c>
       <c r="AB416">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="AC416">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD416">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE416">
         <v>1.25</v>
       </c>
       <c r="AF416">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AG416">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AH416">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI416">
         <v>1.83</v>
@@ -87421,100 +87430,100 @@
         <v>1.83</v>
       </c>
       <c r="AK416">
-        <v>2.45</v>
+        <v>1.15</v>
       </c>
       <c r="AL416">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM416">
-        <v>1.13</v>
+        <v>2.35</v>
       </c>
       <c r="AN416">
-        <v>0.5</v>
+        <v>2.06</v>
       </c>
       <c r="AO416">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="AP416">
-        <v>0.63</v>
+        <v>2.11</v>
       </c>
       <c r="AQ416">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR416">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="AS416">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AT416">
-        <v>2.57</v>
+        <v>2.98</v>
       </c>
       <c r="AU416">
+        <v>11</v>
+      </c>
+      <c r="AV416">
         <v>3</v>
       </c>
-      <c r="AV416">
-        <v>7</v>
-      </c>
       <c r="AW416">
+        <v>12</v>
+      </c>
+      <c r="AX416">
+        <v>10</v>
+      </c>
+      <c r="AY416">
+        <v>27</v>
+      </c>
+      <c r="AZ416">
+        <v>13</v>
+      </c>
+      <c r="BA416">
         <v>4</v>
-      </c>
-      <c r="AX416">
-        <v>15</v>
-      </c>
-      <c r="AY416">
-        <v>9</v>
-      </c>
-      <c r="AZ416">
-        <v>27</v>
-      </c>
-      <c r="BA416">
-        <v>5</v>
       </c>
       <c r="BB416">
         <v>7</v>
       </c>
       <c r="BC416">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD416">
-        <v>3.55</v>
+        <v>1.4</v>
       </c>
       <c r="BE416">
         <v>7</v>
       </c>
       <c r="BF416">
-        <v>1.36</v>
+        <v>3.3</v>
       </c>
       <c r="BG416">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BH416">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BI416">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="BJ416">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BK416">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BL416">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="BM416">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BN416">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BO416">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BP416">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="417" spans="1:68">
@@ -87522,7 +87531,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>7728611</v>
+        <v>7728605</v>
       </c>
       <c r="C417" t="s">
         <v>68</v>
@@ -87531,196 +87540,608 @@
         <v>69</v>
       </c>
       <c r="E417" s="2">
-        <v>45781.66666666666</v>
+        <v>45781.5625</v>
       </c>
       <c r="F417">
         <v>38</v>
       </c>
       <c r="G417" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H417" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K417">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L417">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N417">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O417" t="s">
         <v>348</v>
       </c>
       <c r="P417" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="Q417">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="R417">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S417">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="T417">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U417">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V417">
+        <v>2.5</v>
+      </c>
+      <c r="W417">
+        <v>1.5</v>
+      </c>
+      <c r="X417">
+        <v>6.5</v>
+      </c>
+      <c r="Y417">
+        <v>1.11</v>
+      </c>
+      <c r="Z417">
+        <v>6.3</v>
+      </c>
+      <c r="AA417">
+        <v>4.4</v>
+      </c>
+      <c r="AB417">
+        <v>1.54</v>
+      </c>
+      <c r="AC417">
+        <v>1.04</v>
+      </c>
+      <c r="AD417">
+        <v>10</v>
+      </c>
+      <c r="AE417">
+        <v>1.25</v>
+      </c>
+      <c r="AF417">
+        <v>3.85</v>
+      </c>
+      <c r="AG417">
+        <v>1.82</v>
+      </c>
+      <c r="AH417">
+        <v>2</v>
+      </c>
+      <c r="AI417">
+        <v>1.83</v>
+      </c>
+      <c r="AJ417">
+        <v>1.83</v>
+      </c>
+      <c r="AK417">
+        <v>2.45</v>
+      </c>
+      <c r="AL417">
+        <v>1.21</v>
+      </c>
+      <c r="AM417">
+        <v>1.13</v>
+      </c>
+      <c r="AN417">
+        <v>0.5</v>
+      </c>
+      <c r="AO417">
+        <v>1.72</v>
+      </c>
+      <c r="AP417">
+        <v>0.63</v>
+      </c>
+      <c r="AQ417">
+        <v>1.63</v>
+      </c>
+      <c r="AR417">
+        <v>1.16</v>
+      </c>
+      <c r="AS417">
+        <v>1.41</v>
+      </c>
+      <c r="AT417">
+        <v>2.57</v>
+      </c>
+      <c r="AU417">
         <v>3</v>
-      </c>
-      <c r="W417">
-        <v>1.36</v>
-      </c>
-      <c r="X417">
-        <v>8</v>
-      </c>
-      <c r="Y417">
-        <v>1.08</v>
-      </c>
-      <c r="Z417">
-        <v>1.98</v>
-      </c>
-      <c r="AA417">
-        <v>3.68</v>
-      </c>
-      <c r="AB417">
-        <v>3.85</v>
-      </c>
-      <c r="AC417">
-        <v>1.07</v>
-      </c>
-      <c r="AD417">
-        <v>8</v>
-      </c>
-      <c r="AE417">
-        <v>1.35</v>
-      </c>
-      <c r="AF417">
-        <v>3.1</v>
-      </c>
-      <c r="AG417">
-        <v>1.83</v>
-      </c>
-      <c r="AH417">
-        <v>1.98</v>
-      </c>
-      <c r="AI417">
-        <v>1.8</v>
-      </c>
-      <c r="AJ417">
-        <v>1.91</v>
-      </c>
-      <c r="AK417">
-        <v>1.28</v>
-      </c>
-      <c r="AL417">
-        <v>1.28</v>
-      </c>
-      <c r="AM417">
-        <v>1.78</v>
-      </c>
-      <c r="AN417">
-        <v>1.28</v>
-      </c>
-      <c r="AO417">
-        <v>1</v>
-      </c>
-      <c r="AP417">
-        <v>1.37</v>
-      </c>
-      <c r="AQ417">
-        <v>0.95</v>
-      </c>
-      <c r="AR417">
-        <v>1.53</v>
-      </c>
-      <c r="AS417">
-        <v>1.34</v>
-      </c>
-      <c r="AT417">
-        <v>2.87</v>
-      </c>
-      <c r="AU417">
-        <v>11</v>
       </c>
       <c r="AV417">
         <v>7</v>
       </c>
       <c r="AW417">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX417">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY417">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AZ417">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA417">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB417">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC417">
         <v>12</v>
       </c>
       <c r="BD417">
+        <v>3.55</v>
+      </c>
+      <c r="BE417">
+        <v>7</v>
+      </c>
+      <c r="BF417">
+        <v>1.36</v>
+      </c>
+      <c r="BG417">
+        <v>1.36</v>
+      </c>
+      <c r="BH417">
+        <v>2.8</v>
+      </c>
+      <c r="BI417">
+        <v>1.62</v>
+      </c>
+      <c r="BJ417">
+        <v>2.1</v>
+      </c>
+      <c r="BK417">
+        <v>2</v>
+      </c>
+      <c r="BL417">
+        <v>1.68</v>
+      </c>
+      <c r="BM417">
+        <v>2.55</v>
+      </c>
+      <c r="BN417">
+        <v>1.43</v>
+      </c>
+      <c r="BO417">
+        <v>3.3</v>
+      </c>
+      <c r="BP417">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="418" spans="1:68">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>7728611</v>
+      </c>
+      <c r="C418" t="s">
+        <v>68</v>
+      </c>
+      <c r="D418" t="s">
+        <v>69</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F418">
+        <v>38</v>
+      </c>
+      <c r="G418" t="s">
+        <v>75</v>
+      </c>
+      <c r="H418" t="s">
+        <v>85</v>
+      </c>
+      <c r="I418">
+        <v>2</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="K418">
+        <v>3</v>
+      </c>
+      <c r="L418">
+        <v>5</v>
+      </c>
+      <c r="M418">
+        <v>1</v>
+      </c>
+      <c r="N418">
+        <v>6</v>
+      </c>
+      <c r="O418" t="s">
+        <v>349</v>
+      </c>
+      <c r="P418" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q418">
+        <v>2.88</v>
+      </c>
+      <c r="R418">
+        <v>2.1</v>
+      </c>
+      <c r="S418">
+        <v>3.75</v>
+      </c>
+      <c r="T418">
+        <v>1.4</v>
+      </c>
+      <c r="U418">
+        <v>2.75</v>
+      </c>
+      <c r="V418">
+        <v>3</v>
+      </c>
+      <c r="W418">
+        <v>1.36</v>
+      </c>
+      <c r="X418">
+        <v>8</v>
+      </c>
+      <c r="Y418">
+        <v>1.08</v>
+      </c>
+      <c r="Z418">
+        <v>1.98</v>
+      </c>
+      <c r="AA418">
+        <v>3.68</v>
+      </c>
+      <c r="AB418">
+        <v>3.85</v>
+      </c>
+      <c r="AC418">
+        <v>1.07</v>
+      </c>
+      <c r="AD418">
+        <v>8</v>
+      </c>
+      <c r="AE418">
+        <v>1.35</v>
+      </c>
+      <c r="AF418">
+        <v>3.1</v>
+      </c>
+      <c r="AG418">
+        <v>1.83</v>
+      </c>
+      <c r="AH418">
+        <v>1.98</v>
+      </c>
+      <c r="AI418">
+        <v>1.8</v>
+      </c>
+      <c r="AJ418">
+        <v>1.91</v>
+      </c>
+      <c r="AK418">
+        <v>1.28</v>
+      </c>
+      <c r="AL418">
+        <v>1.28</v>
+      </c>
+      <c r="AM418">
+        <v>1.78</v>
+      </c>
+      <c r="AN418">
+        <v>1.28</v>
+      </c>
+      <c r="AO418">
+        <v>1</v>
+      </c>
+      <c r="AP418">
+        <v>1.37</v>
+      </c>
+      <c r="AQ418">
+        <v>0.95</v>
+      </c>
+      <c r="AR418">
+        <v>1.53</v>
+      </c>
+      <c r="AS418">
+        <v>1.34</v>
+      </c>
+      <c r="AT418">
+        <v>2.87</v>
+      </c>
+      <c r="AU418">
+        <v>11</v>
+      </c>
+      <c r="AV418">
+        <v>7</v>
+      </c>
+      <c r="AW418">
+        <v>10</v>
+      </c>
+      <c r="AX418">
+        <v>11</v>
+      </c>
+      <c r="AY418">
+        <v>23</v>
+      </c>
+      <c r="AZ418">
+        <v>19</v>
+      </c>
+      <c r="BA418">
+        <v>6</v>
+      </c>
+      <c r="BB418">
+        <v>6</v>
+      </c>
+      <c r="BC418">
+        <v>12</v>
+      </c>
+      <c r="BD418">
         <v>1.74</v>
       </c>
-      <c r="BE417">
+      <c r="BE418">
         <v>6.4</v>
       </c>
-      <c r="BF417">
+      <c r="BF418">
         <v>2.33</v>
       </c>
-      <c r="BG417">
+      <c r="BG418">
         <v>1.4</v>
       </c>
-      <c r="BH417">
+      <c r="BH418">
         <v>2.65</v>
       </c>
-      <c r="BI417">
+      <c r="BI418">
         <v>1.66</v>
       </c>
-      <c r="BJ417">
+      <c r="BJ418">
         <v>2.02</v>
       </c>
-      <c r="BK417">
+      <c r="BK418">
         <v>2.07</v>
       </c>
-      <c r="BL417">
+      <c r="BL418">
         <v>1.64</v>
       </c>
-      <c r="BM417">
+      <c r="BM418">
         <v>2.65</v>
       </c>
-      <c r="BN417">
+      <c r="BN418">
         <v>1.4</v>
       </c>
-      <c r="BO417">
+      <c r="BO418">
         <v>3.55</v>
       </c>
-      <c r="BP417">
+      <c r="BP418">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="419" spans="1:68">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>7728606</v>
+      </c>
+      <c r="C419" t="s">
+        <v>68</v>
+      </c>
+      <c r="D419" t="s">
+        <v>69</v>
+      </c>
+      <c r="E419" s="2">
+        <v>45782.64583333334</v>
+      </c>
+      <c r="F419">
+        <v>38</v>
+      </c>
+      <c r="G419" t="s">
+        <v>86</v>
+      </c>
+      <c r="H419" t="s">
+        <v>76</v>
+      </c>
+      <c r="I419">
+        <v>2</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419">
+        <v>3</v>
+      </c>
+      <c r="L419">
+        <v>4</v>
+      </c>
+      <c r="M419">
+        <v>3</v>
+      </c>
+      <c r="N419">
+        <v>7</v>
+      </c>
+      <c r="O419" t="s">
+        <v>350</v>
+      </c>
+      <c r="P419" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q419">
+        <v>2.4</v>
+      </c>
+      <c r="R419">
+        <v>2.25</v>
+      </c>
+      <c r="S419">
+        <v>4.33</v>
+      </c>
+      <c r="T419">
+        <v>1.36</v>
+      </c>
+      <c r="U419">
+        <v>3</v>
+      </c>
+      <c r="V419">
+        <v>2.63</v>
+      </c>
+      <c r="W419">
+        <v>1.44</v>
+      </c>
+      <c r="X419">
+        <v>7</v>
+      </c>
+      <c r="Y419">
+        <v>1.1</v>
+      </c>
+      <c r="Z419">
+        <v>1.92</v>
+      </c>
+      <c r="AA419">
+        <v>3.73</v>
+      </c>
+      <c r="AB419">
+        <v>4.1</v>
+      </c>
+      <c r="AC419">
+        <v>1.05</v>
+      </c>
+      <c r="AD419">
+        <v>9.5</v>
+      </c>
+      <c r="AE419">
+        <v>1.25</v>
+      </c>
+      <c r="AF419">
+        <v>3.75</v>
+      </c>
+      <c r="AG419">
+        <v>1.81</v>
+      </c>
+      <c r="AH419">
+        <v>2.01</v>
+      </c>
+      <c r="AI419">
+        <v>1.73</v>
+      </c>
+      <c r="AJ419">
+        <v>2</v>
+      </c>
+      <c r="AK419">
+        <v>1.25</v>
+      </c>
+      <c r="AL419">
+        <v>1.22</v>
+      </c>
+      <c r="AM419">
+        <v>1.85</v>
+      </c>
+      <c r="AN419">
+        <v>1.39</v>
+      </c>
+      <c r="AO419">
+        <v>1</v>
+      </c>
+      <c r="AP419">
+        <v>1.47</v>
+      </c>
+      <c r="AQ419">
+        <v>0.95</v>
+      </c>
+      <c r="AR419">
+        <v>1.81</v>
+      </c>
+      <c r="AS419">
+        <v>1.26</v>
+      </c>
+      <c r="AT419">
+        <v>3.07</v>
+      </c>
+      <c r="AU419">
+        <v>9</v>
+      </c>
+      <c r="AV419">
+        <v>8</v>
+      </c>
+      <c r="AW419">
+        <v>10</v>
+      </c>
+      <c r="AX419">
+        <v>11</v>
+      </c>
+      <c r="AY419">
+        <v>23</v>
+      </c>
+      <c r="AZ419">
+        <v>20</v>
+      </c>
+      <c r="BA419">
+        <v>3</v>
+      </c>
+      <c r="BB419">
+        <v>4</v>
+      </c>
+      <c r="BC419">
+        <v>7</v>
+      </c>
+      <c r="BD419">
+        <v>1.6</v>
+      </c>
+      <c r="BE419">
+        <v>6.75</v>
+      </c>
+      <c r="BF419">
+        <v>2.55</v>
+      </c>
+      <c r="BG419">
+        <v>1.3</v>
+      </c>
+      <c r="BH419">
+        <v>3.1</v>
+      </c>
+      <c r="BI419">
+        <v>1.52</v>
+      </c>
+      <c r="BJ419">
+        <v>2.3</v>
+      </c>
+      <c r="BK419">
+        <v>1.84</v>
+      </c>
+      <c r="BL419">
+        <v>1.82</v>
+      </c>
+      <c r="BM419">
+        <v>2.3</v>
+      </c>
+      <c r="BN419">
+        <v>1.52</v>
+      </c>
+      <c r="BO419">
+        <v>3</v>
+      </c>
+      <c r="BP419">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="484">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1069,6 +1069,9 @@
     <t>['17', '45+3', '67', '71']</t>
   </si>
   <si>
+    <t>['90+6', '90+8']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1824,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP419"/>
+  <dimension ref="A1:BP420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2083,7 +2086,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2495,7 +2498,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ4">
         <v>1.21</v>
@@ -3319,7 +3322,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3525,7 +3528,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3606,7 +3609,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ9">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4349,7 +4352,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5585,7 +5588,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5666,7 +5669,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ19">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6203,7 +6206,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6409,7 +6412,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6615,7 +6618,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6821,7 +6824,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7027,7 +7030,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7105,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ26">
         <v>0.42</v>
@@ -7645,7 +7648,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8263,7 +8266,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8469,7 +8472,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8881,7 +8884,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10404,7 +10407,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10735,7 +10738,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11353,7 +11356,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12873,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ54">
         <v>0.68</v>
@@ -13001,7 +13004,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13207,7 +13210,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13413,7 +13416,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13619,7 +13622,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -14031,7 +14034,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14649,7 +14652,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15267,7 +15270,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15679,7 +15682,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15885,7 +15888,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15963,7 +15966,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16503,7 +16506,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16709,7 +16712,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16790,7 +16793,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ73">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16915,7 +16918,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17739,7 +17742,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18357,7 +18360,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18563,7 +18566,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18769,7 +18772,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19593,7 +19596,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -20005,7 +20008,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20211,7 +20214,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20623,7 +20626,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20701,7 +20704,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ92">
         <v>0.84</v>
@@ -21035,7 +21038,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21241,7 +21244,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21322,7 +21325,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ95">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -22271,7 +22274,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23713,7 +23716,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23791,7 +23794,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ107">
         <v>1.63</v>
@@ -24331,7 +24334,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24412,7 +24415,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ110">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24949,7 +24952,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25361,7 +25364,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26185,7 +26188,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26803,7 +26806,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27087,7 +27090,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ123">
         <v>1.37</v>
@@ -27215,7 +27218,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27627,7 +27630,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28039,7 +28042,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28451,7 +28454,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28657,7 +28660,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28738,7 +28741,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ131">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28863,7 +28866,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29275,7 +29278,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29481,7 +29484,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30099,7 +30102,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30717,7 +30720,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30798,7 +30801,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ141">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30923,7 +30926,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31129,7 +31132,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31335,7 +31338,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31747,7 +31750,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32159,7 +32162,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33189,7 +33192,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33807,7 +33810,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34091,7 +34094,7 @@
         <v>0.17</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ157">
         <v>1.21</v>
@@ -35455,7 +35458,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35536,7 +35539,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ164">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -36073,7 +36076,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -37721,7 +37724,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38133,7 +38136,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38545,7 +38548,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38751,7 +38754,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38829,7 +38832,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ180">
         <v>1.42</v>
@@ -39575,7 +39578,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40399,7 +40402,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -41017,7 +41020,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41223,7 +41226,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41429,7 +41432,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41635,7 +41638,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41716,7 +41719,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ194">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -42871,7 +42874,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43155,7 +43158,7 @@
         <v>1.22</v>
       </c>
       <c r="AP201">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ201">
         <v>0.95</v>
@@ -43283,7 +43286,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43489,7 +43492,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44107,7 +44110,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -45343,7 +45346,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45549,7 +45552,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45630,7 +45633,7 @@
         <v>0.68</v>
       </c>
       <c r="AQ213">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR213">
         <v>1.08</v>
@@ -45755,7 +45758,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46167,7 +46170,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46245,7 +46248,7 @@
         <v>0.78</v>
       </c>
       <c r="AP216">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ216">
         <v>1.05</v>
@@ -47403,7 +47406,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47815,7 +47818,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48227,7 +48230,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48845,7 +48848,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49257,7 +49260,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50081,7 +50084,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50905,7 +50908,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -50986,7 +50989,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ239">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR239">
         <v>1.67</v>
@@ -51189,7 +51192,7 @@
         <v>1.36</v>
       </c>
       <c r="AP240">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ240">
         <v>1.42</v>
@@ -51523,7 +51526,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51935,7 +51938,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52347,7 +52350,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53171,7 +53174,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53377,7 +53380,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53789,7 +53792,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54201,7 +54204,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54407,7 +54410,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55518,7 +55521,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ261">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR261">
         <v>1.52</v>
@@ -55643,7 +55646,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55927,7 +55930,7 @@
         <v>1.27</v>
       </c>
       <c r="AP263">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -56261,7 +56264,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57703,7 +57706,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58733,7 +58736,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59969,7 +59972,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60175,7 +60178,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60253,7 +60256,7 @@
         <v>0.54</v>
       </c>
       <c r="AP284">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ284">
         <v>0.42</v>
@@ -60462,7 +60465,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ285">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR285">
         <v>1.52</v>
@@ -60793,7 +60796,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61411,7 +61414,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61617,7 +61620,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -63471,7 +63474,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63677,7 +63680,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63883,7 +63886,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -64170,7 +64173,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ303">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR303">
         <v>1.51</v>
@@ -65197,7 +65200,7 @@
         <v>1.38</v>
       </c>
       <c r="AP308">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ308">
         <v>1.11</v>
@@ -65325,7 +65328,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -66149,7 +66152,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66561,7 +66564,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66767,7 +66770,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67878,7 +67881,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ321">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR321">
         <v>1.54</v>
@@ -68827,7 +68830,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69239,7 +69242,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -71299,7 +71302,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71505,7 +71508,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -71995,7 +71998,7 @@
         <v>1.36</v>
       </c>
       <c r="AP341">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ341">
         <v>1.32</v>
@@ -72123,7 +72126,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72410,7 +72413,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ343">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR343">
         <v>1.39</v>
@@ -73359,7 +73362,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73771,7 +73774,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74183,7 +74186,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74389,7 +74392,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75213,7 +75216,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75831,7 +75834,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76243,7 +76246,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76449,7 +76452,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76733,7 +76736,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP364">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ364">
         <v>0.84</v>
@@ -76861,7 +76864,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77067,7 +77070,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77560,7 +77563,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ368">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR368">
         <v>1.66</v>
@@ -77685,7 +77688,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -79127,7 +79130,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79333,7 +79336,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79745,7 +79748,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -79823,7 +79826,7 @@
         <v>1.19</v>
       </c>
       <c r="AP379">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ379">
         <v>1.37</v>
@@ -80157,7 +80160,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80363,7 +80366,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80569,7 +80572,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80775,7 +80778,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81680,7 +81683,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ388">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AR388">
         <v>1.82</v>
@@ -82011,7 +82014,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82217,7 +82220,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82423,7 +82426,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82629,7 +82632,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83041,7 +83044,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83453,7 +83456,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -83737,7 +83740,7 @@
         <v>1.06</v>
       </c>
       <c r="AP398">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ398">
         <v>0.95</v>
@@ -84483,7 +84486,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84689,7 +84692,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -85719,7 +85722,7 @@
         <v>344</v>
       </c>
       <c r="P408" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q408">
         <v>1.73</v>
@@ -85925,7 +85928,7 @@
         <v>345</v>
       </c>
       <c r="P409" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q409">
         <v>2.88</v>
@@ -86131,7 +86134,7 @@
         <v>346</v>
       </c>
       <c r="P410" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q410">
         <v>3.75</v>
@@ -86955,7 +86958,7 @@
         <v>244</v>
       </c>
       <c r="P414" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q414">
         <v>2.3</v>
@@ -87161,7 +87164,7 @@
         <v>290</v>
       </c>
       <c r="P415" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q415">
         <v>4.5</v>
@@ -87985,7 +87988,7 @@
         <v>350</v>
       </c>
       <c r="P419" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q419">
         <v>2.4</v>
@@ -88142,6 +88145,212 @@
       </c>
       <c r="BP419">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:68">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>7728617</v>
+      </c>
+      <c r="C420" t="s">
+        <v>68</v>
+      </c>
+      <c r="D420" t="s">
+        <v>69</v>
+      </c>
+      <c r="E420" s="2">
+        <v>45786.64583333334</v>
+      </c>
+      <c r="F420">
+        <v>39</v>
+      </c>
+      <c r="G420" t="s">
+        <v>72</v>
+      </c>
+      <c r="H420" t="s">
+        <v>90</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <v>2</v>
+      </c>
+      <c r="M420">
+        <v>1</v>
+      </c>
+      <c r="N420">
+        <v>3</v>
+      </c>
+      <c r="O420" t="s">
+        <v>351</v>
+      </c>
+      <c r="P420" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q420">
+        <v>3.75</v>
+      </c>
+      <c r="R420">
+        <v>2.2</v>
+      </c>
+      <c r="S420">
+        <v>2.88</v>
+      </c>
+      <c r="T420">
+        <v>1.4</v>
+      </c>
+      <c r="U420">
+        <v>2.75</v>
+      </c>
+      <c r="V420">
+        <v>2.75</v>
+      </c>
+      <c r="W420">
+        <v>1.4</v>
+      </c>
+      <c r="X420">
+        <v>8</v>
+      </c>
+      <c r="Y420">
+        <v>1.08</v>
+      </c>
+      <c r="Z420">
+        <v>2.74</v>
+      </c>
+      <c r="AA420">
+        <v>3.13</v>
+      </c>
+      <c r="AB420">
+        <v>2.6</v>
+      </c>
+      <c r="AC420">
+        <v>1.06</v>
+      </c>
+      <c r="AD420">
+        <v>8.5</v>
+      </c>
+      <c r="AE420">
+        <v>1.33</v>
+      </c>
+      <c r="AF420">
+        <v>3.25</v>
+      </c>
+      <c r="AG420">
+        <v>1.98</v>
+      </c>
+      <c r="AH420">
+        <v>1.77</v>
+      </c>
+      <c r="AI420">
+        <v>1.73</v>
+      </c>
+      <c r="AJ420">
+        <v>2</v>
+      </c>
+      <c r="AK420">
+        <v>1.62</v>
+      </c>
+      <c r="AL420">
+        <v>1.31</v>
+      </c>
+      <c r="AM420">
+        <v>1.35</v>
+      </c>
+      <c r="AN420">
+        <v>1.47</v>
+      </c>
+      <c r="AO420">
+        <v>1.16</v>
+      </c>
+      <c r="AP420">
+        <v>1.55</v>
+      </c>
+      <c r="AQ420">
+        <v>1.1</v>
+      </c>
+      <c r="AR420">
+        <v>1.47</v>
+      </c>
+      <c r="AS420">
+        <v>1.61</v>
+      </c>
+      <c r="AT420">
+        <v>3.08</v>
+      </c>
+      <c r="AU420">
+        <v>4</v>
+      </c>
+      <c r="AV420">
+        <v>4</v>
+      </c>
+      <c r="AW420">
+        <v>17</v>
+      </c>
+      <c r="AX420">
+        <v>5</v>
+      </c>
+      <c r="AY420">
+        <v>24</v>
+      </c>
+      <c r="AZ420">
+        <v>10</v>
+      </c>
+      <c r="BA420">
+        <v>9</v>
+      </c>
+      <c r="BB420">
+        <v>6</v>
+      </c>
+      <c r="BC420">
+        <v>15</v>
+      </c>
+      <c r="BD420">
+        <v>2.08</v>
+      </c>
+      <c r="BE420">
+        <v>6.4</v>
+      </c>
+      <c r="BF420">
+        <v>1.9</v>
+      </c>
+      <c r="BG420">
+        <v>1.5</v>
+      </c>
+      <c r="BH420">
+        <v>2.33</v>
+      </c>
+      <c r="BI420">
+        <v>1.85</v>
+      </c>
+      <c r="BJ420">
+        <v>1.81</v>
+      </c>
+      <c r="BK420">
+        <v>2.38</v>
+      </c>
+      <c r="BL420">
+        <v>1.49</v>
+      </c>
+      <c r="BM420">
+        <v>3.15</v>
+      </c>
+      <c r="BN420">
+        <v>1.29</v>
+      </c>
+      <c r="BO420">
+        <v>4.2</v>
+      </c>
+      <c r="BP420">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="492">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1081,6 +1081,9 @@
     <t>['27', '70', '77']</t>
   </si>
   <si>
+    <t>['10', '88', '90+7']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1485,6 +1488,9 @@
   <si>
     <t>['22', '58']</t>
   </si>
+  <si>
+    <t>['4', '14']</t>
+  </si>
 </sst>
 </file>
 
@@ -1845,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP424"/>
+  <dimension ref="A1:BP425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2104,7 +2110,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2516,7 +2522,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3340,7 +3346,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3546,7 +3552,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3833,7 +3839,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ10">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4370,7 +4376,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5606,7 +5612,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6224,7 +6230,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6430,7 +6436,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6636,7 +6642,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6842,7 +6848,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7048,7 +7054,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7666,7 +7672,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8284,7 +8290,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8365,7 +8371,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -8490,7 +8496,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8902,7 +8908,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10628,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1.37</v>
@@ -10756,7 +10762,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11374,7 +11380,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12485,7 +12491,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ52">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -13022,7 +13028,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13228,7 +13234,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13434,7 +13440,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13640,7 +13646,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -14052,7 +14058,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14336,7 +14342,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -14670,7 +14676,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15288,7 +15294,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15700,7 +15706,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15906,7 +15912,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16524,7 +16530,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16730,7 +16736,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16936,7 +16942,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17760,7 +17766,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17841,7 +17847,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ78">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -18378,7 +18384,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18584,7 +18590,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18790,7 +18796,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18868,7 +18874,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.63</v>
@@ -19283,7 +19289,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ85">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -19614,7 +19620,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -20026,7 +20032,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20232,7 +20238,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20644,7 +20650,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21056,7 +21062,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21262,7 +21268,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22292,7 +22298,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22579,7 +22585,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ101">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -23734,7 +23740,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24352,7 +24358,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24430,7 +24436,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>1.1</v>
@@ -24970,7 +24976,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25382,7 +25388,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26206,7 +26212,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26824,7 +26830,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27236,7 +27242,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27317,7 +27323,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ124">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR124">
         <v>1.12</v>
@@ -27648,7 +27654,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27726,7 +27732,7 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126">
         <v>1.05</v>
@@ -28060,7 +28066,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28472,7 +28478,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28678,7 +28684,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28884,7 +28890,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29296,7 +29302,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29502,7 +29508,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29992,7 +29998,7 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
         <v>1.32</v>
@@ -30120,7 +30126,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30738,7 +30744,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30944,7 +30950,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31150,7 +31156,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31356,7 +31362,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31643,7 +31649,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ145">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31768,7 +31774,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32180,7 +32186,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33210,7 +33216,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33828,7 +33834,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34936,7 +34942,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
         <v>0.84</v>
@@ -35476,7 +35482,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36094,7 +36100,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -37742,7 +37748,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38154,7 +38160,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38438,7 +38444,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ178">
         <v>0.95</v>
@@ -38566,7 +38572,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38772,7 +38778,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39596,7 +39602,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -40295,7 +40301,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ187">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40420,7 +40426,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -41038,7 +41044,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41244,7 +41250,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41450,7 +41456,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41656,7 +41662,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42892,7 +42898,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43304,7 +43310,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43385,7 +43391,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ202">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR202">
         <v>1.63</v>
@@ -43510,7 +43516,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44128,7 +44134,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44827,7 +44833,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ209">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR209">
         <v>1.74</v>
@@ -45364,7 +45370,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45442,7 +45448,7 @@
         <v>1.1</v>
       </c>
       <c r="AP212">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ212">
         <v>1.37</v>
@@ -45570,7 +45576,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45776,7 +45782,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46188,7 +46194,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47424,7 +47430,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47708,7 +47714,7 @@
         <v>1.11</v>
       </c>
       <c r="AP223">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ223">
         <v>0.68</v>
@@ -47836,7 +47842,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48248,7 +48254,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48866,7 +48872,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49278,7 +49284,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49771,7 +49777,7 @@
         <v>0.68</v>
       </c>
       <c r="AQ233">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR233">
         <v>1.18</v>
@@ -50102,7 +50108,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50926,7 +50932,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51544,7 +51550,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51956,7 +51962,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52368,7 +52374,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53192,7 +53198,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53398,7 +53404,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53476,7 +53482,7 @@
         <v>0.18</v>
       </c>
       <c r="AP251">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ251">
         <v>0.42</v>
@@ -53810,7 +53816,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54222,7 +54228,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54428,7 +54434,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -54715,7 +54721,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ257">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR257">
         <v>1.24</v>
@@ -55664,7 +55670,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -56282,7 +56288,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57724,7 +57730,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58008,7 +58014,7 @@
         <v>1.18</v>
       </c>
       <c r="AP273">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ273">
         <v>1.11</v>
@@ -58754,7 +58760,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -59990,7 +59996,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60196,7 +60202,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -60277,7 +60283,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ284">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR284">
         <v>1.39</v>
@@ -60814,7 +60820,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61432,7 +61438,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61638,7 +61644,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -62540,7 +62546,7 @@
         <v>0.75</v>
       </c>
       <c r="AP295">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ295">
         <v>1.05</v>
@@ -63492,7 +63498,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63698,7 +63704,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63904,7 +63910,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -64603,7 +64609,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ305">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR305">
         <v>1.62</v>
@@ -65346,7 +65352,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -66042,7 +66048,7 @@
         <v>1</v>
       </c>
       <c r="AP312">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ312">
         <v>0.95</v>
@@ -66170,7 +66176,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66582,7 +66588,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66788,7 +66794,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -68848,7 +68854,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -68926,7 +68932,7 @@
         <v>0.93</v>
       </c>
       <c r="AP326">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ326">
         <v>1</v>
@@ -69260,7 +69266,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69547,7 +69553,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ329">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR329">
         <v>1.65</v>
@@ -71320,7 +71326,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71526,7 +71532,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72144,7 +72150,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -73380,7 +73386,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73792,7 +73798,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74204,7 +74210,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74285,7 +74291,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ352">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR352">
         <v>1.55</v>
@@ -74410,7 +74416,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -74488,7 +74494,7 @@
         <v>1.13</v>
       </c>
       <c r="AP353">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ353">
         <v>1.15</v>
@@ -75234,7 +75240,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75852,7 +75858,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76264,7 +76270,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76470,7 +76476,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76882,7 +76888,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77088,7 +77094,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77706,7 +77712,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -77990,7 +77996,7 @@
         <v>1</v>
       </c>
       <c r="AP370">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ370">
         <v>1</v>
@@ -79148,7 +79154,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79354,7 +79360,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79432,7 +79438,7 @@
         <v>0.82</v>
       </c>
       <c r="AP377">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ377">
         <v>0.84</v>
@@ -79766,7 +79772,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80178,7 +80184,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80384,7 +80390,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80590,7 +80596,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80796,7 +80802,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81083,7 +81089,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ385">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR385">
         <v>1.73</v>
@@ -82032,7 +82038,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82238,7 +82244,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82444,7 +82450,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82650,7 +82656,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83062,7 +83068,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83474,7 +83480,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -83967,7 +83973,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ399">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AR399">
         <v>1.55</v>
@@ -84504,7 +84510,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84710,7 +84716,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -85612,7 +85618,7 @@
         <v>1.22</v>
       </c>
       <c r="AP407">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ407">
         <v>1.21</v>
@@ -85740,7 +85746,7 @@
         <v>344</v>
       </c>
       <c r="P408" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q408">
         <v>1.73</v>
@@ -85946,7 +85952,7 @@
         <v>345</v>
       </c>
       <c r="P409" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q409">
         <v>2.88</v>
@@ -86152,7 +86158,7 @@
         <v>346</v>
       </c>
       <c r="P410" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q410">
         <v>3.75</v>
@@ -86976,7 +86982,7 @@
         <v>244</v>
       </c>
       <c r="P414" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q414">
         <v>2.3</v>
@@ -87182,7 +87188,7 @@
         <v>290</v>
       </c>
       <c r="P415" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q415">
         <v>4.5</v>
@@ -88006,7 +88012,7 @@
         <v>350</v>
       </c>
       <c r="P419" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q419">
         <v>2.4</v>
@@ -88212,7 +88218,7 @@
         <v>351</v>
       </c>
       <c r="P420" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q420">
         <v>3.75</v>
@@ -88418,7 +88424,7 @@
         <v>352</v>
       </c>
       <c r="P421" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q421">
         <v>2.6</v>
@@ -88830,7 +88836,7 @@
         <v>137</v>
       </c>
       <c r="P423" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q423">
         <v>2.63</v>
@@ -89036,7 +89042,7 @@
         <v>354</v>
       </c>
       <c r="P424" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q424">
         <v>3.2</v>
@@ -89193,6 +89199,212 @@
       </c>
       <c r="BP424">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="425" spans="1:68">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>7728618</v>
+      </c>
+      <c r="C425" t="s">
+        <v>68</v>
+      </c>
+      <c r="D425" t="s">
+        <v>69</v>
+      </c>
+      <c r="E425" s="2">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="F425">
+        <v>39</v>
+      </c>
+      <c r="G425" t="s">
+        <v>91</v>
+      </c>
+      <c r="H425" t="s">
+        <v>87</v>
+      </c>
+      <c r="I425">
+        <v>1</v>
+      </c>
+      <c r="J425">
+        <v>2</v>
+      </c>
+      <c r="K425">
+        <v>3</v>
+      </c>
+      <c r="L425">
+        <v>3</v>
+      </c>
+      <c r="M425">
+        <v>2</v>
+      </c>
+      <c r="N425">
+        <v>5</v>
+      </c>
+      <c r="O425" t="s">
+        <v>355</v>
+      </c>
+      <c r="P425" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q425">
+        <v>1.73</v>
+      </c>
+      <c r="R425">
+        <v>2.5</v>
+      </c>
+      <c r="S425">
+        <v>10</v>
+      </c>
+      <c r="T425">
+        <v>1.33</v>
+      </c>
+      <c r="U425">
+        <v>3.25</v>
+      </c>
+      <c r="V425">
+        <v>2.63</v>
+      </c>
+      <c r="W425">
+        <v>1.44</v>
+      </c>
+      <c r="X425">
+        <v>6.5</v>
+      </c>
+      <c r="Y425">
+        <v>1.11</v>
+      </c>
+      <c r="Z425">
+        <v>1.25</v>
+      </c>
+      <c r="AA425">
+        <v>5.5</v>
+      </c>
+      <c r="AB425">
+        <v>12</v>
+      </c>
+      <c r="AC425">
+        <v>1.05</v>
+      </c>
+      <c r="AD425">
+        <v>9.5</v>
+      </c>
+      <c r="AE425">
+        <v>1.25</v>
+      </c>
+      <c r="AF425">
+        <v>3.75</v>
+      </c>
+      <c r="AG425">
+        <v>1.8</v>
+      </c>
+      <c r="AH425">
+        <v>1.94</v>
+      </c>
+      <c r="AI425">
+        <v>2.38</v>
+      </c>
+      <c r="AJ425">
+        <v>1.53</v>
+      </c>
+      <c r="AK425">
+        <v>1.05</v>
+      </c>
+      <c r="AL425">
+        <v>1.15</v>
+      </c>
+      <c r="AM425">
+        <v>3.5</v>
+      </c>
+      <c r="AN425">
+        <v>1.16</v>
+      </c>
+      <c r="AO425">
+        <v>0.42</v>
+      </c>
+      <c r="AP425">
+        <v>1.25</v>
+      </c>
+      <c r="AQ425">
+        <v>0.4</v>
+      </c>
+      <c r="AR425">
+        <v>1.65</v>
+      </c>
+      <c r="AS425">
+        <v>0.99</v>
+      </c>
+      <c r="AT425">
+        <v>2.64</v>
+      </c>
+      <c r="AU425">
+        <v>-1</v>
+      </c>
+      <c r="AV425">
+        <v>-1</v>
+      </c>
+      <c r="AW425">
+        <v>-1</v>
+      </c>
+      <c r="AX425">
+        <v>-1</v>
+      </c>
+      <c r="AY425">
+        <v>-1</v>
+      </c>
+      <c r="AZ425">
+        <v>-1</v>
+      </c>
+      <c r="BA425">
+        <v>-1</v>
+      </c>
+      <c r="BB425">
+        <v>-1</v>
+      </c>
+      <c r="BC425">
+        <v>-1</v>
+      </c>
+      <c r="BD425">
+        <v>1.24</v>
+      </c>
+      <c r="BE425">
+        <v>8</v>
+      </c>
+      <c r="BF425">
+        <v>4.4</v>
+      </c>
+      <c r="BG425">
+        <v>1.44</v>
+      </c>
+      <c r="BH425">
+        <v>2.5</v>
+      </c>
+      <c r="BI425">
+        <v>1.75</v>
+      </c>
+      <c r="BJ425">
+        <v>1.93</v>
+      </c>
+      <c r="BK425">
+        <v>2.18</v>
+      </c>
+      <c r="BL425">
+        <v>1.58</v>
+      </c>
+      <c r="BM425">
+        <v>2.8</v>
+      </c>
+      <c r="BN425">
+        <v>1.36</v>
+      </c>
+      <c r="BO425">
+        <v>3.65</v>
+      </c>
+      <c r="BP425">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -89341,31 +89341,31 @@
         <v>2.64</v>
       </c>
       <c r="AU425">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV425">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW425">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AX425">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY425">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="AZ425">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA425">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB425">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC425">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD425">
         <v>1.24</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="492">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1851,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP425"/>
+  <dimension ref="A1:BP426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3221,7 +3221,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ7">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>1.1</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>0.84</v>
@@ -6105,7 +6105,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ21">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -12076,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -13933,7 +13933,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>0.4</v>
@@ -19907,7 +19907,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ88">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -21552,7 +21552,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -22791,7 +22791,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ102">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR102">
         <v>1.13</v>
@@ -25672,7 +25672,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ116">
         <v>1.15</v>
@@ -27117,7 +27117,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ123">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR123">
         <v>1.53</v>
@@ -30204,7 +30204,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138">
         <v>0.95</v>
@@ -32473,7 +32473,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR149">
         <v>1.82</v>
@@ -33706,7 +33706,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155">
         <v>1.05</v>
@@ -37417,7 +37417,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ173">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -39062,7 +39062,7 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -41537,7 +41537,7 @@
         <v>0.68</v>
       </c>
       <c r="AQ193">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR193">
         <v>1.13</v>
@@ -44624,7 +44624,7 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ208">
         <v>1.21</v>
@@ -45451,7 +45451,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ212">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -48744,7 +48744,7 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -51837,7 +51837,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ243">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR243">
         <v>1.18</v>
@@ -53070,7 +53070,7 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ249">
         <v>0.68</v>
@@ -56987,7 +56987,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ268">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR268">
         <v>1.8</v>
@@ -57190,7 +57190,7 @@
         <v>0.92</v>
       </c>
       <c r="AP269">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ269">
         <v>0.84</v>
@@ -61516,7 +61516,7 @@
         <v>1.17</v>
       </c>
       <c r="AP290">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ290">
         <v>1.11</v>
@@ -63579,7 +63579,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ300">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR300">
         <v>1.42</v>
@@ -67284,7 +67284,7 @@
         <v>1.15</v>
       </c>
       <c r="AP318">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ318">
         <v>1.37</v>
@@ -68317,7 +68317,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ323">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR323">
         <v>1.37</v>
@@ -71816,7 +71816,7 @@
         <v>0.2</v>
       </c>
       <c r="AP340">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ340">
         <v>0.42</v>
@@ -73261,7 +73261,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ347">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR347">
         <v>1.66</v>
@@ -75524,7 +75524,7 @@
         <v>1.25</v>
       </c>
       <c r="AP358">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ358">
         <v>1.21</v>
@@ -77175,7 +77175,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ366">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR366">
         <v>1.59</v>
@@ -80468,7 +80468,7 @@
         <v>1.18</v>
       </c>
       <c r="AP382">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ382">
         <v>1.05</v>
@@ -82943,7 +82943,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ394">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR394">
         <v>1.75</v>
@@ -85000,7 +85000,7 @@
         <v>1.5</v>
       </c>
       <c r="AP404">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ404">
         <v>1.35</v>
@@ -86239,7 +86239,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ410">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AR410">
         <v>1.31</v>
@@ -89405,6 +89405,212 @@
       </c>
       <c r="BP425">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="426" spans="1:68">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>7728623</v>
+      </c>
+      <c r="C426" t="s">
+        <v>68</v>
+      </c>
+      <c r="D426" t="s">
+        <v>69</v>
+      </c>
+      <c r="E426" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F426">
+        <v>39</v>
+      </c>
+      <c r="G426" t="s">
+        <v>77</v>
+      </c>
+      <c r="H426" t="s">
+        <v>89</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426">
+        <v>1</v>
+      </c>
+      <c r="L426">
+        <v>1</v>
+      </c>
+      <c r="M426">
+        <v>1</v>
+      </c>
+      <c r="N426">
+        <v>2</v>
+      </c>
+      <c r="O426" t="s">
+        <v>133</v>
+      </c>
+      <c r="P426" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q426">
+        <v>2.88</v>
+      </c>
+      <c r="R426">
+        <v>2.1</v>
+      </c>
+      <c r="S426">
+        <v>3.75</v>
+      </c>
+      <c r="T426">
+        <v>1.44</v>
+      </c>
+      <c r="U426">
+        <v>2.63</v>
+      </c>
+      <c r="V426">
+        <v>3</v>
+      </c>
+      <c r="W426">
+        <v>1.36</v>
+      </c>
+      <c r="X426">
+        <v>9</v>
+      </c>
+      <c r="Y426">
+        <v>1.07</v>
+      </c>
+      <c r="Z426">
+        <v>2.25</v>
+      </c>
+      <c r="AA426">
+        <v>3.25</v>
+      </c>
+      <c r="AB426">
+        <v>3.15</v>
+      </c>
+      <c r="AC426">
+        <v>1.06</v>
+      </c>
+      <c r="AD426">
+        <v>8.25</v>
+      </c>
+      <c r="AE426">
+        <v>1.34</v>
+      </c>
+      <c r="AF426">
+        <v>3.26</v>
+      </c>
+      <c r="AG426">
+        <v>1.89</v>
+      </c>
+      <c r="AH426">
+        <v>1.85</v>
+      </c>
+      <c r="AI426">
+        <v>1.83</v>
+      </c>
+      <c r="AJ426">
+        <v>1.83</v>
+      </c>
+      <c r="AK426">
+        <v>1.33</v>
+      </c>
+      <c r="AL426">
+        <v>1.31</v>
+      </c>
+      <c r="AM426">
+        <v>1.65</v>
+      </c>
+      <c r="AN426">
+        <v>1.84</v>
+      </c>
+      <c r="AO426">
+        <v>1.37</v>
+      </c>
+      <c r="AP426">
+        <v>1.8</v>
+      </c>
+      <c r="AQ426">
+        <v>1.35</v>
+      </c>
+      <c r="AR426">
+        <v>1.56</v>
+      </c>
+      <c r="AS426">
+        <v>1.32</v>
+      </c>
+      <c r="AT426">
+        <v>2.88</v>
+      </c>
+      <c r="AU426">
+        <v>5</v>
+      </c>
+      <c r="AV426">
+        <v>4</v>
+      </c>
+      <c r="AW426">
+        <v>10</v>
+      </c>
+      <c r="AX426">
+        <v>5</v>
+      </c>
+      <c r="AY426">
+        <v>20</v>
+      </c>
+      <c r="AZ426">
+        <v>10</v>
+      </c>
+      <c r="BA426">
+        <v>7</v>
+      </c>
+      <c r="BB426">
+        <v>3</v>
+      </c>
+      <c r="BC426">
+        <v>10</v>
+      </c>
+      <c r="BD426">
+        <v>1.7</v>
+      </c>
+      <c r="BE426">
+        <v>6.5</v>
+      </c>
+      <c r="BF426">
+        <v>2.4</v>
+      </c>
+      <c r="BG426">
+        <v>1.4</v>
+      </c>
+      <c r="BH426">
+        <v>2.65</v>
+      </c>
+      <c r="BI426">
+        <v>1.68</v>
+      </c>
+      <c r="BJ426">
+        <v>2.02</v>
+      </c>
+      <c r="BK426">
+        <v>2.08</v>
+      </c>
+      <c r="BL426">
+        <v>1.63</v>
+      </c>
+      <c r="BM426">
+        <v>2.65</v>
+      </c>
+      <c r="BN426">
+        <v>1.4</v>
+      </c>
+      <c r="BO426">
+        <v>3.55</v>
+      </c>
+      <c r="BP426">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -88956,13 +88956,13 @@
         <v>11</v>
       </c>
       <c r="BA423">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC423">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD423">
         <v>1.53</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="496">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1500,6 +1500,9 @@
   <si>
     <t>['57', '90+5']</t>
   </si>
+  <si>
+    <t>['61', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1860,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP429"/>
+  <dimension ref="A1:BP430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2">
         <v>0.95</v>
@@ -4466,7 +4469,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -6729,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ24">
         <v>1.15</v>
@@ -9201,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
         <v>1.35</v>
@@ -11058,7 +11061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -13527,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -15384,7 +15387,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -17650,7 +17653,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ77">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -21767,7 +21770,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ97">
         <v>1.15</v>
@@ -23209,7 +23212,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ104">
         <v>0.42</v>
@@ -23624,7 +23627,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ106">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -27950,7 +27953,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ127">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -28977,7 +28980,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -31449,7 +31452,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -32688,7 +32691,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ150">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -35775,7 +35778,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ165">
         <v>1.11</v>
@@ -35984,7 +35987,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ166">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR166">
         <v>1.42</v>
@@ -40925,7 +40928,7 @@
         <v>2.75</v>
       </c>
       <c r="AP190">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ190">
         <v>1.63</v>
@@ -41340,7 +41343,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ192">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -44839,7 +44842,7 @@
         <v>0.6</v>
       </c>
       <c r="AP209">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ209">
         <v>0.4</v>
@@ -45254,7 +45257,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ211">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR211">
         <v>1.69</v>
@@ -49577,7 +49580,7 @@
         <v>0.8</v>
       </c>
       <c r="AP232">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ232">
         <v>1.05</v>
@@ -51640,7 +51643,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ242">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR242">
         <v>1.37</v>
@@ -54112,7 +54115,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ254">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR254">
         <v>1.63</v>
@@ -55139,7 +55142,7 @@
         <v>1.09</v>
       </c>
       <c r="AP259">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ259">
         <v>0.95</v>
@@ -59053,7 +59056,7 @@
         <v>1.17</v>
       </c>
       <c r="AP278">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ278">
         <v>1</v>
@@ -59468,7 +59471,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ280">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR280">
         <v>1.52</v>
@@ -61116,7 +61119,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ288">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR288">
         <v>1.7</v>
@@ -63997,7 +64000,7 @@
         <v>1.36</v>
       </c>
       <c r="AP302">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ302">
         <v>1.21</v>
@@ -65442,7 +65445,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ309">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR309">
         <v>1.18</v>
@@ -69765,7 +69768,7 @@
         <v>0.93</v>
       </c>
       <c r="AP330">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ330">
         <v>0.7</v>
@@ -70386,7 +70389,7 @@
         <v>0.68</v>
       </c>
       <c r="AQ333">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR333">
         <v>1.19</v>
@@ -73267,7 +73270,7 @@
         <v>1.4</v>
       </c>
       <c r="AP347">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ347">
         <v>1.35</v>
@@ -76772,7 +76775,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ364">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR364">
         <v>1.46</v>
@@ -77593,7 +77596,7 @@
         <v>1.29</v>
       </c>
       <c r="AP368">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ368">
         <v>1.1</v>
@@ -79450,7 +79453,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ377">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR377">
         <v>1.6</v>
@@ -84597,7 +84600,7 @@
         <v>1.29</v>
       </c>
       <c r="AP402">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ402">
         <v>1.37</v>
@@ -85218,7 +85221,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ405">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR405">
         <v>1.47</v>
@@ -90238,6 +90241,212 @@
       </c>
       <c r="BP429">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:68">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>7728621</v>
+      </c>
+      <c r="C430" t="s">
+        <v>68</v>
+      </c>
+      <c r="D430" t="s">
+        <v>69</v>
+      </c>
+      <c r="E430" s="2">
+        <v>45789.64583333334</v>
+      </c>
+      <c r="F430">
+        <v>39</v>
+      </c>
+      <c r="G430" t="s">
+        <v>70</v>
+      </c>
+      <c r="H430" t="s">
+        <v>73</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+      <c r="M430">
+        <v>2</v>
+      </c>
+      <c r="N430">
+        <v>2</v>
+      </c>
+      <c r="O430" t="s">
+        <v>94</v>
+      </c>
+      <c r="P430" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q430">
+        <v>2.4</v>
+      </c>
+      <c r="R430">
+        <v>2.1</v>
+      </c>
+      <c r="S430">
+        <v>5</v>
+      </c>
+      <c r="T430">
+        <v>1.44</v>
+      </c>
+      <c r="U430">
+        <v>2.63</v>
+      </c>
+      <c r="V430">
+        <v>3.25</v>
+      </c>
+      <c r="W430">
+        <v>1.33</v>
+      </c>
+      <c r="X430">
+        <v>10</v>
+      </c>
+      <c r="Y430">
+        <v>1.06</v>
+      </c>
+      <c r="Z430">
+        <v>1.75</v>
+      </c>
+      <c r="AA430">
+        <v>3.41</v>
+      </c>
+      <c r="AB430">
+        <v>4.8</v>
+      </c>
+      <c r="AC430">
+        <v>1.08</v>
+      </c>
+      <c r="AD430">
+        <v>7.5</v>
+      </c>
+      <c r="AE430">
+        <v>1.4</v>
+      </c>
+      <c r="AF430">
+        <v>2.9</v>
+      </c>
+      <c r="AG430">
+        <v>2.15</v>
+      </c>
+      <c r="AH430">
+        <v>1.61</v>
+      </c>
+      <c r="AI430">
+        <v>2.1</v>
+      </c>
+      <c r="AJ430">
+        <v>1.67</v>
+      </c>
+      <c r="AK430">
+        <v>1.18</v>
+      </c>
+      <c r="AL430">
+        <v>1.25</v>
+      </c>
+      <c r="AM430">
+        <v>1.95</v>
+      </c>
+      <c r="AN430">
+        <v>1.79</v>
+      </c>
+      <c r="AO430">
+        <v>0.84</v>
+      </c>
+      <c r="AP430">
+        <v>1.7</v>
+      </c>
+      <c r="AQ430">
+        <v>0.95</v>
+      </c>
+      <c r="AR430">
+        <v>1.66</v>
+      </c>
+      <c r="AS430">
+        <v>1.25</v>
+      </c>
+      <c r="AT430">
+        <v>2.91</v>
+      </c>
+      <c r="AU430">
+        <v>3</v>
+      </c>
+      <c r="AV430">
+        <v>8</v>
+      </c>
+      <c r="AW430">
+        <v>16</v>
+      </c>
+      <c r="AX430">
+        <v>9</v>
+      </c>
+      <c r="AY430">
+        <v>23</v>
+      </c>
+      <c r="AZ430">
+        <v>21</v>
+      </c>
+      <c r="BA430">
+        <v>7</v>
+      </c>
+      <c r="BB430">
+        <v>2</v>
+      </c>
+      <c r="BC430">
+        <v>9</v>
+      </c>
+      <c r="BD430">
+        <v>1.5</v>
+      </c>
+      <c r="BE430">
+        <v>6.75</v>
+      </c>
+      <c r="BF430">
+        <v>2.8</v>
+      </c>
+      <c r="BG430">
+        <v>1.29</v>
+      </c>
+      <c r="BH430">
+        <v>3.15</v>
+      </c>
+      <c r="BI430">
+        <v>1.5</v>
+      </c>
+      <c r="BJ430">
+        <v>2.35</v>
+      </c>
+      <c r="BK430">
+        <v>1.82</v>
+      </c>
+      <c r="BL430">
+        <v>1.84</v>
+      </c>
+      <c r="BM430">
+        <v>2.28</v>
+      </c>
+      <c r="BN430">
+        <v>1.53</v>
+      </c>
+      <c r="BO430">
+        <v>2.9</v>
+      </c>
+      <c r="BP430">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="496">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1090,6 +1090,9 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1220,9 +1223,6 @@
   </si>
   <si>
     <t>['88']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['1', '76']</t>
@@ -1863,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP430"/>
+  <dimension ref="A1:BP431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2203,7 +2203,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3358,7 +3358,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3564,7 +3564,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4388,7 +4388,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ17">
         <v>1.11</v>
@@ -5624,7 +5624,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6242,7 +6242,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6448,7 +6448,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6654,7 +6654,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6860,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7066,7 +7066,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7353,7 +7353,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ27">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>1.25</v>
@@ -7684,7 +7684,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8302,7 +8302,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8508,7 +8508,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8920,7 +8920,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10774,7 +10774,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11392,7 +11392,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11470,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ51">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -13040,7 +13040,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13246,7 +13246,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13452,7 +13452,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13658,7 +13658,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13739,7 +13739,7 @@
         <v>0.68</v>
       </c>
       <c r="AQ58">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -14070,7 +14070,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14688,7 +14688,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15306,7 +15306,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15718,7 +15718,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15924,7 +15924,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16542,7 +16542,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16748,7 +16748,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16826,7 +16826,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ73">
         <v>1.1</v>
@@ -16954,7 +16954,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17778,7 +17778,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18396,7 +18396,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18602,7 +18602,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18808,7 +18808,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19632,7 +19632,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19916,7 +19916,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ88">
         <v>1.35</v>
@@ -20044,7 +20044,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20250,7 +20250,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20662,7 +20662,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21074,7 +21074,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21155,7 +21155,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ94">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -21280,7 +21280,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22310,7 +22310,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23752,7 +23752,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24370,7 +24370,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24988,7 +24988,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25400,7 +25400,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26099,7 +26099,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -26224,7 +26224,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26302,7 +26302,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ119">
         <v>1.35</v>
@@ -26842,7 +26842,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -27254,7 +27254,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -30219,7 +30219,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ138">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -31168,7 +31168,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -33103,7 +33103,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ152">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR152">
         <v>1.54</v>
@@ -33512,7 +33512,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ154">
         <v>1.37</v>
@@ -33846,7 +33846,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -37838,7 +37838,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ175">
         <v>0.8</v>
@@ -38459,7 +38459,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ178">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR178">
         <v>1.71</v>
@@ -38584,7 +38584,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -39692,7 +39692,7 @@
         <v>0.88</v>
       </c>
       <c r="AP184">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ184">
         <v>1.05</v>
@@ -40438,7 +40438,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -42988,7 +42988,7 @@
         <v>0.11</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ200">
         <v>1.15</v>
@@ -43197,7 +43197,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ201">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -43322,7 +43322,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43528,7 +43528,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -45794,7 +45794,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46206,7 +46206,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47111,7 +47111,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ220">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR220">
         <v>1.23</v>
@@ -49168,7 +49168,7 @@
         <v>1.3</v>
       </c>
       <c r="AP230">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ230">
         <v>1.15</v>
@@ -52261,7 +52261,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ245">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR245">
         <v>1.49</v>
@@ -52386,7 +52386,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -52670,7 +52670,7 @@
         <v>1.5</v>
       </c>
       <c r="AP247">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ247">
         <v>1.32</v>
@@ -58235,7 +58235,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ274">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR274">
         <v>1.29</v>
@@ -58438,7 +58438,7 @@
         <v>0.91</v>
       </c>
       <c r="AP275">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ275">
         <v>0.7</v>
@@ -60832,7 +60832,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -61940,7 +61940,7 @@
         <v>1</v>
       </c>
       <c r="AP292">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ292">
         <v>0.95</v>
@@ -62767,7 +62767,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ296">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR296">
         <v>1.6</v>
@@ -64824,7 +64824,7 @@
         <v>1.15</v>
       </c>
       <c r="AP306">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ306">
         <v>1</v>
@@ -69562,7 +69562,7 @@
         <v>0.47</v>
       </c>
       <c r="AP329">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ329">
         <v>0.4</v>
@@ -69977,7 +69977,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ331">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR331">
         <v>1.4</v>
@@ -73476,7 +73476,7 @@
         <v>1.27</v>
       </c>
       <c r="AP348">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ348">
         <v>1.05</v>
@@ -73891,7 +73891,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ350">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR350">
         <v>1.53</v>
@@ -74428,7 +74428,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -76981,7 +76981,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ365">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR365">
         <v>1.71</v>
@@ -77106,7 +77106,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -78214,7 +78214,7 @@
         <v>1.75</v>
       </c>
       <c r="AP371">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ371">
         <v>1.63</v>
@@ -80402,7 +80402,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -82334,7 +82334,7 @@
         <v>1.18</v>
       </c>
       <c r="AP391">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ391">
         <v>1.21</v>
@@ -83161,7 +83161,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ395">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR395">
         <v>1.67</v>
@@ -84522,7 +84522,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -84728,7 +84728,7 @@
         <v>341</v>
       </c>
       <c r="P403" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q403">
         <v>2.6</v>
@@ -87072,7 +87072,7 @@
         <v>0.39</v>
       </c>
       <c r="AP414">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ414">
         <v>0.42</v>
@@ -87899,7 +87899,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ418">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR418">
         <v>1.53</v>
@@ -90447,6 +90447,212 @@
       </c>
       <c r="BP430">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="431" spans="1:68">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>7728631</v>
+      </c>
+      <c r="C431" t="s">
+        <v>68</v>
+      </c>
+      <c r="D431" t="s">
+        <v>69</v>
+      </c>
+      <c r="E431" s="2">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="F431">
+        <v>40</v>
+      </c>
+      <c r="G431" t="s">
+        <v>82</v>
+      </c>
+      <c r="H431" t="s">
+        <v>85</v>
+      </c>
+      <c r="I431">
+        <v>1</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>1</v>
+      </c>
+      <c r="L431">
+        <v>1</v>
+      </c>
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431" t="s">
+        <v>358</v>
+      </c>
+      <c r="P431" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q431">
+        <v>1.85</v>
+      </c>
+      <c r="R431">
+        <v>2.4</v>
+      </c>
+      <c r="S431">
+        <v>6.25</v>
+      </c>
+      <c r="T431">
+        <v>1.3</v>
+      </c>
+      <c r="U431">
+        <v>3.2</v>
+      </c>
+      <c r="V431">
+        <v>2.38</v>
+      </c>
+      <c r="W431">
+        <v>1.53</v>
+      </c>
+      <c r="X431">
+        <v>6</v>
+      </c>
+      <c r="Y431">
+        <v>1.11</v>
+      </c>
+      <c r="Z431">
+        <v>1.44</v>
+      </c>
+      <c r="AA431">
+        <v>4.3</v>
+      </c>
+      <c r="AB431">
+        <v>6.5</v>
+      </c>
+      <c r="AC431">
+        <v>1.04</v>
+      </c>
+      <c r="AD431">
+        <v>10</v>
+      </c>
+      <c r="AE431">
+        <v>1.22</v>
+      </c>
+      <c r="AF431">
+        <v>4.2</v>
+      </c>
+      <c r="AG431">
+        <v>1.65</v>
+      </c>
+      <c r="AH431">
+        <v>2.05</v>
+      </c>
+      <c r="AI431">
+        <v>1.83</v>
+      </c>
+      <c r="AJ431">
+        <v>1.85</v>
+      </c>
+      <c r="AK431">
+        <v>1.09</v>
+      </c>
+      <c r="AL431">
+        <v>1.15</v>
+      </c>
+      <c r="AM431">
+        <v>2.75</v>
+      </c>
+      <c r="AN431">
+        <v>2.11</v>
+      </c>
+      <c r="AO431">
+        <v>0.95</v>
+      </c>
+      <c r="AP431">
+        <v>2.15</v>
+      </c>
+      <c r="AQ431">
+        <v>0.9</v>
+      </c>
+      <c r="AR431">
+        <v>1.69</v>
+      </c>
+      <c r="AS431">
+        <v>1.37</v>
+      </c>
+      <c r="AT431">
+        <v>3.06</v>
+      </c>
+      <c r="AU431">
+        <v>9</v>
+      </c>
+      <c r="AV431">
+        <v>5</v>
+      </c>
+      <c r="AW431">
+        <v>11</v>
+      </c>
+      <c r="AX431">
+        <v>4</v>
+      </c>
+      <c r="AY431">
+        <v>22</v>
+      </c>
+      <c r="AZ431">
+        <v>11</v>
+      </c>
+      <c r="BA431">
+        <v>7</v>
+      </c>
+      <c r="BB431">
+        <v>6</v>
+      </c>
+      <c r="BC431">
+        <v>13</v>
+      </c>
+      <c r="BD431">
+        <v>1.35</v>
+      </c>
+      <c r="BE431">
+        <v>7</v>
+      </c>
+      <c r="BF431">
+        <v>3.55</v>
+      </c>
+      <c r="BG431">
+        <v>1.33</v>
+      </c>
+      <c r="BH431">
+        <v>2.95</v>
+      </c>
+      <c r="BI431">
+        <v>1.55</v>
+      </c>
+      <c r="BJ431">
+        <v>2.25</v>
+      </c>
+      <c r="BK431">
+        <v>1.88</v>
+      </c>
+      <c r="BL431">
+        <v>1.78</v>
+      </c>
+      <c r="BM431">
+        <v>2.4</v>
+      </c>
+      <c r="BN431">
+        <v>1.48</v>
+      </c>
+      <c r="BO431">
+        <v>3.1</v>
+      </c>
+      <c r="BP431">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="502">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1518,6 +1518,9 @@
   <si>
     <t>['9', '28', '72']</t>
   </si>
+  <si>
+    <t>['10', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1878,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP440"/>
+  <dimension ref="A1:BP441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5514,7 +5517,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6541,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -9837,7 +9840,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ39">
         <v>0.8</v>
@@ -10046,7 +10049,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -11279,7 +11282,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46">
         <v>1.35</v>
@@ -15196,7 +15199,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -17459,7 +17462,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76">
         <v>0.7</v>
@@ -21994,7 +21997,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -22609,7 +22612,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ101">
         <v>0.4</v>
@@ -24878,7 +24881,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -27553,7 +27556,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -30646,7 +30649,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -31879,7 +31882,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
         <v>1.05</v>
@@ -33324,7 +33327,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -36205,7 +36208,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ167">
         <v>1.15</v>
@@ -39092,7 +39095,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -42385,7 +42388,7 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ197">
         <v>0.4</v>
@@ -42800,7 +42803,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR199">
         <v>1.74</v>
@@ -45269,7 +45272,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP211">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ211">
         <v>0.95</v>
@@ -48980,7 +48983,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR229">
         <v>1.48</v>
@@ -50010,7 +50013,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ234">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR234">
         <v>1.16</v>
@@ -51037,7 +51040,7 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ239">
         <v>1.1</v>
@@ -54333,7 +54336,7 @@
         <v>2.09</v>
       </c>
       <c r="AP255">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ255">
         <v>1.55</v>
@@ -55984,7 +55987,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ263">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR263">
         <v>1.43</v>
@@ -59074,7 +59077,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ278">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR278">
         <v>1.69</v>
@@ -60101,7 +60104,7 @@
         <v>1.38</v>
       </c>
       <c r="AP283">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ283">
         <v>1.15</v>
@@ -64842,7 +64845,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ306">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR306">
         <v>1.68</v>
@@ -66487,7 +66490,7 @@
         <v>1.46</v>
       </c>
       <c r="AP314">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ314">
         <v>1.4</v>
@@ -71225,7 +71228,7 @@
         <v>1</v>
       </c>
       <c r="AP337">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ337">
         <v>0.9</v>
@@ -71434,7 +71437,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ338">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR338">
         <v>1.53</v>
@@ -75963,7 +75966,7 @@
         <v>1.07</v>
       </c>
       <c r="AP360">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ360">
         <v>1.3</v>
@@ -76584,7 +76587,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ363">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR363">
         <v>1.53</v>
@@ -78026,7 +78029,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ370">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR370">
         <v>1.63</v>
@@ -79259,7 +79262,7 @@
         <v>1.53</v>
       </c>
       <c r="AP376">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ376">
         <v>1.5</v>
@@ -81528,7 +81531,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ387">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR387">
         <v>1.52</v>
@@ -82967,7 +82970,7 @@
         <v>1.29</v>
       </c>
       <c r="AP394">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ394">
         <v>1.35</v>
@@ -86057,7 +86060,7 @@
         <v>1.17</v>
       </c>
       <c r="AP409">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ409">
         <v>1.05</v>
@@ -86678,7 +86681,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ412">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR412">
         <v>1.62</v>
@@ -92522,6 +92525,212 @@
       </c>
       <c r="BP440">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="441" spans="1:68">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>7728627</v>
+      </c>
+      <c r="C441" t="s">
+        <v>68</v>
+      </c>
+      <c r="D441" t="s">
+        <v>69</v>
+      </c>
+      <c r="E441" s="2">
+        <v>45796.64583333334</v>
+      </c>
+      <c r="F441">
+        <v>40</v>
+      </c>
+      <c r="G441" t="s">
+        <v>88</v>
+      </c>
+      <c r="H441" t="s">
+        <v>71</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>1</v>
+      </c>
+      <c r="K441">
+        <v>1</v>
+      </c>
+      <c r="L441">
+        <v>1</v>
+      </c>
+      <c r="M441">
+        <v>2</v>
+      </c>
+      <c r="N441">
+        <v>3</v>
+      </c>
+      <c r="O441" t="s">
+        <v>346</v>
+      </c>
+      <c r="P441" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q441">
+        <v>3.25</v>
+      </c>
+      <c r="R441">
+        <v>2.1</v>
+      </c>
+      <c r="S441">
+        <v>3.25</v>
+      </c>
+      <c r="T441">
+        <v>1.4</v>
+      </c>
+      <c r="U441">
+        <v>2.75</v>
+      </c>
+      <c r="V441">
+        <v>3</v>
+      </c>
+      <c r="W441">
+        <v>1.36</v>
+      </c>
+      <c r="X441">
+        <v>8</v>
+      </c>
+      <c r="Y441">
+        <v>1.08</v>
+      </c>
+      <c r="Z441">
+        <v>2.57</v>
+      </c>
+      <c r="AA441">
+        <v>3.3</v>
+      </c>
+      <c r="AB441">
+        <v>2.65</v>
+      </c>
+      <c r="AC441">
+        <v>1.06</v>
+      </c>
+      <c r="AD441">
+        <v>8.5</v>
+      </c>
+      <c r="AE441">
+        <v>1.33</v>
+      </c>
+      <c r="AF441">
+        <v>3.25</v>
+      </c>
+      <c r="AG441">
+        <v>1.98</v>
+      </c>
+      <c r="AH441">
+        <v>1.77</v>
+      </c>
+      <c r="AI441">
+        <v>1.73</v>
+      </c>
+      <c r="AJ441">
+        <v>2</v>
+      </c>
+      <c r="AK441">
+        <v>1.45</v>
+      </c>
+      <c r="AL441">
+        <v>1.28</v>
+      </c>
+      <c r="AM441">
+        <v>1.48</v>
+      </c>
+      <c r="AN441">
+        <v>1.63</v>
+      </c>
+      <c r="AO441">
+        <v>1</v>
+      </c>
+      <c r="AP441">
+        <v>1.55</v>
+      </c>
+      <c r="AQ441">
+        <v>1.1</v>
+      </c>
+      <c r="AR441">
+        <v>1.83</v>
+      </c>
+      <c r="AS441">
+        <v>1.25</v>
+      </c>
+      <c r="AT441">
+        <v>3.08</v>
+      </c>
+      <c r="AU441">
+        <v>6</v>
+      </c>
+      <c r="AV441">
+        <v>5</v>
+      </c>
+      <c r="AW441">
+        <v>11</v>
+      </c>
+      <c r="AX441">
+        <v>8</v>
+      </c>
+      <c r="AY441">
+        <v>20</v>
+      </c>
+      <c r="AZ441">
+        <v>16</v>
+      </c>
+      <c r="BA441">
+        <v>5</v>
+      </c>
+      <c r="BB441">
+        <v>2</v>
+      </c>
+      <c r="BC441">
+        <v>7</v>
+      </c>
+      <c r="BD441">
+        <v>1.79</v>
+      </c>
+      <c r="BE441">
+        <v>6.75</v>
+      </c>
+      <c r="BF441">
+        <v>2.23</v>
+      </c>
+      <c r="BG441">
+        <v>1.3</v>
+      </c>
+      <c r="BH441">
+        <v>3.05</v>
+      </c>
+      <c r="BI441">
+        <v>1.52</v>
+      </c>
+      <c r="BJ441">
+        <v>2.28</v>
+      </c>
+      <c r="BK441">
+        <v>1.85</v>
+      </c>
+      <c r="BL441">
+        <v>1.81</v>
+      </c>
+      <c r="BM441">
+        <v>2.33</v>
+      </c>
+      <c r="BN441">
+        <v>1.5</v>
+      </c>
+      <c r="BO441">
+        <v>2.95</v>
+      </c>
+      <c r="BP441">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -1084,10 +1084,10 @@
     <t>['10', '88', '90+7']</t>
   </si>
   <si>
-    <t>['39', '90+8', '90+11']</t>
+    <t>['62']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['39', '90+8', '90+11']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -1501,10 +1501,10 @@
     <t>['44', '87']</t>
   </si>
   <si>
-    <t>['11', '32', '75']</t>
+    <t>['22', '58']</t>
   </si>
   <si>
-    <t>['22', '58']</t>
+    <t>['11', '32', '75']</t>
   </si>
   <si>
     <t>['4', '14']</t>
@@ -88824,7 +88824,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>7728615</v>
+        <v>7728614</v>
       </c>
       <c r="C423" t="s">
         <v>68</v>
@@ -88839,88 +88839,88 @@
         <v>39</v>
       </c>
       <c r="G423" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H423" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K423">
         <v>2</v>
       </c>
       <c r="L423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N423">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O423" t="s">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="P423" t="s">
         <v>495</v>
       </c>
       <c r="Q423">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R423">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S423">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T423">
+        <v>1.5</v>
+      </c>
+      <c r="U423">
+        <v>2.5</v>
+      </c>
+      <c r="V423">
+        <v>3.4</v>
+      </c>
+      <c r="W423">
+        <v>1.3</v>
+      </c>
+      <c r="X423">
+        <v>10</v>
+      </c>
+      <c r="Y423">
+        <v>1.06</v>
+      </c>
+      <c r="Z423">
+        <v>2.4</v>
+      </c>
+      <c r="AA423">
+        <v>3.02</v>
+      </c>
+      <c r="AB423">
+        <v>3.11</v>
+      </c>
+      <c r="AC423">
+        <v>1.09</v>
+      </c>
+      <c r="AD423">
+        <v>7</v>
+      </c>
+      <c r="AE423">
         <v>1.44</v>
       </c>
-      <c r="U423">
-        <v>2.63</v>
-      </c>
-      <c r="V423">
-        <v>3.25</v>
-      </c>
-      <c r="W423">
-        <v>1.33</v>
-      </c>
-      <c r="X423">
-        <v>9</v>
-      </c>
-      <c r="Y423">
-        <v>1.07</v>
-      </c>
-      <c r="Z423">
-        <v>1.96</v>
-      </c>
-      <c r="AA423">
-        <v>3.33</v>
-      </c>
-      <c r="AB423">
-        <v>3.86</v>
-      </c>
-      <c r="AC423">
-        <v>1.07</v>
-      </c>
-      <c r="AD423">
-        <v>8</v>
-      </c>
-      <c r="AE423">
-        <v>1.36</v>
-      </c>
       <c r="AF423">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AG423">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AH423">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AI423">
         <v>1.91</v>
@@ -88929,100 +88929,100 @@
         <v>1.8</v>
       </c>
       <c r="AK423">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AL423">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM423">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AN423">
-        <v>2.37</v>
+        <v>1.63</v>
       </c>
       <c r="AO423">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AP423">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AQ423">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AR423">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AS423">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT423">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="AU423">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV423">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW423">
+        <v>5</v>
+      </c>
+      <c r="AX423">
+        <v>6</v>
+      </c>
+      <c r="AY423">
+        <v>19</v>
+      </c>
+      <c r="AZ423">
+        <v>14</v>
+      </c>
+      <c r="BA423">
+        <v>6</v>
+      </c>
+      <c r="BB423">
+        <v>5</v>
+      </c>
+      <c r="BC423">
         <v>11</v>
       </c>
-      <c r="AX423">
-        <v>3</v>
-      </c>
-      <c r="AY423">
-        <v>27</v>
-      </c>
-      <c r="AZ423">
-        <v>11</v>
-      </c>
-      <c r="BA423">
-        <v>12</v>
-      </c>
-      <c r="BB423">
-        <v>3</v>
-      </c>
-      <c r="BC423">
-        <v>15</v>
-      </c>
       <c r="BD423">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="BE423">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF423">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="BG423">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="BH423">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="BI423">
+        <v>1.6</v>
+      </c>
+      <c r="BJ423">
+        <v>2.12</v>
+      </c>
+      <c r="BK423">
+        <v>1.97</v>
+      </c>
+      <c r="BL423">
         <v>1.71</v>
       </c>
-      <c r="BJ423">
-        <v>1.96</v>
-      </c>
-      <c r="BK423">
-        <v>2.14</v>
-      </c>
-      <c r="BL423">
-        <v>1.6</v>
-      </c>
       <c r="BM423">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="BN423">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="BO423">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BP423">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="424" spans="1:68">
@@ -89030,7 +89030,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>7728614</v>
+        <v>7728615</v>
       </c>
       <c r="C424" t="s">
         <v>68</v>
@@ -89045,88 +89045,88 @@
         <v>39</v>
       </c>
       <c r="G424" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H424" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K424">
         <v>2</v>
       </c>
       <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="M424">
         <v>3</v>
       </c>
-      <c r="M424">
-        <v>2</v>
-      </c>
       <c r="N424">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O424" t="s">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="P424" t="s">
         <v>496</v>
       </c>
       <c r="Q424">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="R424">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S424">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="T424">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U424">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V424">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W424">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X424">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y424">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z424">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="AA424">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="AB424">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="AC424">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD424">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE424">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AF424">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AG424">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AH424">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AI424">
         <v>1.91</v>
@@ -89135,100 +89135,100 @@
         <v>1.8</v>
       </c>
       <c r="AK424">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AL424">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM424">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AN424">
-        <v>1.63</v>
+        <v>2.37</v>
       </c>
       <c r="AO424">
+        <v>1.42</v>
+      </c>
+      <c r="AP424">
+        <v>2.25</v>
+      </c>
+      <c r="AQ424">
+        <v>1.5</v>
+      </c>
+      <c r="AR424">
+        <v>1.7</v>
+      </c>
+      <c r="AS424">
+        <v>1.25</v>
+      </c>
+      <c r="AT424">
+        <v>2.95</v>
+      </c>
+      <c r="AU424">
+        <v>13</v>
+      </c>
+      <c r="AV424">
+        <v>7</v>
+      </c>
+      <c r="AW424">
+        <v>11</v>
+      </c>
+      <c r="AX424">
+        <v>3</v>
+      </c>
+      <c r="AY424">
+        <v>27</v>
+      </c>
+      <c r="AZ424">
+        <v>11</v>
+      </c>
+      <c r="BA424">
+        <v>12</v>
+      </c>
+      <c r="BB424">
+        <v>3</v>
+      </c>
+      <c r="BC424">
+        <v>15</v>
+      </c>
+      <c r="BD424">
+        <v>1.53</v>
+      </c>
+      <c r="BE424">
+        <v>6.75</v>
+      </c>
+      <c r="BF424">
+        <v>2.8</v>
+      </c>
+      <c r="BG424">
+        <v>1.42</v>
+      </c>
+      <c r="BH424">
+        <v>2.55</v>
+      </c>
+      <c r="BI424">
+        <v>1.71</v>
+      </c>
+      <c r="BJ424">
+        <v>1.96</v>
+      </c>
+      <c r="BK424">
+        <v>2.14</v>
+      </c>
+      <c r="BL424">
+        <v>1.6</v>
+      </c>
+      <c r="BM424">
+        <v>2.8</v>
+      </c>
+      <c r="BN424">
+        <v>1.36</v>
+      </c>
+      <c r="BO424">
+        <v>3.65</v>
+      </c>
+      <c r="BP424">
         <v>1.21</v>
-      </c>
-      <c r="AP424">
-        <v>1.7</v>
-      </c>
-      <c r="AQ424">
-        <v>1.15</v>
-      </c>
-      <c r="AR424">
-        <v>1.34</v>
-      </c>
-      <c r="AS424">
-        <v>1.44</v>
-      </c>
-      <c r="AT424">
-        <v>2.78</v>
-      </c>
-      <c r="AU424">
-        <v>12</v>
-      </c>
-      <c r="AV424">
-        <v>6</v>
-      </c>
-      <c r="AW424">
-        <v>5</v>
-      </c>
-      <c r="AX424">
-        <v>6</v>
-      </c>
-      <c r="AY424">
-        <v>19</v>
-      </c>
-      <c r="AZ424">
-        <v>14</v>
-      </c>
-      <c r="BA424">
-        <v>6</v>
-      </c>
-      <c r="BB424">
-        <v>5</v>
-      </c>
-      <c r="BC424">
-        <v>11</v>
-      </c>
-      <c r="BD424">
-        <v>1.79</v>
-      </c>
-      <c r="BE424">
-        <v>6.4</v>
-      </c>
-      <c r="BF424">
-        <v>2.2</v>
-      </c>
-      <c r="BG424">
-        <v>1.35</v>
-      </c>
-      <c r="BH424">
-        <v>2.85</v>
-      </c>
-      <c r="BI424">
-        <v>1.6</v>
-      </c>
-      <c r="BJ424">
-        <v>2.12</v>
-      </c>
-      <c r="BK424">
-        <v>1.97</v>
-      </c>
-      <c r="BL424">
-        <v>1.71</v>
-      </c>
-      <c r="BM424">
-        <v>2.5</v>
-      </c>
-      <c r="BN424">
-        <v>1.44</v>
-      </c>
-      <c r="BO424">
-        <v>3.3</v>
-      </c>
-      <c r="BP424">
-        <v>1.27</v>
       </c>
     </row>
     <row r="425" spans="1:68">
@@ -89648,7 +89648,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>7728613</v>
+        <v>7728616</v>
       </c>
       <c r="C427" t="s">
         <v>68</v>
@@ -89663,49 +89663,49 @@
         <v>39</v>
       </c>
       <c r="G427" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H427" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427">
         <v>0</v>
       </c>
       <c r="K427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M427">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N427">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O427" t="s">
         <v>356</v>
       </c>
       <c r="P427" t="s">
-        <v>498</v>
+        <v>94</v>
       </c>
       <c r="Q427">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="R427">
         <v>2.1</v>
       </c>
       <c r="S427">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T427">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U427">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V427">
         <v>3</v>
@@ -89714,19 +89714,19 @@
         <v>1.36</v>
       </c>
       <c r="X427">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y427">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z427">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AA427">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="AB427">
-        <v>3.53</v>
+        <v>4.3</v>
       </c>
       <c r="AC427">
         <v>1.06</v>
@@ -89735,82 +89735,82 @@
         <v>8.5</v>
       </c>
       <c r="AE427">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF427">
         <v>3.1</v>
       </c>
       <c r="AG427">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="AH427">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AI427">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ427">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK427">
+        <v>1.19</v>
+      </c>
+      <c r="AL427">
         <v>1.29</v>
       </c>
-      <c r="AL427">
-        <v>1.31</v>
-      </c>
       <c r="AM427">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AN427">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="AO427">
-        <v>1.21</v>
+        <v>0.84</v>
       </c>
       <c r="AP427">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ427">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AR427">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AS427">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AT427">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="AU427">
+        <v>6</v>
+      </c>
+      <c r="AV427">
+        <v>2</v>
+      </c>
+      <c r="AW427">
+        <v>14</v>
+      </c>
+      <c r="AX427">
+        <v>5</v>
+      </c>
+      <c r="AY427">
+        <v>23</v>
+      </c>
+      <c r="AZ427">
         <v>8</v>
       </c>
-      <c r="AV427">
-        <v>7</v>
-      </c>
-      <c r="AW427">
-        <v>10</v>
-      </c>
-      <c r="AX427">
-        <v>18</v>
-      </c>
-      <c r="AY427">
-        <v>18</v>
-      </c>
-      <c r="AZ427">
-        <v>31</v>
-      </c>
       <c r="BA427">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB427">
+        <v>3</v>
+      </c>
+      <c r="BC427">
         <v>8</v>
       </c>
-      <c r="BC427">
-        <v>12</v>
-      </c>
       <c r="BD427">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BE427">
         <v>6.75</v>
@@ -89819,34 +89819,34 @@
         <v>2.8</v>
       </c>
       <c r="BG427">
+        <v>1.29</v>
+      </c>
+      <c r="BH427">
+        <v>3.15</v>
+      </c>
+      <c r="BI427">
+        <v>1.48</v>
+      </c>
+      <c r="BJ427">
+        <v>2.38</v>
+      </c>
+      <c r="BK427">
+        <v>1.8</v>
+      </c>
+      <c r="BL427">
+        <v>1.87</v>
+      </c>
+      <c r="BM427">
+        <v>2.2</v>
+      </c>
+      <c r="BN427">
+        <v>1.57</v>
+      </c>
+      <c r="BO427">
+        <v>2.8</v>
+      </c>
+      <c r="BP427">
         <v>1.36</v>
-      </c>
-      <c r="BH427">
-        <v>2.8</v>
-      </c>
-      <c r="BI427">
-        <v>1.61</v>
-      </c>
-      <c r="BJ427">
-        <v>2.12</v>
-      </c>
-      <c r="BK427">
-        <v>2</v>
-      </c>
-      <c r="BL427">
-        <v>1.7</v>
-      </c>
-      <c r="BM427">
-        <v>2.55</v>
-      </c>
-      <c r="BN427">
-        <v>1.43</v>
-      </c>
-      <c r="BO427">
-        <v>3.3</v>
-      </c>
-      <c r="BP427">
-        <v>1.27</v>
       </c>
     </row>
     <row r="428" spans="1:68">
@@ -89854,7 +89854,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>7728616</v>
+        <v>7728613</v>
       </c>
       <c r="C428" t="s">
         <v>68</v>
@@ -89869,49 +89869,49 @@
         <v>39</v>
       </c>
       <c r="G428" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H428" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J428">
         <v>0</v>
       </c>
       <c r="K428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L428">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M428">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N428">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O428" t="s">
         <v>357</v>
       </c>
       <c r="P428" t="s">
-        <v>94</v>
+        <v>498</v>
       </c>
       <c r="Q428">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R428">
         <v>2.1</v>
       </c>
       <c r="S428">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T428">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U428">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V428">
         <v>3</v>
@@ -89920,19 +89920,19 @@
         <v>1.36</v>
       </c>
       <c r="X428">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y428">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z428">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AA428">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="AB428">
-        <v>4.3</v>
+        <v>3.53</v>
       </c>
       <c r="AC428">
         <v>1.06</v>
@@ -89941,82 +89941,82 @@
         <v>8.5</v>
       </c>
       <c r="AE428">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF428">
         <v>3.1</v>
       </c>
       <c r="AG428">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="AH428">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="AI428">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ428">
+        <v>1.83</v>
+      </c>
+      <c r="AK428">
+        <v>1.29</v>
+      </c>
+      <c r="AL428">
+        <v>1.31</v>
+      </c>
+      <c r="AM428">
+        <v>1.7</v>
+      </c>
+      <c r="AN428">
+        <v>1.74</v>
+      </c>
+      <c r="AO428">
+        <v>1.21</v>
+      </c>
+      <c r="AP428">
         <v>1.8</v>
       </c>
-      <c r="AK428">
-        <v>1.19</v>
-      </c>
-      <c r="AL428">
-        <v>1.29</v>
-      </c>
-      <c r="AM428">
-        <v>1.98</v>
-      </c>
-      <c r="AN428">
-        <v>1.11</v>
-      </c>
-      <c r="AO428">
-        <v>0.84</v>
-      </c>
-      <c r="AP428">
-        <v>1.2</v>
-      </c>
       <c r="AQ428">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AR428">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AS428">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AT428">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="AU428">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV428">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW428">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX428">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AY428">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ428">
+        <v>31</v>
+      </c>
+      <c r="BA428">
+        <v>4</v>
+      </c>
+      <c r="BB428">
         <v>8</v>
       </c>
-      <c r="BA428">
-        <v>5</v>
-      </c>
-      <c r="BB428">
-        <v>3</v>
-      </c>
       <c r="BC428">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD428">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BE428">
         <v>6.75</v>
@@ -90025,34 +90025,34 @@
         <v>2.8</v>
       </c>
       <c r="BG428">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH428">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BI428">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="BJ428">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="BK428">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BL428">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="BM428">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="BN428">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="BO428">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP428">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="429" spans="1:68">
@@ -90678,7 +90678,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>7728628</v>
+        <v>7728632</v>
       </c>
       <c r="C432" t="s">
         <v>68</v>
@@ -90693,190 +90693,190 @@
         <v>40</v>
       </c>
       <c r="G432" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H432" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>1</v>
+      </c>
+      <c r="O432" t="s">
+        <v>248</v>
+      </c>
+      <c r="P432" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q432">
+        <v>2.75</v>
+      </c>
+      <c r="R432">
+        <v>1.85</v>
+      </c>
+      <c r="S432">
+        <v>4.5</v>
+      </c>
+      <c r="T432">
+        <v>1.55</v>
+      </c>
+      <c r="U432">
+        <v>2.3</v>
+      </c>
+      <c r="V432">
+        <v>3.55</v>
+      </c>
+      <c r="W432">
+        <v>1.25</v>
+      </c>
+      <c r="X432">
+        <v>9.1</v>
+      </c>
+      <c r="Y432">
+        <v>1</v>
+      </c>
+      <c r="Z432">
+        <v>1.9</v>
+      </c>
+      <c r="AA432">
+        <v>3.13</v>
+      </c>
+      <c r="AB432">
+        <v>4.5</v>
+      </c>
+      <c r="AC432">
+        <v>1.11</v>
+      </c>
+      <c r="AD432">
+        <v>6.25</v>
+      </c>
+      <c r="AE432">
+        <v>1.5</v>
+      </c>
+      <c r="AF432">
+        <v>2.3</v>
+      </c>
+      <c r="AG432">
+        <v>2.56</v>
+      </c>
+      <c r="AH432">
+        <v>1.45</v>
+      </c>
+      <c r="AI432">
+        <v>2.1</v>
+      </c>
+      <c r="AJ432">
+        <v>1.62</v>
+      </c>
+      <c r="AK432">
+        <v>1.22</v>
+      </c>
+      <c r="AL432">
+        <v>1.33</v>
+      </c>
+      <c r="AM432">
+        <v>1.75</v>
+      </c>
+      <c r="AN432">
+        <v>1.74</v>
+      </c>
+      <c r="AO432">
+        <v>1.05</v>
+      </c>
+      <c r="AP432">
+        <v>1.8</v>
+      </c>
+      <c r="AQ432">
+        <v>1</v>
+      </c>
+      <c r="AR432">
+        <v>1.58</v>
+      </c>
+      <c r="AS432">
+        <v>1.15</v>
+      </c>
+      <c r="AT432">
+        <v>2.73</v>
+      </c>
+      <c r="AU432">
+        <v>7</v>
+      </c>
+      <c r="AV432">
         <v>3</v>
       </c>
-      <c r="N432">
-        <v>5</v>
-      </c>
-      <c r="O432" t="s">
-        <v>359</v>
-      </c>
-      <c r="P432" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q432">
-        <v>3.4</v>
-      </c>
-      <c r="R432">
-        <v>2.1</v>
-      </c>
-      <c r="S432">
-        <v>3.1</v>
-      </c>
-      <c r="T432">
-        <v>1.4</v>
-      </c>
-      <c r="U432">
-        <v>2.75</v>
-      </c>
-      <c r="V432">
-        <v>3</v>
-      </c>
-      <c r="W432">
-        <v>1.36</v>
-      </c>
-      <c r="X432">
-        <v>8</v>
-      </c>
-      <c r="Y432">
-        <v>1.08</v>
-      </c>
-      <c r="Z432">
-        <v>3.07</v>
-      </c>
-      <c r="AA432">
-        <v>3.37</v>
-      </c>
-      <c r="AB432">
-        <v>2.23</v>
-      </c>
-      <c r="AC432">
-        <v>1.06</v>
-      </c>
-      <c r="AD432">
-        <v>8.5</v>
-      </c>
-      <c r="AE432">
-        <v>1.33</v>
-      </c>
-      <c r="AF432">
-        <v>3.25</v>
-      </c>
-      <c r="AG432">
-        <v>1.98</v>
-      </c>
-      <c r="AH432">
-        <v>1.77</v>
-      </c>
-      <c r="AI432">
-        <v>1.8</v>
-      </c>
-      <c r="AJ432">
-        <v>1.91</v>
-      </c>
-      <c r="AK432">
-        <v>1.5</v>
-      </c>
-      <c r="AL432">
-        <v>1.28</v>
-      </c>
-      <c r="AM432">
-        <v>1.42</v>
-      </c>
-      <c r="AN432">
-        <v>1.37</v>
-      </c>
-      <c r="AO432">
-        <v>1.32</v>
-      </c>
-      <c r="AP432">
-        <v>1.3</v>
-      </c>
-      <c r="AQ432">
-        <v>1.4</v>
-      </c>
-      <c r="AR432">
-        <v>1.57</v>
-      </c>
-      <c r="AS432">
-        <v>1.25</v>
-      </c>
-      <c r="AT432">
-        <v>2.82</v>
-      </c>
-      <c r="AU432">
-        <v>5</v>
-      </c>
-      <c r="AV432">
-        <v>7</v>
-      </c>
       <c r="AW432">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX432">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY432">
         <v>12</v>
       </c>
       <c r="AZ432">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BA432">
         <v>3</v>
       </c>
       <c r="BB432">
+        <v>1</v>
+      </c>
+      <c r="BC432">
         <v>4</v>
       </c>
-      <c r="BC432">
-        <v>7</v>
-      </c>
       <c r="BD432">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="BE432">
         <v>6.75</v>
       </c>
       <c r="BF432">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="BG432">
+        <v>1.4</v>
+      </c>
+      <c r="BH432">
+        <v>2.65</v>
+      </c>
+      <c r="BI432">
+        <v>1.67</v>
+      </c>
+      <c r="BJ432">
+        <v>2.02</v>
+      </c>
+      <c r="BK432">
+        <v>2.07</v>
+      </c>
+      <c r="BL432">
+        <v>1.64</v>
+      </c>
+      <c r="BM432">
+        <v>2.65</v>
+      </c>
+      <c r="BN432">
+        <v>1.4</v>
+      </c>
+      <c r="BO432">
+        <v>3.55</v>
+      </c>
+      <c r="BP432">
         <v>1.23</v>
-      </c>
-      <c r="BH432">
-        <v>3.52</v>
-      </c>
-      <c r="BI432">
-        <v>1.45</v>
-      </c>
-      <c r="BJ432">
-        <v>2.57</v>
-      </c>
-      <c r="BK432">
-        <v>1.74</v>
-      </c>
-      <c r="BL432">
-        <v>2.02</v>
-      </c>
-      <c r="BM432">
-        <v>2.17</v>
-      </c>
-      <c r="BN432">
-        <v>1.64</v>
-      </c>
-      <c r="BO432">
-        <v>2.73</v>
-      </c>
-      <c r="BP432">
-        <v>1.4</v>
       </c>
     </row>
     <row r="433" spans="1:68">
@@ -90884,7 +90884,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>7728632</v>
+        <v>7728628</v>
       </c>
       <c r="C433" t="s">
         <v>68</v>
@@ -90899,190 +90899,190 @@
         <v>40</v>
       </c>
       <c r="G433" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H433" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N433">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O433" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="P433" t="s">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="Q433">
+        <v>3.4</v>
+      </c>
+      <c r="R433">
+        <v>2.1</v>
+      </c>
+      <c r="S433">
+        <v>3.1</v>
+      </c>
+      <c r="T433">
+        <v>1.4</v>
+      </c>
+      <c r="U433">
         <v>2.75</v>
       </c>
-      <c r="R433">
-        <v>1.85</v>
-      </c>
-      <c r="S433">
-        <v>4.5</v>
-      </c>
-      <c r="T433">
-        <v>1.55</v>
-      </c>
-      <c r="U433">
-        <v>2.3</v>
-      </c>
       <c r="V433">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="W433">
+        <v>1.36</v>
+      </c>
+      <c r="X433">
+        <v>8</v>
+      </c>
+      <c r="Y433">
+        <v>1.08</v>
+      </c>
+      <c r="Z433">
+        <v>3.07</v>
+      </c>
+      <c r="AA433">
+        <v>3.37</v>
+      </c>
+      <c r="AB433">
+        <v>2.23</v>
+      </c>
+      <c r="AC433">
+        <v>1.06</v>
+      </c>
+      <c r="AD433">
+        <v>8.5</v>
+      </c>
+      <c r="AE433">
+        <v>1.33</v>
+      </c>
+      <c r="AF433">
+        <v>3.25</v>
+      </c>
+      <c r="AG433">
+        <v>1.98</v>
+      </c>
+      <c r="AH433">
+        <v>1.77</v>
+      </c>
+      <c r="AI433">
+        <v>1.8</v>
+      </c>
+      <c r="AJ433">
+        <v>1.91</v>
+      </c>
+      <c r="AK433">
+        <v>1.5</v>
+      </c>
+      <c r="AL433">
+        <v>1.28</v>
+      </c>
+      <c r="AM433">
+        <v>1.42</v>
+      </c>
+      <c r="AN433">
+        <v>1.37</v>
+      </c>
+      <c r="AO433">
+        <v>1.32</v>
+      </c>
+      <c r="AP433">
+        <v>1.3</v>
+      </c>
+      <c r="AQ433">
+        <v>1.4</v>
+      </c>
+      <c r="AR433">
+        <v>1.57</v>
+      </c>
+      <c r="AS433">
         <v>1.25</v>
       </c>
-      <c r="X433">
-        <v>9.1</v>
-      </c>
-      <c r="Y433">
-        <v>1</v>
-      </c>
-      <c r="Z433">
-        <v>1.9</v>
-      </c>
-      <c r="AA433">
-        <v>3.13</v>
-      </c>
-      <c r="AB433">
-        <v>4.5</v>
-      </c>
-      <c r="AC433">
-        <v>1.11</v>
-      </c>
-      <c r="AD433">
-        <v>6.25</v>
-      </c>
-      <c r="AE433">
-        <v>1.5</v>
-      </c>
-      <c r="AF433">
-        <v>2.3</v>
-      </c>
-      <c r="AG433">
-        <v>2.56</v>
-      </c>
-      <c r="AH433">
-        <v>1.45</v>
-      </c>
-      <c r="AI433">
-        <v>2.1</v>
-      </c>
-      <c r="AJ433">
-        <v>1.62</v>
-      </c>
-      <c r="AK433">
-        <v>1.22</v>
-      </c>
-      <c r="AL433">
-        <v>1.33</v>
-      </c>
-      <c r="AM433">
-        <v>1.75</v>
-      </c>
-      <c r="AN433">
-        <v>1.74</v>
-      </c>
-      <c r="AO433">
-        <v>1.05</v>
-      </c>
-      <c r="AP433">
-        <v>1.8</v>
-      </c>
-      <c r="AQ433">
-        <v>1</v>
-      </c>
-      <c r="AR433">
-        <v>1.58</v>
-      </c>
-      <c r="AS433">
-        <v>1.15</v>
-      </c>
       <c r="AT433">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="AU433">
+        <v>5</v>
+      </c>
+      <c r="AV433">
         <v>7</v>
       </c>
-      <c r="AV433">
-        <v>3</v>
-      </c>
       <c r="AW433">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX433">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY433">
         <v>12</v>
       </c>
       <c r="AZ433">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA433">
         <v>3</v>
       </c>
       <c r="BB433">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC433">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD433">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="BE433">
         <v>6.75</v>
       </c>
       <c r="BF433">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="BG433">
+        <v>1.23</v>
+      </c>
+      <c r="BH433">
+        <v>3.52</v>
+      </c>
+      <c r="BI433">
+        <v>1.45</v>
+      </c>
+      <c r="BJ433">
+        <v>2.57</v>
+      </c>
+      <c r="BK433">
+        <v>1.74</v>
+      </c>
+      <c r="BL433">
+        <v>2.02</v>
+      </c>
+      <c r="BM433">
+        <v>2.17</v>
+      </c>
+      <c r="BN433">
+        <v>1.64</v>
+      </c>
+      <c r="BO433">
+        <v>2.73</v>
+      </c>
+      <c r="BP433">
         <v>1.4</v>
-      </c>
-      <c r="BH433">
-        <v>2.65</v>
-      </c>
-      <c r="BI433">
-        <v>1.67</v>
-      </c>
-      <c r="BJ433">
-        <v>2.02</v>
-      </c>
-      <c r="BK433">
-        <v>2.07</v>
-      </c>
-      <c r="BL433">
-        <v>1.64</v>
-      </c>
-      <c r="BM433">
-        <v>2.65</v>
-      </c>
-      <c r="BN433">
-        <v>1.4</v>
-      </c>
-      <c r="BO433">
-        <v>3.55</v>
-      </c>
-      <c r="BP433">
-        <v>1.23</v>
       </c>
     </row>
     <row r="434" spans="1:68">
@@ -91914,7 +91914,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>7728630</v>
+        <v>7728626</v>
       </c>
       <c r="C438" t="s">
         <v>68</v>
@@ -91929,10 +91929,10 @@
         <v>40</v>
       </c>
       <c r="G438" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H438" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I438">
         <v>0</v>
@@ -91947,136 +91947,136 @@
         <v>1</v>
       </c>
       <c r="M438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O438" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="P438" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="Q438">
+        <v>2.1</v>
+      </c>
+      <c r="R438">
+        <v>2.3</v>
+      </c>
+      <c r="S438">
+        <v>4.75</v>
+      </c>
+      <c r="T438">
+        <v>1.33</v>
+      </c>
+      <c r="U438">
+        <v>3.1</v>
+      </c>
+      <c r="V438">
         <v>2.4</v>
       </c>
-      <c r="R438">
-        <v>2</v>
-      </c>
-      <c r="S438">
-        <v>5</v>
-      </c>
-      <c r="T438">
+      <c r="W438">
         <v>1.5</v>
       </c>
-      <c r="U438">
-        <v>2.4</v>
-      </c>
-      <c r="V438">
-        <v>3.3</v>
-      </c>
-      <c r="W438">
-        <v>1.28</v>
-      </c>
       <c r="X438">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="Y438">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="Z438">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AA438">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="AB438">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AC438">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AD438">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE438">
+        <v>1.22</v>
+      </c>
+      <c r="AF438">
+        <v>4</v>
+      </c>
+      <c r="AG438">
+        <v>1.73</v>
+      </c>
+      <c r="AH438">
+        <v>1.91</v>
+      </c>
+      <c r="AI438">
+        <v>1.67</v>
+      </c>
+      <c r="AJ438">
+        <v>2.05</v>
+      </c>
+      <c r="AK438">
+        <v>1.17</v>
+      </c>
+      <c r="AL438">
+        <v>1.2</v>
+      </c>
+      <c r="AM438">
+        <v>2.15</v>
+      </c>
+      <c r="AN438">
+        <v>1.47</v>
+      </c>
+      <c r="AO438">
+        <v>1</v>
+      </c>
+      <c r="AP438">
         <v>1.45</v>
       </c>
-      <c r="AF438">
-        <v>2.7</v>
-      </c>
-      <c r="AG438">
-        <v>2.25</v>
-      </c>
-      <c r="AH438">
-        <v>1.53</v>
-      </c>
-      <c r="AI438">
-        <v>2.1</v>
-      </c>
-      <c r="AJ438">
-        <v>1.62</v>
-      </c>
-      <c r="AK438">
-        <v>1.18</v>
-      </c>
-      <c r="AL438">
-        <v>1.25</v>
-      </c>
-      <c r="AM438">
-        <v>1.95</v>
-      </c>
-      <c r="AN438">
-        <v>2.05</v>
-      </c>
-      <c r="AO438">
-        <v>1.21</v>
-      </c>
-      <c r="AP438">
-        <v>2.1</v>
-      </c>
       <c r="AQ438">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AR438">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AS438">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT438">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU438">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AV438">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW438">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX438">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY438">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AZ438">
+        <v>12</v>
+      </c>
+      <c r="BA438">
+        <v>4</v>
+      </c>
+      <c r="BB438">
         <v>6</v>
       </c>
-      <c r="BA438">
-        <v>6</v>
-      </c>
-      <c r="BB438">
-        <v>2</v>
-      </c>
       <c r="BC438">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD438">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BE438">
         <v>6.75</v>
@@ -92085,34 +92085,34 @@
         <v>2.95</v>
       </c>
       <c r="BG438">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH438">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="BI438">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BJ438">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="BK438">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BL438">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="BM438">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BN438">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="BO438">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="BP438">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="439" spans="1:68">
@@ -92120,7 +92120,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>7728626</v>
+        <v>7728630</v>
       </c>
       <c r="C439" t="s">
         <v>68</v>
@@ -92135,10 +92135,10 @@
         <v>40</v>
       </c>
       <c r="G439" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H439" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I439">
         <v>0</v>
@@ -92153,136 +92153,136 @@
         <v>1</v>
       </c>
       <c r="M439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O439" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="P439" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="Q439">
+        <v>2.4</v>
+      </c>
+      <c r="R439">
+        <v>2</v>
+      </c>
+      <c r="S439">
+        <v>5</v>
+      </c>
+      <c r="T439">
+        <v>1.5</v>
+      </c>
+      <c r="U439">
+        <v>2.4</v>
+      </c>
+      <c r="V439">
+        <v>3.3</v>
+      </c>
+      <c r="W439">
+        <v>1.28</v>
+      </c>
+      <c r="X439">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y439">
+        <v>1.01</v>
+      </c>
+      <c r="Z439">
+        <v>1.8</v>
+      </c>
+      <c r="AA439">
+        <v>3.25</v>
+      </c>
+      <c r="AB439">
+        <v>4.6</v>
+      </c>
+      <c r="AC439">
+        <v>1.09</v>
+      </c>
+      <c r="AD439">
+        <v>7</v>
+      </c>
+      <c r="AE439">
+        <v>1.45</v>
+      </c>
+      <c r="AF439">
+        <v>2.7</v>
+      </c>
+      <c r="AG439">
+        <v>2.25</v>
+      </c>
+      <c r="AH439">
+        <v>1.53</v>
+      </c>
+      <c r="AI439">
         <v>2.1</v>
       </c>
-      <c r="R439">
-        <v>2.3</v>
-      </c>
-      <c r="S439">
-        <v>4.75</v>
-      </c>
-      <c r="T439">
-        <v>1.33</v>
-      </c>
-      <c r="U439">
-        <v>3.1</v>
-      </c>
-      <c r="V439">
-        <v>2.4</v>
-      </c>
-      <c r="W439">
-        <v>1.5</v>
-      </c>
-      <c r="X439">
+      <c r="AJ439">
+        <v>1.62</v>
+      </c>
+      <c r="AK439">
+        <v>1.18</v>
+      </c>
+      <c r="AL439">
+        <v>1.25</v>
+      </c>
+      <c r="AM439">
+        <v>1.95</v>
+      </c>
+      <c r="AN439">
+        <v>2.05</v>
+      </c>
+      <c r="AO439">
+        <v>1.21</v>
+      </c>
+      <c r="AP439">
+        <v>2.1</v>
+      </c>
+      <c r="AQ439">
+        <v>1.15</v>
+      </c>
+      <c r="AR439">
+        <v>1.58</v>
+      </c>
+      <c r="AS439">
+        <v>1.38</v>
+      </c>
+      <c r="AT439">
+        <v>2.96</v>
+      </c>
+      <c r="AU439">
+        <v>3</v>
+      </c>
+      <c r="AV439">
+        <v>2</v>
+      </c>
+      <c r="AW439">
+        <v>9</v>
+      </c>
+      <c r="AX439">
+        <v>3</v>
+      </c>
+      <c r="AY439">
+        <v>14</v>
+      </c>
+      <c r="AZ439">
         <v>6</v>
       </c>
-      <c r="Y439">
-        <v>1.11</v>
-      </c>
-      <c r="Z439">
-        <v>1.64</v>
-      </c>
-      <c r="AA439">
-        <v>3.85</v>
-      </c>
-      <c r="AB439">
-        <v>4.7</v>
-      </c>
-      <c r="AC439">
-        <v>1.04</v>
-      </c>
-      <c r="AD439">
-        <v>10</v>
-      </c>
-      <c r="AE439">
-        <v>1.22</v>
-      </c>
-      <c r="AF439">
-        <v>4</v>
-      </c>
-      <c r="AG439">
-        <v>1.73</v>
-      </c>
-      <c r="AH439">
-        <v>1.91</v>
-      </c>
-      <c r="AI439">
-        <v>1.67</v>
-      </c>
-      <c r="AJ439">
-        <v>2.05</v>
-      </c>
-      <c r="AK439">
-        <v>1.17</v>
-      </c>
-      <c r="AL439">
-        <v>1.2</v>
-      </c>
-      <c r="AM439">
-        <v>2.15</v>
-      </c>
-      <c r="AN439">
-        <v>1.47</v>
-      </c>
-      <c r="AO439">
-        <v>1</v>
-      </c>
-      <c r="AP439">
-        <v>1.45</v>
-      </c>
-      <c r="AQ439">
-        <v>1</v>
-      </c>
-      <c r="AR439">
-        <v>1.83</v>
-      </c>
-      <c r="AS439">
-        <v>1.2</v>
-      </c>
-      <c r="AT439">
-        <v>3.03</v>
-      </c>
-      <c r="AU439">
-        <v>11</v>
-      </c>
-      <c r="AV439">
+      <c r="BA439">
         <v>6</v>
       </c>
-      <c r="AW439">
-        <v>11</v>
-      </c>
-      <c r="AX439">
-        <v>6</v>
-      </c>
-      <c r="AY439">
-        <v>25</v>
-      </c>
-      <c r="AZ439">
-        <v>12</v>
-      </c>
-      <c r="BA439">
-        <v>4</v>
-      </c>
       <c r="BB439">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC439">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD439">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BE439">
         <v>6.75</v>
@@ -92291,34 +92291,34 @@
         <v>2.95</v>
       </c>
       <c r="BG439">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BH439">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="BI439">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BJ439">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="BK439">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="BL439">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="BM439">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="BN439">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="BO439">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="BP439">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="440" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="514">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1135,6 +1135,9 @@
     <t>['26', '89']</t>
   </si>
   <si>
+    <t>['2', '16', '33', '45+5']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1914,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP452"/>
+  <dimension ref="A1:BP453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2173,7 +2176,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2585,7 +2588,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2666,7 +2669,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3409,7 +3412,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3615,7 +3618,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4439,7 +4442,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5675,7 +5678,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6165,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ21">
         <v>1.43</v>
@@ -6293,7 +6296,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6374,7 +6377,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ22">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6499,7 +6502,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6705,7 +6708,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6911,7 +6914,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7117,7 +7120,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7735,7 +7738,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8228,7 +8231,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ31">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR31">
         <v>0.48</v>
@@ -8353,7 +8356,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8559,7 +8562,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8971,7 +8974,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10825,7 +10828,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10903,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ44">
         <v>1.05</v>
@@ -12760,7 +12763,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ53">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR53">
         <v>1.46</v>
@@ -13091,7 +13094,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13297,7 +13300,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13503,7 +13506,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13709,7 +13712,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -14121,7 +14124,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14739,7 +14742,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15023,7 +15026,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ64">
         <v>1.52</v>
@@ -15357,7 +15360,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15769,7 +15772,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15975,7 +15978,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16468,7 +16471,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -16593,7 +16596,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16799,7 +16802,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -17005,7 +17008,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17289,7 +17292,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ75">
         <v>0.4</v>
@@ -17829,7 +17832,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18447,7 +18450,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18653,7 +18656,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18859,7 +18862,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19683,7 +19686,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -20095,7 +20098,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20301,7 +20304,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20382,7 +20385,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20713,7 +20716,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21125,7 +21128,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21331,7 +21334,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22361,7 +22364,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -23469,7 +23472,7 @@
         <v>1.4</v>
       </c>
       <c r="AP105">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ105">
         <v>1.57</v>
@@ -24421,7 +24424,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -25039,7 +25042,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25117,7 +25120,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ113">
         <v>1.4</v>
@@ -25451,7 +25454,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25532,7 +25535,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ115">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -26275,7 +26278,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -27305,7 +27308,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27717,7 +27720,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28129,7 +28132,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28541,7 +28544,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28747,7 +28750,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28953,7 +28956,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29365,7 +29368,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29571,7 +29574,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30189,7 +30192,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30807,7 +30810,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -31013,7 +31016,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31219,7 +31222,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31300,7 +31303,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ143">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -31425,7 +31428,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31837,7 +31840,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32249,7 +32252,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -33279,7 +33282,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33357,7 +33360,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ153">
         <v>1.1</v>
@@ -33897,7 +33900,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -35545,7 +35548,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36163,7 +36166,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36244,7 +36247,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ167">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR167">
         <v>1.65</v>
@@ -37811,7 +37814,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38095,7 +38098,7 @@
         <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ176">
         <v>0.67</v>
@@ -38223,7 +38226,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38841,7 +38844,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39537,7 +39540,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ183">
         <v>0.76</v>
@@ -39665,7 +39668,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -41107,7 +41110,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41188,7 +41191,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ191">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR191">
         <v>1.48</v>
@@ -41313,7 +41316,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41519,7 +41522,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41725,7 +41728,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42961,7 +42964,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43373,7 +43376,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43451,7 +43454,7 @@
         <v>0.67</v>
       </c>
       <c r="AP202">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ202">
         <v>0.38</v>
@@ -43579,7 +43582,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43660,7 +43663,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ203">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR203">
         <v>1.49</v>
@@ -44197,7 +44200,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -45433,7 +45436,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45639,7 +45642,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45845,7 +45848,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -46257,7 +46260,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47493,7 +47496,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47905,7 +47908,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48317,7 +48320,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48395,7 +48398,7 @@
         <v>1.11</v>
       </c>
       <c r="AP226">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ226">
         <v>1.3</v>
@@ -48935,7 +48938,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49347,7 +49350,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -50171,7 +50174,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50995,7 +50998,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51488,7 +51491,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ241">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR241">
         <v>1.63</v>
@@ -51613,7 +51616,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52025,7 +52028,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52437,7 +52440,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53261,7 +53264,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53339,7 +53342,7 @@
         <v>0.45</v>
       </c>
       <c r="AP250">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ250">
         <v>1.1</v>
@@ -53467,7 +53470,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53879,7 +53882,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54291,7 +54294,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54497,7 +54500,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55733,7 +55736,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55814,7 +55817,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ262">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR262">
         <v>1.34</v>
@@ -56351,7 +56354,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57459,7 +57462,7 @@
         <v>1.25</v>
       </c>
       <c r="AP270">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ270">
         <v>1.1</v>
@@ -57793,7 +57796,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58698,7 +58701,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ276">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR276">
         <v>1.54</v>
@@ -58823,7 +58826,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -60059,7 +60062,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60265,7 +60268,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -61167,7 +61170,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP288">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ288">
         <v>0.95</v>
@@ -61501,7 +61504,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61707,7 +61710,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -63561,7 +63564,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63767,7 +63770,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63973,7 +63976,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -64054,7 +64057,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ302">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR302">
         <v>1.7</v>
@@ -65415,7 +65418,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -65905,7 +65908,7 @@
         <v>0.92</v>
       </c>
       <c r="AP311">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ311">
         <v>1</v>
@@ -66239,7 +66242,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66651,7 +66654,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66857,7 +66860,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -68917,7 +68920,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69329,7 +69332,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -71058,7 +71061,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ336">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR336">
         <v>1.73</v>
@@ -71389,7 +71392,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71595,7 +71598,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72213,7 +72216,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72291,7 +72294,7 @@
         <v>1.47</v>
       </c>
       <c r="AP342">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ342">
         <v>1.29</v>
@@ -73449,7 +73452,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73861,7 +73864,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74273,7 +74276,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74479,7 +74482,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75303,7 +75306,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75590,7 +75593,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ358">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR358">
         <v>1.58</v>
@@ -75921,7 +75924,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76333,7 +76336,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76539,7 +76542,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76951,7 +76954,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77029,7 +77032,7 @@
         <v>1</v>
       </c>
       <c r="AP365">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ365">
         <v>0.9</v>
@@ -77157,7 +77160,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77775,7 +77778,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -79217,7 +79220,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79423,7 +79426,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79835,7 +79838,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80247,7 +80250,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80453,7 +80456,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80659,7 +80662,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80865,7 +80868,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -81767,7 +81770,7 @@
         <v>1.22</v>
       </c>
       <c r="AP388">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ388">
         <v>1.1</v>
@@ -82101,7 +82104,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82307,7 +82310,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82388,7 +82391,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ391">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR391">
         <v>1.69</v>
@@ -82513,7 +82516,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82719,7 +82722,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83131,7 +83134,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83543,7 +83546,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -84573,7 +84576,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -85809,7 +85812,7 @@
         <v>344</v>
       </c>
       <c r="P408" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q408">
         <v>1.73</v>
@@ -86015,7 +86018,7 @@
         <v>345</v>
       </c>
       <c r="P409" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q409">
         <v>2.88</v>
@@ -86221,7 +86224,7 @@
         <v>346</v>
       </c>
       <c r="P410" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q410">
         <v>3.75</v>
@@ -87045,7 +87048,7 @@
         <v>244</v>
       </c>
       <c r="P414" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q414">
         <v>2.3</v>
@@ -87251,7 +87254,7 @@
         <v>290</v>
       </c>
       <c r="P415" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q415">
         <v>4.5</v>
@@ -87332,7 +87335,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ415">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR415">
         <v>1.21</v>
@@ -88075,7 +88078,7 @@
         <v>350</v>
       </c>
       <c r="P419" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q419">
         <v>2.4</v>
@@ -88153,7 +88156,7 @@
         <v>1</v>
       </c>
       <c r="AP419">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ419">
         <v>0.9</v>
@@ -88281,7 +88284,7 @@
         <v>351</v>
       </c>
       <c r="P420" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q420">
         <v>3.75</v>
@@ -88487,7 +88490,7 @@
         <v>352</v>
       </c>
       <c r="P421" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q421">
         <v>2.6</v>
@@ -88899,7 +88902,7 @@
         <v>354</v>
       </c>
       <c r="P423" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q423">
         <v>3.2</v>
@@ -89105,7 +89108,7 @@
         <v>137</v>
       </c>
       <c r="P424" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q424">
         <v>2.63</v>
@@ -89311,7 +89314,7 @@
         <v>355</v>
       </c>
       <c r="P425" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q425">
         <v>1.73</v>
@@ -89929,7 +89932,7 @@
         <v>357</v>
       </c>
       <c r="P428" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q428">
         <v>2.75</v>
@@ -90341,7 +90344,7 @@
         <v>94</v>
       </c>
       <c r="P430" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q430">
         <v>2.4</v>
@@ -90959,7 +90962,7 @@
         <v>359</v>
       </c>
       <c r="P433" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q433">
         <v>3.4</v>
@@ -92067,7 +92070,7 @@
         <v>1</v>
       </c>
       <c r="AP438">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ438">
         <v>1</v>
@@ -92276,7 +92279,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ439">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR439">
         <v>1.58</v>
@@ -92607,7 +92610,7 @@
         <v>346</v>
       </c>
       <c r="P441" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q441">
         <v>3.25</v>
@@ -93019,7 +93022,7 @@
         <v>365</v>
       </c>
       <c r="P443" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q443">
         <v>1.57</v>
@@ -93225,7 +93228,7 @@
         <v>366</v>
       </c>
       <c r="P444" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q444">
         <v>5.25</v>
@@ -94049,7 +94052,7 @@
         <v>369</v>
       </c>
       <c r="P448" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q448">
         <v>3.25</v>
@@ -95030,6 +95033,212 @@
       </c>
       <c r="BP452">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:68">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>7728648</v>
+      </c>
+      <c r="C453" t="s">
+        <v>68</v>
+      </c>
+      <c r="D453" t="s">
+        <v>69</v>
+      </c>
+      <c r="E453" s="2">
+        <v>45807.64583333334</v>
+      </c>
+      <c r="F453">
+        <v>42</v>
+      </c>
+      <c r="G453" t="s">
+        <v>86</v>
+      </c>
+      <c r="H453" t="s">
+        <v>91</v>
+      </c>
+      <c r="I453">
+        <v>4</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>4</v>
+      </c>
+      <c r="L453">
+        <v>4</v>
+      </c>
+      <c r="M453">
+        <v>1</v>
+      </c>
+      <c r="N453">
+        <v>5</v>
+      </c>
+      <c r="O453" t="s">
+        <v>373</v>
+      </c>
+      <c r="P453" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q453">
+        <v>2.4</v>
+      </c>
+      <c r="R453">
+        <v>2.2</v>
+      </c>
+      <c r="S453">
+        <v>3.9</v>
+      </c>
+      <c r="T453">
+        <v>1.31</v>
+      </c>
+      <c r="U453">
+        <v>3.1</v>
+      </c>
+      <c r="V453">
+        <v>2.37</v>
+      </c>
+      <c r="W453">
+        <v>1.5</v>
+      </c>
+      <c r="X453">
+        <v>5.75</v>
+      </c>
+      <c r="Y453">
+        <v>1.12</v>
+      </c>
+      <c r="Z453">
+        <v>1.81</v>
+      </c>
+      <c r="AA453">
+        <v>3.8</v>
+      </c>
+      <c r="AB453">
+        <v>3.95</v>
+      </c>
+      <c r="AC453">
+        <v>1.04</v>
+      </c>
+      <c r="AD453">
+        <v>10</v>
+      </c>
+      <c r="AE453">
+        <v>1.2</v>
+      </c>
+      <c r="AF453">
+        <v>4.33</v>
+      </c>
+      <c r="AG453">
+        <v>1.65</v>
+      </c>
+      <c r="AH453">
+        <v>2.05</v>
+      </c>
+      <c r="AI453">
+        <v>1.6</v>
+      </c>
+      <c r="AJ453">
+        <v>2.2</v>
+      </c>
+      <c r="AK453">
+        <v>1.27</v>
+      </c>
+      <c r="AL453">
+        <v>1.26</v>
+      </c>
+      <c r="AM453">
+        <v>1.85</v>
+      </c>
+      <c r="AN453">
+        <v>1.45</v>
+      </c>
+      <c r="AO453">
+        <v>1.15</v>
+      </c>
+      <c r="AP453">
+        <v>1.52</v>
+      </c>
+      <c r="AQ453">
+        <v>1.1</v>
+      </c>
+      <c r="AR453">
+        <v>1.87</v>
+      </c>
+      <c r="AS453">
+        <v>1.34</v>
+      </c>
+      <c r="AT453">
+        <v>3.21</v>
+      </c>
+      <c r="AU453">
+        <v>12</v>
+      </c>
+      <c r="AV453">
+        <v>6</v>
+      </c>
+      <c r="AW453">
+        <v>13</v>
+      </c>
+      <c r="AX453">
+        <v>7</v>
+      </c>
+      <c r="AY453">
+        <v>31</v>
+      </c>
+      <c r="AZ453">
+        <v>14</v>
+      </c>
+      <c r="BA453">
+        <v>8</v>
+      </c>
+      <c r="BB453">
+        <v>3</v>
+      </c>
+      <c r="BC453">
+        <v>11</v>
+      </c>
+      <c r="BD453">
+        <v>1.47</v>
+      </c>
+      <c r="BE453">
+        <v>7</v>
+      </c>
+      <c r="BF453">
+        <v>2.95</v>
+      </c>
+      <c r="BG453">
+        <v>1.3</v>
+      </c>
+      <c r="BH453">
+        <v>3.05</v>
+      </c>
+      <c r="BI453">
+        <v>1.54</v>
+      </c>
+      <c r="BJ453">
+        <v>2.25</v>
+      </c>
+      <c r="BK453">
+        <v>1.88</v>
+      </c>
+      <c r="BL453">
+        <v>1.78</v>
+      </c>
+      <c r="BM453">
+        <v>2.35</v>
+      </c>
+      <c r="BN453">
+        <v>1.5</v>
+      </c>
+      <c r="BO453">
+        <v>3.05</v>
+      </c>
+      <c r="BP453">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="517">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1138,6 +1138,9 @@
     <t>['2', '16', '33', '45+5']</t>
   </si>
   <si>
+    <t>['82', '84']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1557,6 +1560,12 @@
   <si>
     <t>['41', '82', '90+6']</t>
   </si>
+  <si>
+    <t>['44', '90']</t>
+  </si>
+  <si>
+    <t>['9', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1917,7 +1926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP453"/>
+  <dimension ref="A1:BP455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2176,7 +2185,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2588,7 +2597,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -3078,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ6">
         <v>0.76</v>
@@ -3412,7 +3421,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3618,7 +3627,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4442,7 +4451,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -5138,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ16">
         <v>1.4</v>
@@ -5550,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ18">
         <v>1.1</v>
@@ -5678,7 +5687,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -6296,7 +6305,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6502,7 +6511,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6708,7 +6717,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6914,7 +6923,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -7120,7 +7129,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -7404,7 +7413,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ27">
         <v>0.9</v>
@@ -7613,7 +7622,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7738,7 +7747,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -8356,7 +8365,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8562,7 +8571,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8974,7 +8983,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -10082,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -10828,7 +10837,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -11936,7 +11945,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ49">
         <v>1.1</v>
@@ -12145,7 +12154,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -13094,7 +13103,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -13300,7 +13309,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -13506,7 +13515,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13712,7 +13721,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13790,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ58">
         <v>0.9</v>
@@ -14124,7 +14133,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14617,7 +14626,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14742,7 +14751,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -15360,7 +15369,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15772,7 +15781,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15978,7 +15987,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16596,7 +16605,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16674,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ72">
         <v>1.3</v>
@@ -16802,7 +16811,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -17008,7 +17017,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -17832,7 +17841,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -18322,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ80">
         <v>1.3</v>
@@ -18450,7 +18459,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18656,7 +18665,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18737,7 +18746,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.41</v>
@@ -18862,7 +18871,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19686,7 +19695,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -20098,7 +20107,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -20304,7 +20313,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20716,7 +20725,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -21128,7 +21137,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -21334,7 +21343,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -22364,7 +22373,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22854,7 +22863,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ102">
         <v>1.43</v>
@@ -24090,7 +24099,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ108">
         <v>1.1</v>
@@ -24299,7 +24308,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ109">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -24424,7 +24433,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -25042,7 +25051,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -25454,7 +25463,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -26278,7 +26287,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -27308,7 +27317,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27720,7 +27729,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -28004,7 +28013,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ127">
         <v>0.95</v>
@@ -28132,7 +28141,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -28544,7 +28553,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28625,7 +28634,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ130">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28750,7 +28759,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28956,7 +28965,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29240,7 +29249,7 @@
         <v>0.2</v>
       </c>
       <c r="AP133">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ133">
         <v>0.4</v>
@@ -29368,7 +29377,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29574,7 +29583,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -30192,7 +30201,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30810,7 +30819,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -31016,7 +31025,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -31222,7 +31231,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -31428,7 +31437,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31712,7 +31721,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ145">
         <v>0.38</v>
@@ -31840,7 +31849,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -32127,7 +32136,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ147">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -32252,7 +32261,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32330,7 +32339,7 @@
         <v>3</v>
       </c>
       <c r="AP148">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ148">
         <v>1.52</v>
@@ -33282,7 +33291,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33900,7 +33909,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -35420,7 +35429,7 @@
         <v>1.43</v>
       </c>
       <c r="AP163">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ163">
         <v>1.57</v>
@@ -35548,7 +35557,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -36166,7 +36175,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36450,7 +36459,7 @@
         <v>3</v>
       </c>
       <c r="AP168">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ168">
         <v>1.52</v>
@@ -36865,7 +36874,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ170">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -37814,7 +37823,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -38226,7 +38235,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38844,7 +38853,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39668,7 +39677,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -41110,7 +41119,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -41316,7 +41325,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -41522,7 +41531,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41600,7 +41609,7 @@
         <v>0.89</v>
       </c>
       <c r="AP193">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ193">
         <v>1.43</v>
@@ -41728,7 +41737,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41806,7 +41815,7 @@
         <v>1.56</v>
       </c>
       <c r="AP194">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ194">
         <v>1.1</v>
@@ -42633,7 +42642,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ198">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42964,7 +42973,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -43376,7 +43385,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43582,7 +43591,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -44200,7 +44209,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -45436,7 +45445,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45642,7 +45651,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45720,7 +45729,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ213">
         <v>1.1</v>
@@ -45848,7 +45857,7 @@
         <v>139</v>
       </c>
       <c r="P214" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q214">
         <v>3.6</v>
@@ -45929,7 +45938,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ214">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR214">
         <v>1.17</v>
@@ -46132,7 +46141,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP215">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ215">
         <v>1</v>
@@ -46260,7 +46269,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -47496,7 +47505,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47908,7 +47917,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -48320,7 +48329,7 @@
         <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q226">
         <v>2.88</v>
@@ -48938,7 +48947,7 @@
         <v>94</v>
       </c>
       <c r="P229" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49350,7 +49359,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49840,7 +49849,7 @@
         <v>0.55</v>
       </c>
       <c r="AP233">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ233">
         <v>0.38</v>
@@ -50174,7 +50183,7 @@
         <v>245</v>
       </c>
       <c r="P235" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -50664,7 +50673,7 @@
         <v>1.22</v>
       </c>
       <c r="AP237">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ237">
         <v>1.29</v>
@@ -50873,7 +50882,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ238">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1.62</v>
@@ -50998,7 +51007,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q239">
         <v>3.2</v>
@@ -51616,7 +51625,7 @@
         <v>247</v>
       </c>
       <c r="P242" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52028,7 +52037,7 @@
         <v>224</v>
       </c>
       <c r="P244" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q244">
         <v>3.4</v>
@@ -52440,7 +52449,7 @@
         <v>248</v>
       </c>
       <c r="P246" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q246">
         <v>2.9</v>
@@ -53264,7 +53273,7 @@
         <v>124</v>
       </c>
       <c r="P250" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q250">
         <v>2.4</v>
@@ -53470,7 +53479,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q251">
         <v>2.4</v>
@@ -53882,7 +53891,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54294,7 +54303,7 @@
         <v>254</v>
       </c>
       <c r="P255" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54500,7 +54509,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q256">
         <v>2.8</v>
@@ -55199,7 +55208,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ259">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR259">
         <v>1.7</v>
@@ -55736,7 +55745,7 @@
         <v>258</v>
       </c>
       <c r="P262" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55814,7 +55823,7 @@
         <v>1.33</v>
       </c>
       <c r="AP262">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ262">
         <v>1.1</v>
@@ -56354,7 +56363,7 @@
         <v>94</v>
       </c>
       <c r="P265" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q265">
         <v>3.2</v>
@@ -57796,7 +57805,7 @@
         <v>94</v>
       </c>
       <c r="P272" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58826,7 +58835,7 @@
         <v>265</v>
       </c>
       <c r="P277" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q277">
         <v>3.2</v>
@@ -58904,7 +58913,7 @@
         <v>1.25</v>
       </c>
       <c r="AP277">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ277">
         <v>1</v>
@@ -59316,7 +59325,7 @@
         <v>1.46</v>
       </c>
       <c r="AP279">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ279">
         <v>1.57</v>
@@ -60062,7 +60071,7 @@
         <v>186</v>
       </c>
       <c r="P283" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60268,7 +60277,7 @@
         <v>267</v>
       </c>
       <c r="P284" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q284">
         <v>2.05</v>
@@ -61504,7 +61513,7 @@
         <v>271</v>
       </c>
       <c r="P290" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61710,7 +61719,7 @@
         <v>272</v>
       </c>
       <c r="P291" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q291">
         <v>2.75</v>
@@ -61997,7 +62006,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ292">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR292">
         <v>1.67</v>
@@ -63230,7 +63239,7 @@
         <v>0.23</v>
       </c>
       <c r="AP298">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ298">
         <v>0.4</v>
@@ -63436,7 +63445,7 @@
         <v>1</v>
       </c>
       <c r="AP299">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ299">
         <v>1.1</v>
@@ -63564,7 +63573,7 @@
         <v>147</v>
       </c>
       <c r="P300" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q300">
         <v>3.6</v>
@@ -63770,7 +63779,7 @@
         <v>278</v>
       </c>
       <c r="P301" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q301">
         <v>2.85</v>
@@ -63976,7 +63985,7 @@
         <v>279</v>
       </c>
       <c r="P302" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q302">
         <v>2.6</v>
@@ -65418,7 +65427,7 @@
         <v>94</v>
       </c>
       <c r="P309" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q309">
         <v>4.8</v>
@@ -66117,7 +66126,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ312">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR312">
         <v>1.54</v>
@@ -66242,7 +66251,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q313">
         <v>1.92</v>
@@ -66654,7 +66663,7 @@
         <v>138</v>
       </c>
       <c r="P315" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q315">
         <v>2.49</v>
@@ -66860,7 +66869,7 @@
         <v>130</v>
       </c>
       <c r="P316" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q316">
         <v>3.45</v>
@@ -67762,7 +67771,7 @@
         <v>0.86</v>
       </c>
       <c r="AP320">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ320">
         <v>1</v>
@@ -68920,7 +68929,7 @@
         <v>294</v>
       </c>
       <c r="P326" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q326">
         <v>2.65</v>
@@ -69332,7 +69341,7 @@
         <v>94</v>
       </c>
       <c r="P328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q328">
         <v>3.3</v>
@@ -69410,7 +69419,7 @@
         <v>1.21</v>
       </c>
       <c r="AP328">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ328">
         <v>1.05</v>
@@ -70440,7 +70449,7 @@
         <v>0.8</v>
       </c>
       <c r="AP333">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ333">
         <v>0.95</v>
@@ -71267,7 +71276,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ337">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR337">
         <v>1.66</v>
@@ -71392,7 +71401,7 @@
         <v>302</v>
       </c>
       <c r="P338" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q338">
         <v>3.5</v>
@@ -71598,7 +71607,7 @@
         <v>183</v>
       </c>
       <c r="P339" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q339">
         <v>3.4</v>
@@ -72216,7 +72225,7 @@
         <v>304</v>
       </c>
       <c r="P342" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -73118,7 +73127,7 @@
         <v>0.87</v>
       </c>
       <c r="AP346">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ346">
         <v>0.67</v>
@@ -73452,7 +73461,7 @@
         <v>310</v>
       </c>
       <c r="P348" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q348">
         <v>2.3</v>
@@ -73864,7 +73873,7 @@
         <v>94</v>
       </c>
       <c r="P350" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74276,7 +74285,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q352">
         <v>1.8</v>
@@ -74482,7 +74491,7 @@
         <v>117</v>
       </c>
       <c r="P353" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q353">
         <v>2.88</v>
@@ -75178,7 +75187,7 @@
         <v>1.44</v>
       </c>
       <c r="AP356">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ356">
         <v>1.29</v>
@@ -75306,7 +75315,7 @@
         <v>315</v>
       </c>
       <c r="P357" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q357">
         <v>4.6</v>
@@ -75924,7 +75933,7 @@
         <v>147</v>
       </c>
       <c r="P360" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q360">
         <v>3.25</v>
@@ -76336,7 +76345,7 @@
         <v>318</v>
       </c>
       <c r="P362" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76417,7 +76426,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ362">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR362">
         <v>1.26</v>
@@ -76542,7 +76551,7 @@
         <v>319</v>
       </c>
       <c r="P363" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76954,7 +76963,7 @@
         <v>320</v>
       </c>
       <c r="P365" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q365">
         <v>2.38</v>
@@ -77160,7 +77169,7 @@
         <v>244</v>
       </c>
       <c r="P366" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77778,7 +77787,7 @@
         <v>283</v>
       </c>
       <c r="P369" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q369">
         <v>2.75</v>
@@ -78474,7 +78483,7 @@
         <v>1.12</v>
       </c>
       <c r="AP372">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ372">
         <v>1.1</v>
@@ -79220,7 +79229,7 @@
         <v>325</v>
       </c>
       <c r="P376" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q376">
         <v>3.1</v>
@@ -79426,7 +79435,7 @@
         <v>326</v>
       </c>
       <c r="P377" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q377">
         <v>3.4</v>
@@ -79838,7 +79847,7 @@
         <v>94</v>
       </c>
       <c r="P379" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q379">
         <v>3.5</v>
@@ -80250,7 +80259,7 @@
         <v>94</v>
       </c>
       <c r="P381" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q381">
         <v>3.2</v>
@@ -80456,7 +80465,7 @@
         <v>148</v>
       </c>
       <c r="P382" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q382">
         <v>2.5</v>
@@ -80662,7 +80671,7 @@
         <v>328</v>
       </c>
       <c r="P383" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q383">
         <v>2.75</v>
@@ -80868,7 +80877,7 @@
         <v>329</v>
       </c>
       <c r="P384" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q384">
         <v>3</v>
@@ -80949,7 +80958,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ384">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR384">
         <v>1.56</v>
@@ -81976,7 +81985,7 @@
         <v>1.12</v>
       </c>
       <c r="AP389">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ389">
         <v>1</v>
@@ -82104,7 +82113,7 @@
         <v>289</v>
       </c>
       <c r="P390" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q390">
         <v>3.25</v>
@@ -82310,7 +82319,7 @@
         <v>334</v>
       </c>
       <c r="P391" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q391">
         <v>2.38</v>
@@ -82516,7 +82525,7 @@
         <v>335</v>
       </c>
       <c r="P392" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q392">
         <v>3.6</v>
@@ -82722,7 +82731,7 @@
         <v>336</v>
       </c>
       <c r="P393" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q393">
         <v>6.5</v>
@@ -83134,7 +83143,7 @@
         <v>337</v>
       </c>
       <c r="P395" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q395">
         <v>2.2</v>
@@ -83546,7 +83555,7 @@
         <v>338</v>
       </c>
       <c r="P397" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q397">
         <v>2.5</v>
@@ -83833,7 +83842,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ398">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR398">
         <v>1.48</v>
@@ -84576,7 +84585,7 @@
         <v>247</v>
       </c>
       <c r="P402" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q402">
         <v>3.1</v>
@@ -85478,7 +85487,7 @@
         <v>1.17</v>
       </c>
       <c r="AP406">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ406">
         <v>1</v>
@@ -85812,7 +85821,7 @@
         <v>344</v>
       </c>
       <c r="P408" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q408">
         <v>1.73</v>
@@ -86018,7 +86027,7 @@
         <v>345</v>
       </c>
       <c r="P409" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q409">
         <v>2.88</v>
@@ -86224,7 +86233,7 @@
         <v>346</v>
       </c>
       <c r="P410" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q410">
         <v>3.75</v>
@@ -86508,7 +86517,7 @@
         <v>1.39</v>
       </c>
       <c r="AP411">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ411">
         <v>1.4</v>
@@ -87048,7 +87057,7 @@
         <v>244</v>
       </c>
       <c r="P414" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q414">
         <v>2.3</v>
@@ -87254,7 +87263,7 @@
         <v>290</v>
       </c>
       <c r="P415" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q415">
         <v>4.5</v>
@@ -87332,7 +87341,7 @@
         <v>1.11</v>
       </c>
       <c r="AP415">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ415">
         <v>1.1</v>
@@ -88078,7 +88087,7 @@
         <v>350</v>
       </c>
       <c r="P419" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q419">
         <v>2.4</v>
@@ -88159,7 +88168,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ419">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR419">
         <v>1.81</v>
@@ -88284,7 +88293,7 @@
         <v>351</v>
       </c>
       <c r="P420" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q420">
         <v>3.75</v>
@@ -88490,7 +88499,7 @@
         <v>352</v>
       </c>
       <c r="P421" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q421">
         <v>2.6</v>
@@ -88902,7 +88911,7 @@
         <v>354</v>
       </c>
       <c r="P423" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q423">
         <v>3.2</v>
@@ -89108,7 +89117,7 @@
         <v>137</v>
       </c>
       <c r="P424" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q424">
         <v>2.63</v>
@@ -89314,7 +89323,7 @@
         <v>355</v>
       </c>
       <c r="P425" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q425">
         <v>1.73</v>
@@ -89932,7 +89941,7 @@
         <v>357</v>
       </c>
       <c r="P428" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q428">
         <v>2.75</v>
@@ -90344,7 +90353,7 @@
         <v>94</v>
       </c>
       <c r="P430" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q430">
         <v>2.4</v>
@@ -90962,7 +90971,7 @@
         <v>359</v>
       </c>
       <c r="P433" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q433">
         <v>3.4</v>
@@ -91658,10 +91667,10 @@
         <v>0.95</v>
       </c>
       <c r="AP436">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ436">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR436">
         <v>1.35</v>
@@ -91864,7 +91873,7 @@
         <v>1.11</v>
       </c>
       <c r="AP437">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AQ437">
         <v>1.05</v>
@@ -92610,7 +92619,7 @@
         <v>346</v>
       </c>
       <c r="P441" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q441">
         <v>3.25</v>
@@ -93022,7 +93031,7 @@
         <v>365</v>
       </c>
       <c r="P443" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q443">
         <v>1.57</v>
@@ -93228,7 +93237,7 @@
         <v>366</v>
       </c>
       <c r="P444" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q444">
         <v>5.25</v>
@@ -94052,7 +94061,7 @@
         <v>369</v>
       </c>
       <c r="P448" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q448">
         <v>3.25</v>
@@ -95239,6 +95248,418 @@
       </c>
       <c r="BP453">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:68">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>7728650</v>
+      </c>
+      <c r="C454" t="s">
+        <v>68</v>
+      </c>
+      <c r="D454" t="s">
+        <v>69</v>
+      </c>
+      <c r="E454" s="2">
+        <v>45808.46875</v>
+      </c>
+      <c r="F454">
+        <v>42</v>
+      </c>
+      <c r="G454" t="s">
+        <v>74</v>
+      </c>
+      <c r="H454" t="s">
+        <v>76</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>1</v>
+      </c>
+      <c r="K454">
+        <v>1</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+      <c r="M454">
+        <v>2</v>
+      </c>
+      <c r="N454">
+        <v>2</v>
+      </c>
+      <c r="O454" t="s">
+        <v>94</v>
+      </c>
+      <c r="P454" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q454">
+        <v>4.2</v>
+      </c>
+      <c r="R454">
+        <v>1.88</v>
+      </c>
+      <c r="S454">
+        <v>2.8</v>
+      </c>
+      <c r="T454">
+        <v>1.49</v>
+      </c>
+      <c r="U454">
+        <v>2.4</v>
+      </c>
+      <c r="V454">
+        <v>3</v>
+      </c>
+      <c r="W454">
+        <v>1.33</v>
+      </c>
+      <c r="X454">
+        <v>8</v>
+      </c>
+      <c r="Y454">
+        <v>1.06</v>
+      </c>
+      <c r="Z454">
+        <v>3.28</v>
+      </c>
+      <c r="AA454">
+        <v>2.53</v>
+      </c>
+      <c r="AB454">
+        <v>2.71</v>
+      </c>
+      <c r="AC454">
+        <v>1.09</v>
+      </c>
+      <c r="AD454">
+        <v>7</v>
+      </c>
+      <c r="AE454">
+        <v>1.48</v>
+      </c>
+      <c r="AF454">
+        <v>2.37</v>
+      </c>
+      <c r="AG454">
+        <v>2.14</v>
+      </c>
+      <c r="AH454">
+        <v>1.63</v>
+      </c>
+      <c r="AI454">
+        <v>1.87</v>
+      </c>
+      <c r="AJ454">
+        <v>1.82</v>
+      </c>
+      <c r="AK454">
+        <v>1.65</v>
+      </c>
+      <c r="AL454">
+        <v>1.39</v>
+      </c>
+      <c r="AM454">
+        <v>1.26</v>
+      </c>
+      <c r="AN454">
+        <v>0.8</v>
+      </c>
+      <c r="AO454">
+        <v>0.9</v>
+      </c>
+      <c r="AP454">
+        <v>0.76</v>
+      </c>
+      <c r="AQ454">
+        <v>1</v>
+      </c>
+      <c r="AR454">
+        <v>1.23</v>
+      </c>
+      <c r="AS454">
+        <v>1.32</v>
+      </c>
+      <c r="AT454">
+        <v>2.55</v>
+      </c>
+      <c r="AU454">
+        <v>7</v>
+      </c>
+      <c r="AV454">
+        <v>8</v>
+      </c>
+      <c r="AW454">
+        <v>5</v>
+      </c>
+      <c r="AX454">
+        <v>6</v>
+      </c>
+      <c r="AY454">
+        <v>14</v>
+      </c>
+      <c r="AZ454">
+        <v>16</v>
+      </c>
+      <c r="BA454">
+        <v>2</v>
+      </c>
+      <c r="BB454">
+        <v>4</v>
+      </c>
+      <c r="BC454">
+        <v>6</v>
+      </c>
+      <c r="BD454">
+        <v>2.18</v>
+      </c>
+      <c r="BE454">
+        <v>6.5</v>
+      </c>
+      <c r="BF454">
+        <v>1.83</v>
+      </c>
+      <c r="BG454">
+        <v>1.36</v>
+      </c>
+      <c r="BH454">
+        <v>2.8</v>
+      </c>
+      <c r="BI454">
+        <v>1.6</v>
+      </c>
+      <c r="BJ454">
+        <v>2.14</v>
+      </c>
+      <c r="BK454">
+        <v>1.97</v>
+      </c>
+      <c r="BL454">
+        <v>1.7</v>
+      </c>
+      <c r="BM454">
+        <v>2.5</v>
+      </c>
+      <c r="BN454">
+        <v>1.44</v>
+      </c>
+      <c r="BO454">
+        <v>3.3</v>
+      </c>
+      <c r="BP454">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="455" spans="1:68">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>7728652</v>
+      </c>
+      <c r="C455" t="s">
+        <v>68</v>
+      </c>
+      <c r="D455" t="s">
+        <v>69</v>
+      </c>
+      <c r="E455" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="F455">
+        <v>42</v>
+      </c>
+      <c r="G455" t="s">
+        <v>83</v>
+      </c>
+      <c r="H455" t="s">
+        <v>78</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>1</v>
+      </c>
+      <c r="K455">
+        <v>1</v>
+      </c>
+      <c r="L455">
+        <v>2</v>
+      </c>
+      <c r="M455">
+        <v>2</v>
+      </c>
+      <c r="N455">
+        <v>4</v>
+      </c>
+      <c r="O455" t="s">
+        <v>374</v>
+      </c>
+      <c r="P455" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q455">
+        <v>2.65</v>
+      </c>
+      <c r="R455">
+        <v>1.95</v>
+      </c>
+      <c r="S455">
+        <v>4.33</v>
+      </c>
+      <c r="T455">
+        <v>1.5</v>
+      </c>
+      <c r="U455">
+        <v>2.4</v>
+      </c>
+      <c r="V455">
+        <v>3.4</v>
+      </c>
+      <c r="W455">
+        <v>1.28</v>
+      </c>
+      <c r="X455">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y455">
+        <v>1.01</v>
+      </c>
+      <c r="Z455">
+        <v>2.07</v>
+      </c>
+      <c r="AA455">
+        <v>3.07</v>
+      </c>
+      <c r="AB455">
+        <v>3.81</v>
+      </c>
+      <c r="AC455">
+        <v>1.08</v>
+      </c>
+      <c r="AD455">
+        <v>7.5</v>
+      </c>
+      <c r="AE455">
+        <v>1.45</v>
+      </c>
+      <c r="AF455">
+        <v>2.7</v>
+      </c>
+      <c r="AG455">
+        <v>2.37</v>
+      </c>
+      <c r="AH455">
+        <v>1.48</v>
+      </c>
+      <c r="AI455">
+        <v>2.05</v>
+      </c>
+      <c r="AJ455">
+        <v>1.67</v>
+      </c>
+      <c r="AK455">
+        <v>1.25</v>
+      </c>
+      <c r="AL455">
+        <v>1.28</v>
+      </c>
+      <c r="AM455">
+        <v>1.75</v>
+      </c>
+      <c r="AN455">
+        <v>1.8</v>
+      </c>
+      <c r="AO455">
+        <v>1</v>
+      </c>
+      <c r="AP455">
+        <v>1.76</v>
+      </c>
+      <c r="AQ455">
+        <v>1</v>
+      </c>
+      <c r="AR455">
+        <v>1.38</v>
+      </c>
+      <c r="AS455">
+        <v>1.13</v>
+      </c>
+      <c r="AT455">
+        <v>2.51</v>
+      </c>
+      <c r="AU455">
+        <v>3</v>
+      </c>
+      <c r="AV455">
+        <v>8</v>
+      </c>
+      <c r="AW455">
+        <v>15</v>
+      </c>
+      <c r="AX455">
+        <v>2</v>
+      </c>
+      <c r="AY455">
+        <v>19</v>
+      </c>
+      <c r="AZ455">
+        <v>11</v>
+      </c>
+      <c r="BA455">
+        <v>9</v>
+      </c>
+      <c r="BB455">
+        <v>4</v>
+      </c>
+      <c r="BC455">
+        <v>13</v>
+      </c>
+      <c r="BD455">
+        <v>1.63</v>
+      </c>
+      <c r="BE455">
+        <v>6.75</v>
+      </c>
+      <c r="BF455">
+        <v>2.55</v>
+      </c>
+      <c r="BG455">
+        <v>1.37</v>
+      </c>
+      <c r="BH455">
+        <v>2.75</v>
+      </c>
+      <c r="BI455">
+        <v>1.62</v>
+      </c>
+      <c r="BJ455">
+        <v>2.1</v>
+      </c>
+      <c r="BK455">
+        <v>2</v>
+      </c>
+      <c r="BL455">
+        <v>1.68</v>
+      </c>
+      <c r="BM455">
+        <v>2.55</v>
+      </c>
+      <c r="BN455">
+        <v>1.42</v>
+      </c>
+      <c r="BO455">
+        <v>3.4</v>
+      </c>
+      <c r="BP455">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain Segunda División_20242025.xlsx
@@ -95390,22 +95390,22 @@
         <v>2.55</v>
       </c>
       <c r="AU454">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV454">
         <v>8</v>
       </c>
       <c r="AW454">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX454">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY454">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ454">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA454">
         <v>2</v>
